--- a/Compras.xlsx
+++ b/Compras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\UiPath\Compras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\UiPath\compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BF128A-FC92-4B05-848A-84725743B73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1C9C18-EB90-4313-8C1E-C8DB7C6AC24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E81748A-158E-47CF-85C5-D5DE687CA7E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2E81748A-158E-47CF-85C5-D5DE687CA7E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>AV</t>
   </si>
@@ -47,35 +47,17 @@
     <t>10/08/2024</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>40106e771e24302a1df3eb7e5a91a2ade6464aad3a829f9ac78f48cc39c00e79f74211b3601db929bf1b767556a4e405</t>
   </si>
   <si>
-    <t>75aedca108ea46484d2b545e6666e812170270fdaa4666c1011078d60bb36b2b0a201b56ee4d8a19fd60c3a8211d07d1</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>ab498656a472525c726782ef748f7e152bc9fa7507c790e1872735593084e78a40c617c7e095d96d5ac3928e675c3bf2</t>
-  </si>
-  <si>
-    <t>68d027248af7362968c4491e5ed95e9e825fab1dd81f8a3417bf38bbf3dde38a5a8c7eff61aa176ae1068eeff84e5b3c</t>
-  </si>
-  <si>
-    <t>7445cd977469d5d8372824e6aacb60ff403d5e83d28cb17f382262641e420545d0793f626864d2084baca7f057d9f9b0</t>
-  </si>
-  <si>
-    <t>572f5b952b2be3491bd82a9db9761bf1309813934b8ceef05d1c7b666595cf5a712f8e04e73e6d980b06976655780795</t>
+    <t>517</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,109 +432,75 @@
   <dimension ref="A1:H1084"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="104.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="59.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="104.125" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="59.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
@@ -562,7 +510,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
@@ -572,7 +520,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
@@ -582,7 +530,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
@@ -592,7 +540,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
@@ -602,7 +550,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
@@ -612,7 +560,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
@@ -622,7 +570,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
@@ -632,7 +580,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
@@ -642,7 +590,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
@@ -652,7 +600,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
@@ -662,7 +610,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
@@ -672,7 +620,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
@@ -682,7 +630,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
@@ -692,7 +640,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
@@ -702,7 +650,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
@@ -712,7 +660,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
@@ -722,7 +670,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
@@ -732,7 +680,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
@@ -742,7 +690,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
@@ -752,7 +700,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
@@ -762,7 +710,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
@@ -772,7 +720,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
@@ -782,7 +730,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
@@ -792,7 +740,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
@@ -802,7 +750,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -812,7 +760,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -822,7 +770,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
@@ -832,7 +780,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
@@ -842,7 +790,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -852,7 +800,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -862,7 +810,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -872,7 +820,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -882,7 +830,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -892,7 +840,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -902,7 +850,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -912,7 +860,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -922,7 +870,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -932,7 +880,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -942,7 +890,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -952,7 +900,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -962,7 +910,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -972,7 +920,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -982,7 +930,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -992,7 +940,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -1002,7 +950,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -1012,7 +960,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1022,7 +970,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1032,7 +980,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1042,7 +990,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1052,7 +1000,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1062,7 +1010,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -1072,7 +1020,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -1082,7 +1030,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -1092,7 +1040,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -1102,7 +1050,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -1112,7 +1060,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -1122,7 +1070,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -1132,7 +1080,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -1142,7 +1090,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -1152,7 +1100,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -1162,7 +1110,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -1172,7 +1120,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -1182,7 +1130,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -1192,7 +1140,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -1202,7 +1150,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -1212,7 +1160,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -1222,7 +1170,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -1232,7 +1180,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -1242,7 +1190,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -1252,7 +1200,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -1262,7 +1210,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -1272,7 +1220,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -1282,7 +1230,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -1292,7 +1240,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -1302,7 +1250,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -1312,7 +1260,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -1322,7 +1270,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -1332,7 +1280,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -1342,7 +1290,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -1352,7 +1300,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -1362,7 +1310,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -1372,7 +1320,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -1382,7 +1330,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -1392,7 +1340,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -1402,7 +1350,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -1412,7 +1360,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -1422,7 +1370,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -1432,7 +1380,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -1442,7 +1390,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -1452,7 +1400,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -1462,7 +1410,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -1472,7 +1420,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -1482,7 +1430,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -1492,7 +1440,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -1502,7 +1450,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -1512,7 +1460,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -1522,7 +1470,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -1532,7 +1480,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -1542,7 +1490,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -1552,7 +1500,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -1562,7 +1510,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -1572,7 +1520,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -1582,7 +1530,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -1592,7 +1540,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -1602,7 +1550,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -1612,7 +1560,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -1622,7 +1570,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -1632,7 +1580,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -1642,7 +1590,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -1652,7 +1600,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -1662,7 +1610,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -1672,7 +1620,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -1682,7 +1630,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -1692,7 +1640,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -1702,7 +1650,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -1712,7 +1660,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -1722,7 +1670,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -1732,7 +1680,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -1742,7 +1690,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -1752,7 +1700,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -1762,7 +1710,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -1772,7 +1720,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -1782,7 +1730,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -1792,7 +1740,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -1802,7 +1750,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -1812,7 +1760,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -1822,7 +1770,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -1832,7 +1780,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -1842,7 +1790,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -1852,7 +1800,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -1862,7 +1810,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -1872,7 +1820,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -1882,7 +1830,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -1892,7 +1840,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -1902,7 +1850,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -1912,7 +1860,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -1922,7 +1870,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -1932,7 +1880,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -1942,7 +1890,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -1952,7 +1900,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -1962,7 +1910,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -1972,7 +1920,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -1982,7 +1930,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -1992,7 +1940,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -2002,7 +1950,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -2012,7 +1960,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -2022,7 +1970,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -2032,7 +1980,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -2042,7 +1990,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -2052,7 +2000,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -2062,7 +2010,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -2072,7 +2020,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -2082,7 +2030,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -2092,7 +2040,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -2102,7 +2050,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -2112,7 +2060,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -2122,7 +2070,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -2132,7 +2080,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -2142,7 +2090,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -2152,7 +2100,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -2162,7 +2110,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -2172,7 +2120,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -2182,7 +2130,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -2192,7 +2140,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -2202,7 +2150,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -2212,7 +2160,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -2222,7 +2170,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -2232,7 +2180,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -2242,7 +2190,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -2252,7 +2200,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -2262,7 +2210,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -2272,7 +2220,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -2282,7 +2230,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -2292,7 +2240,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -2302,7 +2250,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -2312,7 +2260,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -2322,7 +2270,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -2332,7 +2280,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -2342,7 +2290,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -2352,7 +2300,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -2362,7 +2310,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -2372,7 +2320,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -2382,7 +2330,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -2392,7 +2340,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -2402,7 +2350,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -2412,7 +2360,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -2422,7 +2370,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -2432,7 +2380,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -2442,7 +2390,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -2452,7 +2400,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -2462,7 +2410,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -2472,7 +2420,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -2482,7 +2430,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -2492,7 +2440,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -2502,7 +2450,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="1"/>
@@ -2512,7 +2460,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="1"/>
@@ -2522,7 +2470,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="1"/>
@@ -2532,7 +2480,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="1"/>
@@ -2542,7 +2490,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
       <c r="C205" s="1"/>
@@ -2552,7 +2500,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="1"/>
@@ -2562,7 +2510,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="1"/>
@@ -2572,7 +2520,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="1"/>
@@ -2582,7 +2530,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="1"/>
@@ -2592,7 +2540,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="1"/>
@@ -2602,7 +2550,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="1"/>
@@ -2612,7 +2560,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="1"/>
@@ -2622,7 +2570,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="1"/>
@@ -2632,7 +2580,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="1"/>
@@ -2642,7 +2590,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="1"/>
@@ -2652,7 +2600,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="1"/>
@@ -2662,7 +2610,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="1"/>
@@ -2672,7 +2620,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="1"/>
@@ -2682,7 +2630,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="1"/>
@@ -2692,7 +2640,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="1"/>
@@ -2702,7 +2650,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="1"/>
@@ -2712,7 +2660,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="1"/>
@@ -2722,7 +2670,7 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="1"/>
@@ -2732,7 +2680,7 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="1"/>
@@ -2742,7 +2690,7 @@
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="1"/>
@@ -2752,7 +2700,7 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="1"/>
@@ -2762,7 +2710,7 @@
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="1"/>
@@ -2772,7 +2720,7 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="1"/>
@@ -2782,7 +2730,7 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="1"/>
@@ -2792,7 +2740,7 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="1"/>
@@ -2802,7 +2750,7 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="1"/>
@@ -2812,7 +2760,7 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232" s="1"/>
       <c r="B232" s="2"/>
       <c r="C232" s="1"/>
@@ -2822,7 +2770,7 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8">
       <c r="A233" s="1"/>
       <c r="B233" s="2"/>
       <c r="C233" s="1"/>
@@ -2832,7 +2780,7 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8">
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
       <c r="C234" s="1"/>
@@ -2842,7 +2790,7 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="1"/>
@@ -2852,7 +2800,7 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="1"/>
@@ -2862,7 +2810,7 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="1"/>
@@ -2872,7 +2820,7 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="1"/>
@@ -2882,7 +2830,7 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="1"/>
@@ -2892,7 +2840,7 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
       <c r="C240" s="1"/>
@@ -2902,7 +2850,7 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
       <c r="C241" s="1"/>
@@ -2912,7 +2860,7 @@
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
       <c r="C242" s="1"/>
@@ -2922,7 +2870,7 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
       <c r="C243" s="1"/>
@@ -2932,7 +2880,7 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
       <c r="C244" s="1"/>
@@ -2942,7 +2890,7 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
       <c r="C245" s="1"/>
@@ -2952,7 +2900,7 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="1"/>
@@ -2962,7 +2910,7 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
       <c r="C247" s="1"/>
@@ -2972,7 +2920,7 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
       <c r="C248" s="1"/>
@@ -2982,7 +2930,7 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
       <c r="C249" s="1"/>
@@ -2992,7 +2940,7 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
       <c r="C250" s="1"/>
@@ -3002,7 +2950,7 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
       <c r="C251" s="1"/>
@@ -3012,7 +2960,7 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
       <c r="C252" s="1"/>
@@ -3022,7 +2970,7 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
       <c r="C253" s="1"/>
@@ -3032,7 +2980,7 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
       <c r="C254" s="1"/>
@@ -3042,7 +2990,7 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
       <c r="C255" s="1"/>
@@ -3052,7 +3000,7 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
       <c r="C256" s="1"/>
@@ -3062,7 +3010,7 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
       <c r="C257" s="1"/>
@@ -3072,7 +3020,7 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
       <c r="C258" s="1"/>
@@ -3082,7 +3030,7 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
       <c r="C259" s="1"/>
@@ -3092,7 +3040,7 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
       <c r="C260" s="1"/>
@@ -3102,7 +3050,7 @@
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8">
       <c r="A261" s="1"/>
       <c r="B261" s="2"/>
       <c r="C261" s="1"/>
@@ -3112,7 +3060,7 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8">
       <c r="A262" s="1"/>
       <c r="B262" s="2"/>
       <c r="C262" s="1"/>
@@ -3122,7 +3070,7 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8">
       <c r="A263" s="1"/>
       <c r="B263" s="2"/>
       <c r="C263" s="1"/>
@@ -3132,7 +3080,7 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
       <c r="C264" s="1"/>
@@ -3142,7 +3090,7 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
       <c r="C265" s="1"/>
@@ -3152,7 +3100,7 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
       <c r="C266" s="1"/>
@@ -3162,7 +3110,7 @@
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
       <c r="C267" s="1"/>
@@ -3172,7 +3120,7 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
       <c r="C268" s="1"/>
@@ -3182,7 +3130,7 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
       <c r="C269" s="1"/>
@@ -3192,7 +3140,7 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
       <c r="C270" s="1"/>
@@ -3202,7 +3150,7 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
       <c r="C271" s="1"/>
@@ -3212,7 +3160,7 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8">
       <c r="A272" s="1"/>
       <c r="B272" s="2"/>
       <c r="C272" s="1"/>
@@ -3222,7 +3170,7 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
       <c r="C273" s="1"/>
@@ -3232,7 +3180,7 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
       <c r="C274" s="1"/>
@@ -3242,7 +3190,7 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
       <c r="C275" s="1"/>
@@ -3252,7 +3200,7 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
       <c r="C276" s="1"/>
@@ -3262,7 +3210,7 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8">
       <c r="A277" s="1"/>
       <c r="B277" s="2"/>
       <c r="C277" s="1"/>
@@ -3272,7 +3220,7 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8">
       <c r="A278" s="1"/>
       <c r="B278" s="2"/>
       <c r="C278" s="1"/>
@@ -3282,7 +3230,7 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8">
       <c r="A279" s="1"/>
       <c r="B279" s="2"/>
       <c r="C279" s="1"/>
@@ -3292,7 +3240,7 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8">
       <c r="A280" s="1"/>
       <c r="B280" s="2"/>
       <c r="C280" s="1"/>
@@ -3302,7 +3250,7 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8">
       <c r="A281" s="1"/>
       <c r="B281" s="2"/>
       <c r="C281" s="1"/>
@@ -3312,7 +3260,7 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8">
       <c r="A282" s="1"/>
       <c r="B282" s="2"/>
       <c r="C282" s="1"/>
@@ -3322,7 +3270,7 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8">
       <c r="A283" s="1"/>
       <c r="B283" s="2"/>
       <c r="C283" s="1"/>
@@ -3332,7 +3280,7 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
       <c r="C284" s="1"/>
@@ -3342,7 +3290,7 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8">
       <c r="A285" s="1"/>
       <c r="B285" s="2"/>
       <c r="C285" s="1"/>
@@ -3352,7 +3300,7 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8">
       <c r="A286" s="1"/>
       <c r="B286" s="2"/>
       <c r="C286" s="1"/>
@@ -3362,7 +3310,7 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
       <c r="C287" s="1"/>
@@ -3372,7 +3320,7 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8">
       <c r="A288" s="1"/>
       <c r="B288" s="2"/>
       <c r="C288" s="1"/>
@@ -3382,7 +3330,7 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8">
       <c r="A289" s="1"/>
       <c r="B289" s="2"/>
       <c r="C289" s="1"/>
@@ -3392,7 +3340,7 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8">
       <c r="A290" s="1"/>
       <c r="B290" s="2"/>
       <c r="C290" s="1"/>
@@ -3402,7 +3350,7 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8">
       <c r="A291" s="1"/>
       <c r="B291" s="2"/>
       <c r="C291" s="1"/>
@@ -3412,7 +3360,7 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8">
       <c r="A292" s="1"/>
       <c r="B292" s="2"/>
       <c r="C292" s="1"/>
@@ -3422,7 +3370,7 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8">
       <c r="A293" s="1"/>
       <c r="B293" s="2"/>
       <c r="C293" s="1"/>
@@ -3432,7 +3380,7 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8">
       <c r="A294" s="1"/>
       <c r="B294" s="2"/>
       <c r="C294" s="1"/>
@@ -3442,7 +3390,7 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8">
       <c r="A295" s="1"/>
       <c r="B295" s="2"/>
       <c r="C295" s="1"/>
@@ -3452,7 +3400,7 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8">
       <c r="A296" s="1"/>
       <c r="B296" s="2"/>
       <c r="C296" s="1"/>
@@ -3462,7 +3410,7 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8">
       <c r="A297" s="1"/>
       <c r="B297" s="2"/>
       <c r="C297" s="1"/>
@@ -3472,7 +3420,7 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8">
       <c r="A298" s="1"/>
       <c r="B298" s="2"/>
       <c r="C298" s="1"/>
@@ -3482,7 +3430,7 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8">
       <c r="A299" s="1"/>
       <c r="B299" s="2"/>
       <c r="C299" s="1"/>
@@ -3492,7 +3440,7 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8">
       <c r="A300" s="1"/>
       <c r="B300" s="2"/>
       <c r="C300" s="1"/>
@@ -3502,7 +3450,7 @@
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8">
       <c r="A301" s="1"/>
       <c r="B301" s="2"/>
       <c r="C301" s="1"/>
@@ -3512,7 +3460,7 @@
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8">
       <c r="A302" s="1"/>
       <c r="B302" s="2"/>
       <c r="C302" s="1"/>
@@ -3522,7 +3470,7 @@
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
       <c r="C303" s="1"/>
@@ -3532,7 +3480,7 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8">
       <c r="A304" s="1"/>
       <c r="B304" s="2"/>
       <c r="C304" s="1"/>
@@ -3542,7 +3490,7 @@
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8">
       <c r="A305" s="1"/>
       <c r="B305" s="2"/>
       <c r="C305" s="1"/>
@@ -3552,7 +3500,7 @@
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8">
       <c r="A306" s="1"/>
       <c r="B306" s="2"/>
       <c r="C306" s="1"/>
@@ -3562,7 +3510,7 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8">
       <c r="A307" s="1"/>
       <c r="B307" s="2"/>
       <c r="C307" s="1"/>
@@ -3572,7 +3520,7 @@
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8">
       <c r="A308" s="1"/>
       <c r="B308" s="2"/>
       <c r="C308" s="1"/>
@@ -3582,7 +3530,7 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8">
       <c r="A309" s="1"/>
       <c r="B309" s="2"/>
       <c r="C309" s="1"/>
@@ -3592,7 +3540,7 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8">
       <c r="A310" s="1"/>
       <c r="B310" s="2"/>
       <c r="C310" s="1"/>
@@ -3602,7 +3550,7 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8">
       <c r="A311" s="1"/>
       <c r="B311" s="2"/>
       <c r="C311" s="1"/>
@@ -3612,7 +3560,7 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8">
       <c r="A312" s="1"/>
       <c r="B312" s="2"/>
       <c r="C312" s="1"/>
@@ -3622,7 +3570,7 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8">
       <c r="A313" s="1"/>
       <c r="B313" s="2"/>
       <c r="C313" s="1"/>
@@ -3632,7 +3580,7 @@
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8">
       <c r="A314" s="1"/>
       <c r="B314" s="2"/>
       <c r="C314" s="1"/>
@@ -3642,7 +3590,7 @@
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8">
       <c r="A315" s="1"/>
       <c r="B315" s="2"/>
       <c r="C315" s="1"/>
@@ -3652,7 +3600,7 @@
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8">
       <c r="A316" s="1"/>
       <c r="B316" s="2"/>
       <c r="C316" s="1"/>
@@ -3662,7 +3610,7 @@
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8">
       <c r="A317" s="1"/>
       <c r="B317" s="2"/>
       <c r="C317" s="1"/>
@@ -3672,7 +3620,7 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8">
       <c r="A318" s="1"/>
       <c r="B318" s="2"/>
       <c r="C318" s="1"/>
@@ -3682,7 +3630,7 @@
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
       <c r="C319" s="1"/>
@@ -3692,7 +3640,7 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8">
       <c r="A320" s="1"/>
       <c r="B320" s="2"/>
       <c r="C320" s="1"/>
@@ -3702,7 +3650,7 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8">
       <c r="A321" s="1"/>
       <c r="B321" s="2"/>
       <c r="C321" s="1"/>
@@ -3712,7 +3660,7 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8">
       <c r="A322" s="1"/>
       <c r="B322" s="2"/>
       <c r="C322" s="1"/>
@@ -3722,7 +3670,7 @@
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8">
       <c r="A323" s="1"/>
       <c r="B323" s="2"/>
       <c r="C323" s="1"/>
@@ -3732,7 +3680,7 @@
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8">
       <c r="A324" s="1"/>
       <c r="B324" s="2"/>
       <c r="C324" s="1"/>
@@ -3742,7 +3690,7 @@
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8">
       <c r="A325" s="1"/>
       <c r="B325" s="2"/>
       <c r="C325" s="1"/>
@@ -3752,7 +3700,7 @@
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8">
       <c r="A326" s="1"/>
       <c r="B326" s="2"/>
       <c r="C326" s="1"/>
@@ -3762,7 +3710,7 @@
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8">
       <c r="A327" s="1"/>
       <c r="B327" s="2"/>
       <c r="C327" s="1"/>
@@ -3772,7 +3720,7 @@
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8">
       <c r="A328" s="1"/>
       <c r="B328" s="2"/>
       <c r="C328" s="1"/>
@@ -3782,7 +3730,7 @@
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8">
       <c r="A329" s="1"/>
       <c r="B329" s="2"/>
       <c r="C329" s="1"/>
@@ -3792,7 +3740,7 @@
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8">
       <c r="A330" s="1"/>
       <c r="B330" s="2"/>
       <c r="C330" s="1"/>
@@ -3802,7 +3750,7 @@
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8">
       <c r="A331" s="1"/>
       <c r="B331" s="2"/>
       <c r="C331" s="1"/>
@@ -3812,7 +3760,7 @@
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8">
       <c r="A332" s="1"/>
       <c r="B332" s="2"/>
       <c r="C332" s="1"/>
@@ -3822,7 +3770,7 @@
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
       <c r="C333" s="1"/>
@@ -3832,7 +3780,7 @@
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8">
       <c r="A334" s="1"/>
       <c r="B334" s="2"/>
       <c r="C334" s="1"/>
@@ -3842,7 +3790,7 @@
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8">
       <c r="A335" s="1"/>
       <c r="B335" s="2"/>
       <c r="C335" s="1"/>
@@ -3852,7 +3800,7 @@
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8">
       <c r="A336" s="1"/>
       <c r="B336" s="2"/>
       <c r="C336" s="1"/>
@@ -3862,7 +3810,7 @@
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8">
       <c r="A337" s="1"/>
       <c r="B337" s="2"/>
       <c r="C337" s="1"/>
@@ -3872,7 +3820,7 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8">
       <c r="A338" s="1"/>
       <c r="B338" s="2"/>
       <c r="C338" s="1"/>
@@ -3882,7 +3830,7 @@
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8">
       <c r="A339" s="1"/>
       <c r="B339" s="2"/>
       <c r="C339" s="1"/>
@@ -3892,7 +3840,7 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8">
       <c r="A340" s="1"/>
       <c r="B340" s="2"/>
       <c r="C340" s="1"/>
@@ -3902,7 +3850,7 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8">
       <c r="A341" s="1"/>
       <c r="B341" s="2"/>
       <c r="C341" s="1"/>
@@ -3912,7 +3860,7 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
       <c r="C342" s="1"/>
@@ -3922,7 +3870,7 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8">
       <c r="A343" s="1"/>
       <c r="B343" s="2"/>
       <c r="C343" s="1"/>
@@ -3932,7 +3880,7 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8">
       <c r="A344" s="1"/>
       <c r="B344" s="2"/>
       <c r="C344" s="1"/>
@@ -3942,7 +3890,7 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8">
       <c r="A345" s="1"/>
       <c r="B345" s="2"/>
       <c r="C345" s="1"/>
@@ -3952,7 +3900,7 @@
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8">
       <c r="A346" s="1"/>
       <c r="B346" s="2"/>
       <c r="C346" s="1"/>
@@ -3962,7 +3910,7 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8">
       <c r="A347" s="1"/>
       <c r="B347" s="2"/>
       <c r="C347" s="1"/>
@@ -3972,7 +3920,7 @@
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8">
       <c r="A348" s="1"/>
       <c r="B348" s="2"/>
       <c r="C348" s="1"/>
@@ -3982,7 +3930,7 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
       <c r="C349" s="1"/>
@@ -3992,7 +3940,7 @@
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8">
       <c r="A350" s="1"/>
       <c r="B350" s="2"/>
       <c r="C350" s="1"/>
@@ -4002,7 +3950,7 @@
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8">
       <c r="A351" s="1"/>
       <c r="B351" s="2"/>
       <c r="C351" s="1"/>
@@ -4012,7 +3960,7 @@
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8">
       <c r="A352" s="1"/>
       <c r="B352" s="2"/>
       <c r="C352" s="1"/>
@@ -4022,7 +3970,7 @@
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8">
       <c r="A353" s="1"/>
       <c r="B353" s="2"/>
       <c r="C353" s="1"/>
@@ -4032,7 +3980,7 @@
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
       <c r="C354" s="1"/>
@@ -4042,7 +3990,7 @@
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8">
       <c r="A355" s="1"/>
       <c r="B355" s="2"/>
       <c r="C355" s="1"/>
@@ -4052,7 +4000,7 @@
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8">
       <c r="A356" s="1"/>
       <c r="B356" s="2"/>
       <c r="C356" s="1"/>
@@ -4062,7 +4010,7 @@
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8">
       <c r="A357" s="1"/>
       <c r="B357" s="2"/>
       <c r="C357" s="1"/>
@@ -4072,7 +4020,7 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
       <c r="C358" s="1"/>
@@ -4082,7 +4030,7 @@
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8">
       <c r="A359" s="1"/>
       <c r="B359" s="2"/>
       <c r="C359" s="1"/>
@@ -4092,7 +4040,7 @@
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8">
       <c r="A360" s="1"/>
       <c r="B360" s="2"/>
       <c r="C360" s="1"/>
@@ -4102,7 +4050,7 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8">
       <c r="A361" s="1"/>
       <c r="B361" s="2"/>
       <c r="C361" s="1"/>
@@ -4112,7 +4060,7 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8">
       <c r="A362" s="1"/>
       <c r="B362" s="2"/>
       <c r="C362" s="1"/>
@@ -4122,7 +4070,7 @@
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8">
       <c r="A363" s="1"/>
       <c r="B363" s="2"/>
       <c r="C363" s="1"/>
@@ -4132,7 +4080,7 @@
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8">
       <c r="A364" s="1"/>
       <c r="B364" s="2"/>
       <c r="C364" s="1"/>
@@ -4142,7 +4090,7 @@
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
       <c r="C365" s="1"/>
@@ -4152,7 +4100,7 @@
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8">
       <c r="A366" s="1"/>
       <c r="B366" s="2"/>
       <c r="C366" s="1"/>
@@ -4162,7 +4110,7 @@
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8">
       <c r="A367" s="1"/>
       <c r="B367" s="2"/>
       <c r="C367" s="1"/>
@@ -4172,7 +4120,7 @@
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
       <c r="C368" s="1"/>
@@ -4182,7 +4130,7 @@
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8">
       <c r="A369" s="1"/>
       <c r="B369" s="2"/>
       <c r="C369" s="1"/>
@@ -4192,7 +4140,7 @@
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8">
       <c r="A370" s="1"/>
       <c r="B370" s="2"/>
       <c r="C370" s="1"/>
@@ -4202,7 +4150,7 @@
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8">
       <c r="A371" s="1"/>
       <c r="B371" s="2"/>
       <c r="C371" s="1"/>
@@ -4212,7 +4160,7 @@
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8">
       <c r="A372" s="1"/>
       <c r="B372" s="2"/>
       <c r="C372" s="1"/>
@@ -4222,7 +4170,7 @@
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8">
       <c r="A373" s="1"/>
       <c r="B373" s="2"/>
       <c r="C373" s="1"/>
@@ -4232,7 +4180,7 @@
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8">
       <c r="A374" s="1"/>
       <c r="B374" s="2"/>
       <c r="C374" s="1"/>
@@ -4242,7 +4190,7 @@
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8">
       <c r="A375" s="1"/>
       <c r="B375" s="2"/>
       <c r="C375" s="1"/>
@@ -4252,7 +4200,7 @@
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8">
       <c r="A376" s="1"/>
       <c r="B376" s="2"/>
       <c r="C376" s="1"/>
@@ -4262,7 +4210,7 @@
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8">
       <c r="A377" s="1"/>
       <c r="B377" s="2"/>
       <c r="C377" s="1"/>
@@ -4272,7 +4220,7 @@
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8">
       <c r="A378" s="1"/>
       <c r="B378" s="2"/>
       <c r="C378" s="1"/>
@@ -4282,7 +4230,7 @@
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
       <c r="C379" s="1"/>
@@ -4292,7 +4240,7 @@
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8">
       <c r="A380" s="1"/>
       <c r="B380" s="2"/>
       <c r="C380" s="1"/>
@@ -4302,7 +4250,7 @@
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8">
       <c r="A381" s="1"/>
       <c r="B381" s="2"/>
       <c r="C381" s="1"/>
@@ -4312,7 +4260,7 @@
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8">
       <c r="A382" s="1"/>
       <c r="B382" s="2"/>
       <c r="C382" s="1"/>
@@ -4322,7 +4270,7 @@
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8">
       <c r="A383" s="1"/>
       <c r="B383" s="2"/>
       <c r="C383" s="1"/>
@@ -4332,7 +4280,7 @@
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8">
       <c r="A384" s="1"/>
       <c r="B384" s="2"/>
       <c r="C384" s="1"/>
@@ -4342,7 +4290,7 @@
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8">
       <c r="A385" s="1"/>
       <c r="B385" s="2"/>
       <c r="C385" s="1"/>
@@ -4352,7 +4300,7 @@
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8">
       <c r="A386" s="1"/>
       <c r="B386" s="2"/>
       <c r="C386" s="1"/>
@@ -4362,7 +4310,7 @@
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8">
       <c r="A387" s="1"/>
       <c r="B387" s="2"/>
       <c r="C387" s="1"/>
@@ -4372,7 +4320,7 @@
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8">
       <c r="A388" s="1"/>
       <c r="B388" s="2"/>
       <c r="C388" s="1"/>
@@ -4382,7 +4330,7 @@
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8">
       <c r="A389" s="1"/>
       <c r="B389" s="2"/>
       <c r="C389" s="1"/>
@@ -4392,7 +4340,7 @@
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8">
       <c r="A390" s="1"/>
       <c r="B390" s="2"/>
       <c r="C390" s="1"/>
@@ -4402,7 +4350,7 @@
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8">
       <c r="A391" s="1"/>
       <c r="B391" s="2"/>
       <c r="C391" s="1"/>
@@ -4412,7 +4360,7 @@
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8">
       <c r="A392" s="1"/>
       <c r="B392" s="2"/>
       <c r="C392" s="1"/>
@@ -4422,7 +4370,7 @@
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8">
       <c r="A393" s="1"/>
       <c r="B393" s="2"/>
       <c r="C393" s="1"/>
@@ -4432,7 +4380,7 @@
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8">
       <c r="A394" s="1"/>
       <c r="B394" s="2"/>
       <c r="C394" s="1"/>
@@ -4442,7 +4390,7 @@
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
       <c r="C395" s="1"/>
@@ -4452,7 +4400,7 @@
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8">
       <c r="A396" s="1"/>
       <c r="B396" s="2"/>
       <c r="C396" s="1"/>
@@ -4462,7 +4410,7 @@
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8">
       <c r="A397" s="1"/>
       <c r="B397" s="2"/>
       <c r="C397" s="1"/>
@@ -4472,7 +4420,7 @@
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8">
       <c r="A398" s="1"/>
       <c r="B398" s="2"/>
       <c r="C398" s="1"/>
@@ -4482,7 +4430,7 @@
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8">
       <c r="A399" s="1"/>
       <c r="B399" s="2"/>
       <c r="C399" s="1"/>
@@ -4492,7 +4440,7 @@
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8">
       <c r="A400" s="1"/>
       <c r="B400" s="2"/>
       <c r="C400" s="1"/>
@@ -4502,7 +4450,7 @@
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8">
       <c r="A401" s="1"/>
       <c r="B401" s="2"/>
       <c r="C401" s="1"/>
@@ -4512,7 +4460,7 @@
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8">
       <c r="A402" s="1"/>
       <c r="B402" s="2"/>
       <c r="C402" s="1"/>
@@ -4522,7 +4470,7 @@
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8">
       <c r="A403" s="1"/>
       <c r="B403" s="2"/>
       <c r="C403" s="1"/>
@@ -4532,7 +4480,7 @@
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8">
       <c r="A404" s="1"/>
       <c r="B404" s="2"/>
       <c r="C404" s="1"/>
@@ -4542,7 +4490,7 @@
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8">
       <c r="A405" s="1"/>
       <c r="B405" s="2"/>
       <c r="C405" s="1"/>
@@ -4552,7 +4500,7 @@
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8">
       <c r="A406" s="1"/>
       <c r="B406" s="2"/>
       <c r="C406" s="1"/>
@@ -4562,7 +4510,7 @@
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8">
       <c r="A407" s="1"/>
       <c r="B407" s="2"/>
       <c r="C407" s="1"/>
@@ -4572,7 +4520,7 @@
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8">
       <c r="A408" s="1"/>
       <c r="B408" s="2"/>
       <c r="C408" s="1"/>
@@ -4582,7 +4530,7 @@
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8">
       <c r="A409" s="1"/>
       <c r="B409" s="2"/>
       <c r="C409" s="1"/>
@@ -4592,7 +4540,7 @@
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8">
       <c r="A410" s="1"/>
       <c r="B410" s="2"/>
       <c r="C410" s="1"/>
@@ -4602,7 +4550,7 @@
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
       <c r="C411" s="1"/>
@@ -4612,7 +4560,7 @@
       <c r="G411" s="1"/>
       <c r="H411" s="1"/>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8">
       <c r="A412" s="1"/>
       <c r="B412" s="2"/>
       <c r="C412" s="1"/>
@@ -4622,7 +4570,7 @@
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8">
       <c r="A413" s="1"/>
       <c r="B413" s="2"/>
       <c r="C413" s="1"/>
@@ -4632,7 +4580,7 @@
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8">
       <c r="A414" s="1"/>
       <c r="B414" s="2"/>
       <c r="C414" s="1"/>
@@ -4642,7 +4590,7 @@
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8">
       <c r="A415" s="1"/>
       <c r="B415" s="2"/>
       <c r="C415" s="1"/>
@@ -4652,7 +4600,7 @@
       <c r="G415" s="1"/>
       <c r="H415" s="1"/>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8">
       <c r="A416" s="1"/>
       <c r="B416" s="2"/>
       <c r="C416" s="1"/>
@@ -4662,7 +4610,7 @@
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8">
       <c r="A417" s="1"/>
       <c r="B417" s="2"/>
       <c r="C417" s="1"/>
@@ -4672,7 +4620,7 @@
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8">
       <c r="A418" s="1"/>
       <c r="B418" s="2"/>
       <c r="C418" s="1"/>
@@ -4682,7 +4630,7 @@
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8">
       <c r="A419" s="1"/>
       <c r="B419" s="2"/>
       <c r="C419" s="1"/>
@@ -4692,7 +4640,7 @@
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8">
       <c r="A420" s="1"/>
       <c r="B420" s="2"/>
       <c r="C420" s="1"/>
@@ -4702,7 +4650,7 @@
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8">
       <c r="A421" s="1"/>
       <c r="B421" s="2"/>
       <c r="C421" s="1"/>
@@ -4712,7 +4660,7 @@
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8">
       <c r="A422" s="1"/>
       <c r="B422" s="2"/>
       <c r="C422" s="1"/>
@@ -4722,7 +4670,7 @@
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8">
       <c r="A423" s="1"/>
       <c r="B423" s="2"/>
       <c r="C423" s="1"/>
@@ -4732,7 +4680,7 @@
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8">
       <c r="A424" s="1"/>
       <c r="B424" s="2"/>
       <c r="C424" s="1"/>
@@ -4742,7 +4690,7 @@
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
       <c r="C425" s="1"/>
@@ -4752,7 +4700,7 @@
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8">
       <c r="A426" s="1"/>
       <c r="B426" s="2"/>
       <c r="C426" s="1"/>
@@ -4762,7 +4710,7 @@
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8">
       <c r="A427" s="1"/>
       <c r="B427" s="2"/>
       <c r="C427" s="1"/>
@@ -4772,7 +4720,7 @@
       <c r="G427" s="1"/>
       <c r="H427" s="1"/>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8">
       <c r="A428" s="1"/>
       <c r="B428" s="2"/>
       <c r="C428" s="1"/>
@@ -4782,7 +4730,7 @@
       <c r="G428" s="1"/>
       <c r="H428" s="1"/>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8">
       <c r="A429" s="1"/>
       <c r="B429" s="2"/>
       <c r="C429" s="1"/>
@@ -4792,7 +4740,7 @@
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8">
       <c r="A430" s="1"/>
       <c r="B430" s="2"/>
       <c r="C430" s="1"/>
@@ -4802,7 +4750,7 @@
       <c r="G430" s="1"/>
       <c r="H430" s="1"/>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8">
       <c r="A431" s="1"/>
       <c r="B431" s="2"/>
       <c r="C431" s="1"/>
@@ -4812,7 +4760,7 @@
       <c r="G431" s="1"/>
       <c r="H431" s="1"/>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8">
       <c r="A432" s="1"/>
       <c r="B432" s="2"/>
       <c r="C432" s="1"/>
@@ -4822,7 +4770,7 @@
       <c r="G432" s="1"/>
       <c r="H432" s="1"/>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8">
       <c r="A433" s="1"/>
       <c r="B433" s="2"/>
       <c r="C433" s="1"/>
@@ -4832,7 +4780,7 @@
       <c r="G433" s="1"/>
       <c r="H433" s="1"/>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8">
       <c r="A434" s="1"/>
       <c r="B434" s="2"/>
       <c r="C434" s="1"/>
@@ -4842,7 +4790,7 @@
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8">
       <c r="A435" s="1"/>
       <c r="B435" s="2"/>
       <c r="C435" s="1"/>
@@ -4852,7 +4800,7 @@
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8">
       <c r="A436" s="1"/>
       <c r="B436" s="2"/>
       <c r="C436" s="1"/>
@@ -4862,7 +4810,7 @@
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8">
       <c r="A437" s="1"/>
       <c r="B437" s="2"/>
       <c r="C437" s="1"/>
@@ -4872,7 +4820,7 @@
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8">
       <c r="A438" s="1"/>
       <c r="B438" s="2"/>
       <c r="C438" s="1"/>
@@ -4882,7 +4830,7 @@
       <c r="G438" s="1"/>
       <c r="H438" s="1"/>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8">
       <c r="A439" s="1"/>
       <c r="B439" s="2"/>
       <c r="C439" s="1"/>
@@ -4892,7 +4840,7 @@
       <c r="G439" s="1"/>
       <c r="H439" s="1"/>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8">
       <c r="A440" s="1"/>
       <c r="B440" s="2"/>
       <c r="C440" s="1"/>
@@ -4902,7 +4850,7 @@
       <c r="G440" s="1"/>
       <c r="H440" s="1"/>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8">
       <c r="A441" s="1"/>
       <c r="B441" s="2"/>
       <c r="C441" s="1"/>
@@ -4912,7 +4860,7 @@
       <c r="G441" s="1"/>
       <c r="H441" s="1"/>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8">
       <c r="A442" s="1"/>
       <c r="B442" s="2"/>
       <c r="C442" s="1"/>
@@ -4922,7 +4870,7 @@
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8">
       <c r="A443" s="1"/>
       <c r="B443" s="2"/>
       <c r="C443" s="1"/>
@@ -4932,7 +4880,7 @@
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8">
       <c r="A444" s="1"/>
       <c r="B444" s="2"/>
       <c r="C444" s="1"/>
@@ -4942,7 +4890,7 @@
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8">
       <c r="A445" s="1"/>
       <c r="B445" s="2"/>
       <c r="C445" s="1"/>
@@ -4952,7 +4900,7 @@
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8">
       <c r="A446" s="1"/>
       <c r="B446" s="2"/>
       <c r="C446" s="1"/>
@@ -4962,7 +4910,7 @@
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8">
       <c r="A447" s="1"/>
       <c r="B447" s="2"/>
       <c r="C447" s="1"/>
@@ -4972,7 +4920,7 @@
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8">
       <c r="A448" s="1"/>
       <c r="B448" s="2"/>
       <c r="C448" s="1"/>
@@ -4982,7 +4930,7 @@
       <c r="G448" s="1"/>
       <c r="H448" s="1"/>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8">
       <c r="A449" s="1"/>
       <c r="B449" s="2"/>
       <c r="C449" s="1"/>
@@ -4992,7 +4940,7 @@
       <c r="G449" s="1"/>
       <c r="H449" s="1"/>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8">
       <c r="A450" s="1"/>
       <c r="B450" s="2"/>
       <c r="C450" s="1"/>
@@ -5002,7 +4950,7 @@
       <c r="G450" s="1"/>
       <c r="H450" s="1"/>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8">
       <c r="A451" s="1"/>
       <c r="B451" s="2"/>
       <c r="C451" s="1"/>
@@ -5012,7 +4960,7 @@
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8">
       <c r="A452" s="1"/>
       <c r="B452" s="2"/>
       <c r="C452" s="1"/>
@@ -5022,7 +4970,7 @@
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8">
       <c r="A453" s="1"/>
       <c r="B453" s="2"/>
       <c r="C453" s="1"/>
@@ -5032,7 +4980,7 @@
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8">
       <c r="A454" s="1"/>
       <c r="B454" s="2"/>
       <c r="C454" s="1"/>
@@ -5042,7 +4990,7 @@
       <c r="G454" s="1"/>
       <c r="H454" s="1"/>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8">
       <c r="A455" s="1"/>
       <c r="B455" s="2"/>
       <c r="C455" s="1"/>
@@ -5052,7 +5000,7 @@
       <c r="G455" s="1"/>
       <c r="H455" s="1"/>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8">
       <c r="A456" s="1"/>
       <c r="B456" s="2"/>
       <c r="C456" s="1"/>
@@ -5062,7 +5010,7 @@
       <c r="G456" s="1"/>
       <c r="H456" s="1"/>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
       <c r="C457" s="1"/>
@@ -5072,7 +5020,7 @@
       <c r="G457" s="1"/>
       <c r="H457" s="1"/>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8">
       <c r="A458" s="1"/>
       <c r="B458" s="2"/>
       <c r="C458" s="1"/>
@@ -5082,7 +5030,7 @@
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8">
       <c r="A459" s="1"/>
       <c r="B459" s="2"/>
       <c r="C459" s="1"/>
@@ -5092,7 +5040,7 @@
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8">
       <c r="A460" s="1"/>
       <c r="B460" s="2"/>
       <c r="C460" s="1"/>
@@ -5102,7 +5050,7 @@
       <c r="G460" s="1"/>
       <c r="H460" s="1"/>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8">
       <c r="A461" s="1"/>
       <c r="B461" s="2"/>
       <c r="C461" s="1"/>
@@ -5112,7 +5060,7 @@
       <c r="G461" s="1"/>
       <c r="H461" s="1"/>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8">
       <c r="A462" s="1"/>
       <c r="B462" s="2"/>
       <c r="C462" s="1"/>
@@ -5122,7 +5070,7 @@
       <c r="G462" s="1"/>
       <c r="H462" s="1"/>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8">
       <c r="A463" s="1"/>
       <c r="B463" s="2"/>
       <c r="C463" s="1"/>
@@ -5132,7 +5080,7 @@
       <c r="G463" s="1"/>
       <c r="H463" s="1"/>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8">
       <c r="A464" s="1"/>
       <c r="B464" s="2"/>
       <c r="C464" s="1"/>
@@ -5142,7 +5090,7 @@
       <c r="G464" s="1"/>
       <c r="H464" s="1"/>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8">
       <c r="A465" s="1"/>
       <c r="B465" s="2"/>
       <c r="C465" s="1"/>
@@ -5152,7 +5100,7 @@
       <c r="G465" s="1"/>
       <c r="H465" s="1"/>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8">
       <c r="A466" s="1"/>
       <c r="B466" s="2"/>
       <c r="C466" s="1"/>
@@ -5162,7 +5110,7 @@
       <c r="G466" s="1"/>
       <c r="H466" s="1"/>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8">
       <c r="A467" s="1"/>
       <c r="B467" s="2"/>
       <c r="C467" s="1"/>
@@ -5172,7 +5120,7 @@
       <c r="G467" s="1"/>
       <c r="H467" s="1"/>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8">
       <c r="A468" s="1"/>
       <c r="B468" s="2"/>
       <c r="C468" s="1"/>
@@ -5182,7 +5130,7 @@
       <c r="G468" s="1"/>
       <c r="H468" s="1"/>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8">
       <c r="A469" s="1"/>
       <c r="B469" s="2"/>
       <c r="C469" s="1"/>
@@ -5192,7 +5140,7 @@
       <c r="G469" s="1"/>
       <c r="H469" s="1"/>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8">
       <c r="A470" s="1"/>
       <c r="B470" s="2"/>
       <c r="C470" s="1"/>
@@ -5202,7 +5150,7 @@
       <c r="G470" s="1"/>
       <c r="H470" s="1"/>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8">
       <c r="A471" s="1"/>
       <c r="B471" s="2"/>
       <c r="C471" s="1"/>
@@ -5212,7 +5160,7 @@
       <c r="G471" s="1"/>
       <c r="H471" s="1"/>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8">
       <c r="A472" s="1"/>
       <c r="B472" s="2"/>
       <c r="C472" s="1"/>
@@ -5222,7 +5170,7 @@
       <c r="G472" s="1"/>
       <c r="H472" s="1"/>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8">
       <c r="A473" s="1"/>
       <c r="B473" s="2"/>
       <c r="C473" s="1"/>
@@ -5232,7 +5180,7 @@
       <c r="G473" s="1"/>
       <c r="H473" s="1"/>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8">
       <c r="A474" s="1"/>
       <c r="B474" s="2"/>
       <c r="C474" s="1"/>
@@ -5242,7 +5190,7 @@
       <c r="G474" s="1"/>
       <c r="H474" s="1"/>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8">
       <c r="A475" s="1"/>
       <c r="B475" s="2"/>
       <c r="C475" s="1"/>
@@ -5252,7 +5200,7 @@
       <c r="G475" s="1"/>
       <c r="H475" s="1"/>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8">
       <c r="A476" s="1"/>
       <c r="B476" s="2"/>
       <c r="C476" s="1"/>
@@ -5262,7 +5210,7 @@
       <c r="G476" s="1"/>
       <c r="H476" s="1"/>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8">
       <c r="A477" s="1"/>
       <c r="B477" s="2"/>
       <c r="C477" s="1"/>
@@ -5272,7 +5220,7 @@
       <c r="G477" s="1"/>
       <c r="H477" s="1"/>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8">
       <c r="A478" s="1"/>
       <c r="B478" s="2"/>
       <c r="C478" s="1"/>
@@ -5282,7 +5230,7 @@
       <c r="G478" s="1"/>
       <c r="H478" s="1"/>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8">
       <c r="A479" s="1"/>
       <c r="B479" s="2"/>
       <c r="C479" s="1"/>
@@ -5292,7 +5240,7 @@
       <c r="G479" s="1"/>
       <c r="H479" s="1"/>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8">
       <c r="A480" s="1"/>
       <c r="B480" s="2"/>
       <c r="C480" s="1"/>
@@ -5302,7 +5250,7 @@
       <c r="G480" s="1"/>
       <c r="H480" s="1"/>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8">
       <c r="A481" s="1"/>
       <c r="B481" s="2"/>
       <c r="C481" s="1"/>
@@ -5312,7 +5260,7 @@
       <c r="G481" s="1"/>
       <c r="H481" s="1"/>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8">
       <c r="A482" s="1"/>
       <c r="B482" s="2"/>
       <c r="C482" s="1"/>
@@ -5322,7 +5270,7 @@
       <c r="G482" s="1"/>
       <c r="H482" s="1"/>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8">
       <c r="A483" s="1"/>
       <c r="B483" s="2"/>
       <c r="C483" s="1"/>
@@ -5332,7 +5280,7 @@
       <c r="G483" s="1"/>
       <c r="H483" s="1"/>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8">
       <c r="A484" s="1"/>
       <c r="B484" s="2"/>
       <c r="C484" s="1"/>
@@ -5342,7 +5290,7 @@
       <c r="G484" s="1"/>
       <c r="H484" s="1"/>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8">
       <c r="A485" s="1"/>
       <c r="B485" s="2"/>
       <c r="C485" s="1"/>
@@ -5352,7 +5300,7 @@
       <c r="G485" s="1"/>
       <c r="H485" s="1"/>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8">
       <c r="A486" s="1"/>
       <c r="B486" s="2"/>
       <c r="C486" s="1"/>
@@ -5362,7 +5310,7 @@
       <c r="G486" s="1"/>
       <c r="H486" s="1"/>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8">
       <c r="A487" s="1"/>
       <c r="B487" s="2"/>
       <c r="C487" s="1"/>
@@ -5372,7 +5320,7 @@
       <c r="G487" s="1"/>
       <c r="H487" s="1"/>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8">
       <c r="A488" s="1"/>
       <c r="B488" s="2"/>
       <c r="C488" s="1"/>
@@ -5382,7 +5330,7 @@
       <c r="G488" s="1"/>
       <c r="H488" s="1"/>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8">
       <c r="A489" s="1"/>
       <c r="B489" s="2"/>
       <c r="C489" s="1"/>
@@ -5392,7 +5340,7 @@
       <c r="G489" s="1"/>
       <c r="H489" s="1"/>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8">
       <c r="A490" s="1"/>
       <c r="B490" s="2"/>
       <c r="C490" s="1"/>
@@ -5402,7 +5350,7 @@
       <c r="G490" s="1"/>
       <c r="H490" s="1"/>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8">
       <c r="A491" s="1"/>
       <c r="B491" s="2"/>
       <c r="C491" s="1"/>
@@ -5412,7 +5360,7 @@
       <c r="G491" s="1"/>
       <c r="H491" s="1"/>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8">
       <c r="A492" s="1"/>
       <c r="B492" s="2"/>
       <c r="C492" s="1"/>
@@ -5422,7 +5370,7 @@
       <c r="G492" s="1"/>
       <c r="H492" s="1"/>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8">
       <c r="A493" s="1"/>
       <c r="B493" s="2"/>
       <c r="C493" s="1"/>
@@ -5432,7 +5380,7 @@
       <c r="G493" s="1"/>
       <c r="H493" s="1"/>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8">
       <c r="A494" s="1"/>
       <c r="B494" s="2"/>
       <c r="C494" s="1"/>
@@ -5442,7 +5390,7 @@
       <c r="G494" s="1"/>
       <c r="H494" s="1"/>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8">
       <c r="A495" s="1"/>
       <c r="B495" s="2"/>
       <c r="C495" s="1"/>
@@ -5452,7 +5400,7 @@
       <c r="G495" s="1"/>
       <c r="H495" s="1"/>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8">
       <c r="A496" s="1"/>
       <c r="B496" s="2"/>
       <c r="C496" s="1"/>
@@ -5462,7 +5410,7 @@
       <c r="G496" s="1"/>
       <c r="H496" s="1"/>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8">
       <c r="A497" s="1"/>
       <c r="B497" s="2"/>
       <c r="C497" s="1"/>
@@ -5472,7 +5420,7 @@
       <c r="G497" s="1"/>
       <c r="H497" s="1"/>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8">
       <c r="A498" s="1"/>
       <c r="B498" s="2"/>
       <c r="C498" s="1"/>
@@ -5482,7 +5430,7 @@
       <c r="G498" s="1"/>
       <c r="H498" s="1"/>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8">
       <c r="A499" s="1"/>
       <c r="B499" s="2"/>
       <c r="C499" s="1"/>
@@ -5492,7 +5440,7 @@
       <c r="G499" s="1"/>
       <c r="H499" s="1"/>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8">
       <c r="A500" s="1"/>
       <c r="B500" s="2"/>
       <c r="C500" s="1"/>
@@ -5502,7 +5450,7 @@
       <c r="G500" s="1"/>
       <c r="H500" s="1"/>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8">
       <c r="A501" s="1"/>
       <c r="B501" s="2"/>
       <c r="C501" s="1"/>
@@ -5512,7 +5460,7 @@
       <c r="G501" s="1"/>
       <c r="H501" s="1"/>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
       <c r="C502" s="1"/>
@@ -5522,7 +5470,7 @@
       <c r="G502" s="1"/>
       <c r="H502" s="1"/>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8">
       <c r="A503" s="1"/>
       <c r="B503" s="2"/>
       <c r="C503" s="1"/>
@@ -5532,7 +5480,7 @@
       <c r="G503" s="1"/>
       <c r="H503" s="1"/>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8">
       <c r="A504" s="1"/>
       <c r="B504" s="2"/>
       <c r="C504" s="1"/>
@@ -5542,7 +5490,7 @@
       <c r="G504" s="1"/>
       <c r="H504" s="1"/>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8">
       <c r="A505" s="1"/>
       <c r="B505" s="2"/>
       <c r="C505" s="1"/>
@@ -5552,7 +5500,7 @@
       <c r="G505" s="1"/>
       <c r="H505" s="1"/>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8">
       <c r="A506" s="1"/>
       <c r="B506" s="2"/>
       <c r="C506" s="1"/>
@@ -5562,7 +5510,7 @@
       <c r="G506" s="1"/>
       <c r="H506" s="1"/>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8">
       <c r="A507" s="1"/>
       <c r="B507" s="2"/>
       <c r="C507" s="1"/>
@@ -5572,7 +5520,7 @@
       <c r="G507" s="1"/>
       <c r="H507" s="1"/>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8">
       <c r="A508" s="1"/>
       <c r="B508" s="2"/>
       <c r="C508" s="1"/>
@@ -5582,7 +5530,7 @@
       <c r="G508" s="1"/>
       <c r="H508" s="1"/>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8">
       <c r="A509" s="1"/>
       <c r="B509" s="2"/>
       <c r="C509" s="1"/>
@@ -5592,7 +5540,7 @@
       <c r="G509" s="1"/>
       <c r="H509" s="1"/>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8">
       <c r="A510" s="1"/>
       <c r="B510" s="2"/>
       <c r="C510" s="1"/>
@@ -5602,7 +5550,7 @@
       <c r="G510" s="1"/>
       <c r="H510" s="1"/>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8">
       <c r="A511" s="1"/>
       <c r="B511" s="2"/>
       <c r="C511" s="1"/>
@@ -5612,7 +5560,7 @@
       <c r="G511" s="1"/>
       <c r="H511" s="1"/>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8">
       <c r="A512" s="1"/>
       <c r="B512" s="2"/>
       <c r="C512" s="1"/>
@@ -5622,7 +5570,7 @@
       <c r="G512" s="1"/>
       <c r="H512" s="1"/>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8">
       <c r="A513" s="1"/>
       <c r="B513" s="2"/>
       <c r="C513" s="1"/>
@@ -5632,7 +5580,7 @@
       <c r="G513" s="1"/>
       <c r="H513" s="1"/>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8">
       <c r="A514" s="1"/>
       <c r="B514" s="2"/>
       <c r="C514" s="1"/>
@@ -5642,7 +5590,7 @@
       <c r="G514" s="1"/>
       <c r="H514" s="1"/>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8">
       <c r="A515" s="1"/>
       <c r="B515" s="2"/>
       <c r="C515" s="1"/>
@@ -5652,7 +5600,7 @@
       <c r="G515" s="1"/>
       <c r="H515" s="1"/>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8">
       <c r="A516" s="1"/>
       <c r="B516" s="2"/>
       <c r="C516" s="1"/>
@@ -5662,7 +5610,7 @@
       <c r="G516" s="1"/>
       <c r="H516" s="1"/>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8">
       <c r="A517" s="1"/>
       <c r="B517" s="2"/>
       <c r="C517" s="1"/>
@@ -5672,7 +5620,7 @@
       <c r="G517" s="1"/>
       <c r="H517" s="1"/>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8">
       <c r="A518" s="1"/>
       <c r="B518" s="2"/>
       <c r="C518" s="1"/>
@@ -5682,7 +5630,7 @@
       <c r="G518" s="1"/>
       <c r="H518" s="1"/>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8">
       <c r="A519" s="1"/>
       <c r="B519" s="2"/>
       <c r="C519" s="1"/>
@@ -5692,7 +5640,7 @@
       <c r="G519" s="1"/>
       <c r="H519" s="1"/>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8">
       <c r="A520" s="1"/>
       <c r="B520" s="2"/>
       <c r="C520" s="1"/>
@@ -5702,7 +5650,7 @@
       <c r="G520" s="1"/>
       <c r="H520" s="1"/>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8">
       <c r="A521" s="1"/>
       <c r="B521" s="2"/>
       <c r="C521" s="1"/>
@@ -5712,7 +5660,7 @@
       <c r="G521" s="1"/>
       <c r="H521" s="1"/>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8">
       <c r="A522" s="1"/>
       <c r="B522" s="2"/>
       <c r="C522" s="1"/>
@@ -5722,7 +5670,7 @@
       <c r="G522" s="1"/>
       <c r="H522" s="1"/>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8">
       <c r="A523" s="1"/>
       <c r="B523" s="2"/>
       <c r="C523" s="1"/>
@@ -5732,7 +5680,7 @@
       <c r="G523" s="1"/>
       <c r="H523" s="1"/>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8">
       <c r="A524" s="1"/>
       <c r="B524" s="2"/>
       <c r="C524" s="1"/>
@@ -5742,7 +5690,7 @@
       <c r="G524" s="1"/>
       <c r="H524" s="1"/>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8">
       <c r="A525" s="1"/>
       <c r="B525" s="2"/>
       <c r="C525" s="1"/>
@@ -5752,7 +5700,7 @@
       <c r="G525" s="1"/>
       <c r="H525" s="1"/>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8">
       <c r="A526" s="1"/>
       <c r="B526" s="2"/>
       <c r="C526" s="1"/>
@@ -5762,7 +5710,7 @@
       <c r="G526" s="1"/>
       <c r="H526" s="1"/>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8">
       <c r="A527" s="1"/>
       <c r="B527" s="2"/>
       <c r="C527" s="1"/>
@@ -5772,7 +5720,7 @@
       <c r="G527" s="1"/>
       <c r="H527" s="1"/>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8">
       <c r="A528" s="1"/>
       <c r="B528" s="2"/>
       <c r="C528" s="1"/>
@@ -5782,7 +5730,7 @@
       <c r="G528" s="1"/>
       <c r="H528" s="1"/>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8">
       <c r="A529" s="1"/>
       <c r="B529" s="2"/>
       <c r="C529" s="1"/>
@@ -5792,7 +5740,7 @@
       <c r="G529" s="1"/>
       <c r="H529" s="1"/>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8">
       <c r="A530" s="1"/>
       <c r="B530" s="2"/>
       <c r="C530" s="1"/>
@@ -5802,7 +5750,7 @@
       <c r="G530" s="1"/>
       <c r="H530" s="1"/>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8">
       <c r="A531" s="1"/>
       <c r="B531" s="2"/>
       <c r="C531" s="1"/>
@@ -5812,7 +5760,7 @@
       <c r="G531" s="1"/>
       <c r="H531" s="1"/>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8">
       <c r="A532" s="1"/>
       <c r="B532" s="2"/>
       <c r="C532" s="1"/>
@@ -5822,7 +5770,7 @@
       <c r="G532" s="1"/>
       <c r="H532" s="1"/>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8">
       <c r="A533" s="1"/>
       <c r="B533" s="2"/>
       <c r="C533" s="1"/>
@@ -5832,7 +5780,7 @@
       <c r="G533" s="1"/>
       <c r="H533" s="1"/>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8">
       <c r="A534" s="1"/>
       <c r="B534" s="2"/>
       <c r="C534" s="1"/>
@@ -5842,7 +5790,7 @@
       <c r="G534" s="1"/>
       <c r="H534" s="1"/>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8">
       <c r="A535" s="1"/>
       <c r="B535" s="2"/>
       <c r="C535" s="1"/>
@@ -5852,7 +5800,7 @@
       <c r="G535" s="1"/>
       <c r="H535" s="1"/>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8">
       <c r="A536" s="1"/>
       <c r="B536" s="2"/>
       <c r="C536" s="1"/>
@@ -5862,7 +5810,7 @@
       <c r="G536" s="1"/>
       <c r="H536" s="1"/>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8">
       <c r="A537" s="1"/>
       <c r="B537" s="2"/>
       <c r="C537" s="1"/>
@@ -5872,7 +5820,7 @@
       <c r="G537" s="1"/>
       <c r="H537" s="1"/>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8">
       <c r="A538" s="1"/>
       <c r="B538" s="2"/>
       <c r="C538" s="1"/>
@@ -5882,7 +5830,7 @@
       <c r="G538" s="1"/>
       <c r="H538" s="1"/>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8">
       <c r="A539" s="1"/>
       <c r="B539" s="2"/>
       <c r="C539" s="1"/>
@@ -5892,7 +5840,7 @@
       <c r="G539" s="1"/>
       <c r="H539" s="1"/>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8">
       <c r="A540" s="1"/>
       <c r="B540" s="2"/>
       <c r="C540" s="1"/>
@@ -5902,7 +5850,7 @@
       <c r="G540" s="1"/>
       <c r="H540" s="1"/>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8">
       <c r="A541" s="1"/>
       <c r="B541" s="2"/>
       <c r="C541" s="1"/>
@@ -5912,7 +5860,7 @@
       <c r="G541" s="1"/>
       <c r="H541" s="1"/>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8">
       <c r="A542" s="1"/>
       <c r="B542" s="2"/>
       <c r="C542" s="1"/>
@@ -5922,7 +5870,7 @@
       <c r="G542" s="1"/>
       <c r="H542" s="1"/>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8">
       <c r="A543" s="1"/>
       <c r="B543" s="2"/>
       <c r="C543" s="1"/>
@@ -5932,7 +5880,7 @@
       <c r="G543" s="1"/>
       <c r="H543" s="1"/>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8">
       <c r="A544" s="1"/>
       <c r="B544" s="2"/>
       <c r="C544" s="1"/>
@@ -5942,7 +5890,7 @@
       <c r="G544" s="1"/>
       <c r="H544" s="1"/>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8">
       <c r="A545" s="1"/>
       <c r="B545" s="2"/>
       <c r="C545" s="1"/>
@@ -5952,7 +5900,7 @@
       <c r="G545" s="1"/>
       <c r="H545" s="1"/>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8">
       <c r="A546" s="1"/>
       <c r="B546" s="2"/>
       <c r="C546" s="1"/>
@@ -5962,7 +5910,7 @@
       <c r="G546" s="1"/>
       <c r="H546" s="1"/>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8">
       <c r="A547" s="1"/>
       <c r="B547" s="2"/>
       <c r="C547" s="1"/>
@@ -5972,7 +5920,7 @@
       <c r="G547" s="1"/>
       <c r="H547" s="1"/>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8">
       <c r="A548" s="1"/>
       <c r="B548" s="2"/>
       <c r="C548" s="1"/>
@@ -5982,7 +5930,7 @@
       <c r="G548" s="1"/>
       <c r="H548" s="1"/>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8">
       <c r="A549" s="1"/>
       <c r="B549" s="2"/>
       <c r="C549" s="1"/>
@@ -5992,7 +5940,7 @@
       <c r="G549" s="1"/>
       <c r="H549" s="1"/>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8">
       <c r="A550" s="1"/>
       <c r="B550" s="2"/>
       <c r="C550" s="1"/>
@@ -6002,7 +5950,7 @@
       <c r="G550" s="1"/>
       <c r="H550" s="1"/>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8">
       <c r="A551" s="1"/>
       <c r="B551" s="2"/>
       <c r="C551" s="1"/>
@@ -6012,7 +5960,7 @@
       <c r="G551" s="1"/>
       <c r="H551" s="1"/>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8">
       <c r="A552" s="1"/>
       <c r="B552" s="2"/>
       <c r="C552" s="1"/>
@@ -6022,7 +5970,7 @@
       <c r="G552" s="1"/>
       <c r="H552" s="1"/>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8">
       <c r="A553" s="1"/>
       <c r="B553" s="2"/>
       <c r="C553" s="1"/>
@@ -6032,7 +5980,7 @@
       <c r="G553" s="1"/>
       <c r="H553" s="1"/>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8">
       <c r="A554" s="1"/>
       <c r="B554" s="2"/>
       <c r="C554" s="1"/>
@@ -6042,7 +5990,7 @@
       <c r="G554" s="1"/>
       <c r="H554" s="1"/>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8">
       <c r="A555" s="1"/>
       <c r="B555" s="2"/>
       <c r="C555" s="1"/>
@@ -6052,7 +6000,7 @@
       <c r="G555" s="1"/>
       <c r="H555" s="1"/>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8">
       <c r="A556" s="1"/>
       <c r="B556" s="2"/>
       <c r="C556" s="1"/>
@@ -6062,7 +6010,7 @@
       <c r="G556" s="1"/>
       <c r="H556" s="1"/>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8">
       <c r="A557" s="1"/>
       <c r="B557" s="2"/>
       <c r="C557" s="1"/>
@@ -6072,7 +6020,7 @@
       <c r="G557" s="1"/>
       <c r="H557" s="1"/>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8">
       <c r="A558" s="1"/>
       <c r="B558" s="2"/>
       <c r="C558" s="1"/>
@@ -6082,7 +6030,7 @@
       <c r="G558" s="1"/>
       <c r="H558" s="1"/>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8">
       <c r="A559" s="1"/>
       <c r="B559" s="2"/>
       <c r="C559" s="1"/>
@@ -6092,7 +6040,7 @@
       <c r="G559" s="1"/>
       <c r="H559" s="1"/>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8">
       <c r="A560" s="1"/>
       <c r="B560" s="2"/>
       <c r="C560" s="1"/>
@@ -6102,7 +6050,7 @@
       <c r="G560" s="1"/>
       <c r="H560" s="1"/>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
       <c r="C561" s="1"/>
@@ -6112,7 +6060,7 @@
       <c r="G561" s="1"/>
       <c r="H561" s="1"/>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8">
       <c r="A562" s="1"/>
       <c r="B562" s="2"/>
       <c r="C562" s="1"/>
@@ -6122,7 +6070,7 @@
       <c r="G562" s="1"/>
       <c r="H562" s="1"/>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8">
       <c r="A563" s="1"/>
       <c r="B563" s="2"/>
       <c r="C563" s="1"/>
@@ -6132,7 +6080,7 @@
       <c r="G563" s="1"/>
       <c r="H563" s="1"/>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8">
       <c r="A564" s="1"/>
       <c r="B564" s="2"/>
       <c r="C564" s="1"/>
@@ -6142,7 +6090,7 @@
       <c r="G564" s="1"/>
       <c r="H564" s="1"/>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8">
       <c r="A565" s="1"/>
       <c r="B565" s="2"/>
       <c r="C565" s="1"/>
@@ -6152,7 +6100,7 @@
       <c r="G565" s="1"/>
       <c r="H565" s="1"/>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8">
       <c r="A566" s="1"/>
       <c r="B566" s="2"/>
       <c r="C566" s="1"/>
@@ -6162,7 +6110,7 @@
       <c r="G566" s="1"/>
       <c r="H566" s="1"/>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8">
       <c r="A567" s="1"/>
       <c r="B567" s="2"/>
       <c r="C567" s="1"/>
@@ -6172,7 +6120,7 @@
       <c r="G567" s="1"/>
       <c r="H567" s="1"/>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8">
       <c r="A568" s="1"/>
       <c r="B568" s="2"/>
       <c r="C568" s="1"/>
@@ -6182,7 +6130,7 @@
       <c r="G568" s="1"/>
       <c r="H568" s="1"/>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8">
       <c r="A569" s="1"/>
       <c r="B569" s="2"/>
       <c r="C569" s="1"/>
@@ -6192,7 +6140,7 @@
       <c r="G569" s="1"/>
       <c r="H569" s="1"/>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8">
       <c r="A570" s="1"/>
       <c r="B570" s="2"/>
       <c r="C570" s="1"/>
@@ -6202,7 +6150,7 @@
       <c r="G570" s="1"/>
       <c r="H570" s="1"/>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8">
       <c r="A571" s="1"/>
       <c r="B571" s="2"/>
       <c r="C571" s="1"/>
@@ -6212,7 +6160,7 @@
       <c r="G571" s="1"/>
       <c r="H571" s="1"/>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8">
       <c r="A572" s="1"/>
       <c r="B572" s="2"/>
       <c r="C572" s="1"/>
@@ -6222,7 +6170,7 @@
       <c r="G572" s="1"/>
       <c r="H572" s="1"/>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8">
       <c r="A573" s="1"/>
       <c r="B573" s="2"/>
       <c r="C573" s="1"/>
@@ -6232,7 +6180,7 @@
       <c r="G573" s="1"/>
       <c r="H573" s="1"/>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8">
       <c r="A574" s="1"/>
       <c r="B574" s="2"/>
       <c r="C574" s="1"/>
@@ -6242,7 +6190,7 @@
       <c r="G574" s="1"/>
       <c r="H574" s="1"/>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8">
       <c r="A575" s="1"/>
       <c r="B575" s="2"/>
       <c r="C575" s="1"/>
@@ -6252,7 +6200,7 @@
       <c r="G575" s="1"/>
       <c r="H575" s="1"/>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8">
       <c r="A576" s="1"/>
       <c r="B576" s="2"/>
       <c r="C576" s="1"/>
@@ -6262,7 +6210,7 @@
       <c r="G576" s="1"/>
       <c r="H576" s="1"/>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8">
       <c r="A577" s="1"/>
       <c r="B577" s="2"/>
       <c r="C577" s="1"/>
@@ -6272,7 +6220,7 @@
       <c r="G577" s="1"/>
       <c r="H577" s="1"/>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8">
       <c r="A578" s="1"/>
       <c r="B578" s="2"/>
       <c r="C578" s="1"/>
@@ -6282,7 +6230,7 @@
       <c r="G578" s="1"/>
       <c r="H578" s="1"/>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8">
       <c r="A579" s="1"/>
       <c r="B579" s="2"/>
       <c r="C579" s="1"/>
@@ -6292,7 +6240,7 @@
       <c r="G579" s="1"/>
       <c r="H579" s="1"/>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8">
       <c r="A580" s="1"/>
       <c r="B580" s="2"/>
       <c r="C580" s="1"/>
@@ -6302,7 +6250,7 @@
       <c r="G580" s="1"/>
       <c r="H580" s="1"/>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8">
       <c r="A581" s="1"/>
       <c r="B581" s="2"/>
       <c r="C581" s="1"/>
@@ -6312,7 +6260,7 @@
       <c r="G581" s="1"/>
       <c r="H581" s="1"/>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8">
       <c r="A582" s="1"/>
       <c r="B582" s="2"/>
       <c r="C582" s="1"/>
@@ -6322,7 +6270,7 @@
       <c r="G582" s="1"/>
       <c r="H582" s="1"/>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8">
       <c r="A583" s="1"/>
       <c r="B583" s="2"/>
       <c r="C583" s="1"/>
@@ -6332,7 +6280,7 @@
       <c r="G583" s="1"/>
       <c r="H583" s="1"/>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8">
       <c r="A584" s="1"/>
       <c r="B584" s="2"/>
       <c r="C584" s="1"/>
@@ -6342,7 +6290,7 @@
       <c r="G584" s="1"/>
       <c r="H584" s="1"/>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8">
       <c r="A585" s="1"/>
       <c r="B585" s="2"/>
       <c r="C585" s="1"/>
@@ -6352,7 +6300,7 @@
       <c r="G585" s="1"/>
       <c r="H585" s="1"/>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8">
       <c r="A586" s="1"/>
       <c r="B586" s="2"/>
       <c r="C586" s="1"/>
@@ -6362,7 +6310,7 @@
       <c r="G586" s="1"/>
       <c r="H586" s="1"/>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8">
       <c r="A587" s="1"/>
       <c r="B587" s="2"/>
       <c r="C587" s="1"/>
@@ -6372,7 +6320,7 @@
       <c r="G587" s="1"/>
       <c r="H587" s="1"/>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8">
       <c r="A588" s="1"/>
       <c r="B588" s="2"/>
       <c r="C588" s="1"/>
@@ -6382,7 +6330,7 @@
       <c r="G588" s="1"/>
       <c r="H588" s="1"/>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8">
       <c r="A589" s="1"/>
       <c r="B589" s="2"/>
       <c r="C589" s="1"/>
@@ -6392,7 +6340,7 @@
       <c r="G589" s="1"/>
       <c r="H589" s="1"/>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8">
       <c r="A590" s="1"/>
       <c r="B590" s="2"/>
       <c r="C590" s="1"/>
@@ -6402,7 +6350,7 @@
       <c r="G590" s="1"/>
       <c r="H590" s="1"/>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8">
       <c r="A591" s="1"/>
       <c r="B591" s="2"/>
       <c r="C591" s="1"/>
@@ -6412,7 +6360,7 @@
       <c r="G591" s="1"/>
       <c r="H591" s="1"/>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8">
       <c r="A592" s="1"/>
       <c r="B592" s="2"/>
       <c r="C592" s="1"/>
@@ -6422,7 +6370,7 @@
       <c r="G592" s="1"/>
       <c r="H592" s="1"/>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8">
       <c r="A593" s="1"/>
       <c r="B593" s="2"/>
       <c r="C593" s="1"/>
@@ -6432,7 +6380,7 @@
       <c r="G593" s="1"/>
       <c r="H593" s="1"/>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8">
       <c r="A594" s="1"/>
       <c r="B594" s="2"/>
       <c r="C594" s="1"/>
@@ -6442,7 +6390,7 @@
       <c r="G594" s="1"/>
       <c r="H594" s="1"/>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8">
       <c r="A595" s="1"/>
       <c r="B595" s="2"/>
       <c r="C595" s="1"/>
@@ -6452,7 +6400,7 @@
       <c r="G595" s="1"/>
       <c r="H595" s="1"/>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8">
       <c r="A596" s="1"/>
       <c r="B596" s="2"/>
       <c r="C596" s="1"/>
@@ -6462,7 +6410,7 @@
       <c r="G596" s="1"/>
       <c r="H596" s="1"/>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8">
       <c r="A597" s="1"/>
       <c r="B597" s="2"/>
       <c r="C597" s="1"/>
@@ -6472,7 +6420,7 @@
       <c r="G597" s="1"/>
       <c r="H597" s="1"/>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8">
       <c r="A598" s="1"/>
       <c r="B598" s="2"/>
       <c r="C598" s="1"/>
@@ -6482,7 +6430,7 @@
       <c r="G598" s="1"/>
       <c r="H598" s="1"/>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8">
       <c r="A599" s="1"/>
       <c r="B599" s="2"/>
       <c r="C599" s="1"/>
@@ -6492,7 +6440,7 @@
       <c r="G599" s="1"/>
       <c r="H599" s="1"/>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8">
       <c r="A600" s="1"/>
       <c r="B600" s="2"/>
       <c r="C600" s="1"/>
@@ -6502,7 +6450,7 @@
       <c r="G600" s="1"/>
       <c r="H600" s="1"/>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8">
       <c r="A601" s="1"/>
       <c r="B601" s="2"/>
       <c r="C601" s="1"/>
@@ -6512,7 +6460,7 @@
       <c r="G601" s="1"/>
       <c r="H601" s="1"/>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8">
       <c r="A602" s="1"/>
       <c r="B602" s="2"/>
       <c r="C602" s="1"/>
@@ -6522,7 +6470,7 @@
       <c r="G602" s="1"/>
       <c r="H602" s="1"/>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8">
       <c r="A603" s="1"/>
       <c r="B603" s="2"/>
       <c r="C603" s="1"/>
@@ -6532,7 +6480,7 @@
       <c r="G603" s="1"/>
       <c r="H603" s="1"/>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8">
       <c r="A604" s="1"/>
       <c r="B604" s="2"/>
       <c r="C604" s="1"/>
@@ -6542,7 +6490,7 @@
       <c r="G604" s="1"/>
       <c r="H604" s="1"/>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8">
       <c r="A605" s="1"/>
       <c r="B605" s="2"/>
       <c r="C605" s="1"/>
@@ -6552,7 +6500,7 @@
       <c r="G605" s="1"/>
       <c r="H605" s="1"/>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8">
       <c r="A606" s="1"/>
       <c r="B606" s="2"/>
       <c r="C606" s="1"/>
@@ -6562,7 +6510,7 @@
       <c r="G606" s="1"/>
       <c r="H606" s="1"/>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8">
       <c r="A607" s="1"/>
       <c r="B607" s="2"/>
       <c r="C607" s="1"/>
@@ -6572,7 +6520,7 @@
       <c r="G607" s="1"/>
       <c r="H607" s="1"/>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8">
       <c r="A608" s="1"/>
       <c r="B608" s="2"/>
       <c r="C608" s="1"/>
@@ -6582,7 +6530,7 @@
       <c r="G608" s="1"/>
       <c r="H608" s="1"/>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8">
       <c r="A609" s="1"/>
       <c r="B609" s="2"/>
       <c r="C609" s="1"/>
@@ -6592,7 +6540,7 @@
       <c r="G609" s="1"/>
       <c r="H609" s="1"/>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8">
       <c r="A610" s="1"/>
       <c r="B610" s="2"/>
       <c r="C610" s="1"/>
@@ -6602,7 +6550,7 @@
       <c r="G610" s="1"/>
       <c r="H610" s="1"/>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8">
       <c r="A611" s="1"/>
       <c r="B611" s="2"/>
       <c r="C611" s="1"/>
@@ -6612,7 +6560,7 @@
       <c r="G611" s="1"/>
       <c r="H611" s="1"/>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8">
       <c r="A612" s="1"/>
       <c r="B612" s="2"/>
       <c r="C612" s="1"/>
@@ -6622,7 +6570,7 @@
       <c r="G612" s="1"/>
       <c r="H612" s="1"/>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8">
       <c r="A613" s="1"/>
       <c r="B613" s="2"/>
       <c r="C613" s="1"/>
@@ -6632,7 +6580,7 @@
       <c r="G613" s="1"/>
       <c r="H613" s="1"/>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8">
       <c r="A614" s="1"/>
       <c r="B614" s="2"/>
       <c r="C614" s="1"/>
@@ -6642,7 +6590,7 @@
       <c r="G614" s="1"/>
       <c r="H614" s="1"/>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8">
       <c r="A615" s="1"/>
       <c r="B615" s="2"/>
       <c r="C615" s="1"/>
@@ -6652,7 +6600,7 @@
       <c r="G615" s="1"/>
       <c r="H615" s="1"/>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8">
       <c r="A616" s="1"/>
       <c r="B616" s="2"/>
       <c r="C616" s="1"/>
@@ -6662,7 +6610,7 @@
       <c r="G616" s="1"/>
       <c r="H616" s="1"/>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8">
       <c r="A617" s="1"/>
       <c r="B617" s="2"/>
       <c r="C617" s="1"/>
@@ -6672,7 +6620,7 @@
       <c r="G617" s="1"/>
       <c r="H617" s="1"/>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8">
       <c r="A618" s="1"/>
       <c r="B618" s="2"/>
       <c r="C618" s="1"/>
@@ -6682,7 +6630,7 @@
       <c r="G618" s="1"/>
       <c r="H618" s="1"/>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8">
       <c r="A619" s="1"/>
       <c r="B619" s="2"/>
       <c r="C619" s="1"/>
@@ -6692,7 +6640,7 @@
       <c r="G619" s="1"/>
       <c r="H619" s="1"/>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8">
       <c r="A620" s="1"/>
       <c r="B620" s="2"/>
       <c r="C620" s="1"/>
@@ -6702,7 +6650,7 @@
       <c r="G620" s="1"/>
       <c r="H620" s="1"/>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8">
       <c r="A621" s="1"/>
       <c r="B621" s="2"/>
       <c r="C621" s="1"/>
@@ -6712,7 +6660,7 @@
       <c r="G621" s="1"/>
       <c r="H621" s="1"/>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8">
       <c r="A622" s="1"/>
       <c r="B622" s="2"/>
       <c r="C622" s="1"/>
@@ -6722,7 +6670,7 @@
       <c r="G622" s="1"/>
       <c r="H622" s="1"/>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8">
       <c r="A623" s="1"/>
       <c r="B623" s="2"/>
       <c r="C623" s="1"/>
@@ -6732,7 +6680,7 @@
       <c r="G623" s="1"/>
       <c r="H623" s="1"/>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8">
       <c r="A624" s="1"/>
       <c r="B624" s="2"/>
       <c r="C624" s="1"/>
@@ -6742,7 +6690,7 @@
       <c r="G624" s="1"/>
       <c r="H624" s="1"/>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8">
       <c r="A625" s="1"/>
       <c r="B625" s="2"/>
       <c r="C625" s="1"/>
@@ -6752,7 +6700,7 @@
       <c r="G625" s="1"/>
       <c r="H625" s="1"/>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8">
       <c r="A626" s="1"/>
       <c r="B626" s="2"/>
       <c r="C626" s="1"/>
@@ -6762,7 +6710,7 @@
       <c r="G626" s="1"/>
       <c r="H626" s="1"/>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8">
       <c r="A627" s="1"/>
       <c r="B627" s="2"/>
       <c r="C627" s="1"/>
@@ -6772,7 +6720,7 @@
       <c r="G627" s="1"/>
       <c r="H627" s="1"/>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8">
       <c r="A628" s="1"/>
       <c r="B628" s="2"/>
       <c r="C628" s="1"/>
@@ -6782,7 +6730,7 @@
       <c r="G628" s="1"/>
       <c r="H628" s="1"/>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8">
       <c r="A629" s="1"/>
       <c r="B629" s="2"/>
       <c r="C629" s="1"/>
@@ -6792,7 +6740,7 @@
       <c r="G629" s="1"/>
       <c r="H629" s="1"/>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8">
       <c r="A630" s="1"/>
       <c r="B630" s="2"/>
       <c r="C630" s="1"/>
@@ -6802,7 +6750,7 @@
       <c r="G630" s="1"/>
       <c r="H630" s="1"/>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8">
       <c r="A631" s="1"/>
       <c r="B631" s="2"/>
       <c r="C631" s="1"/>
@@ -6812,7 +6760,7 @@
       <c r="G631" s="1"/>
       <c r="H631" s="1"/>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8">
       <c r="A632" s="1"/>
       <c r="B632" s="2"/>
       <c r="C632" s="1"/>
@@ -6822,7 +6770,7 @@
       <c r="G632" s="1"/>
       <c r="H632" s="1"/>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8">
       <c r="A633" s="1"/>
       <c r="B633" s="2"/>
       <c r="C633" s="1"/>
@@ -6832,7 +6780,7 @@
       <c r="G633" s="1"/>
       <c r="H633" s="1"/>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8">
       <c r="A634" s="1"/>
       <c r="B634" s="2"/>
       <c r="C634" s="1"/>
@@ -6842,7 +6790,7 @@
       <c r="G634" s="1"/>
       <c r="H634" s="1"/>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8">
       <c r="A635" s="1"/>
       <c r="B635" s="2"/>
       <c r="C635" s="1"/>
@@ -6852,7 +6800,7 @@
       <c r="G635" s="1"/>
       <c r="H635" s="1"/>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8">
       <c r="A636" s="1"/>
       <c r="B636" s="2"/>
       <c r="C636" s="1"/>
@@ -6862,7 +6810,7 @@
       <c r="G636" s="1"/>
       <c r="H636" s="1"/>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8">
       <c r="A637" s="1"/>
       <c r="B637" s="2"/>
       <c r="C637" s="1"/>
@@ -6872,7 +6820,7 @@
       <c r="G637" s="1"/>
       <c r="H637" s="1"/>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8">
       <c r="A638" s="1"/>
       <c r="B638" s="2"/>
       <c r="C638" s="1"/>
@@ -6882,7 +6830,7 @@
       <c r="G638" s="1"/>
       <c r="H638" s="1"/>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8">
       <c r="A639" s="1"/>
       <c r="B639" s="2"/>
       <c r="C639" s="1"/>
@@ -6892,7 +6840,7 @@
       <c r="G639" s="1"/>
       <c r="H639" s="1"/>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8">
       <c r="A640" s="1"/>
       <c r="B640" s="2"/>
       <c r="C640" s="1"/>
@@ -6902,7 +6850,7 @@
       <c r="G640" s="1"/>
       <c r="H640" s="1"/>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8">
       <c r="A641" s="1"/>
       <c r="B641" s="2"/>
       <c r="C641" s="1"/>
@@ -6912,7 +6860,7 @@
       <c r="G641" s="1"/>
       <c r="H641" s="1"/>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8">
       <c r="A642" s="1"/>
       <c r="B642" s="2"/>
       <c r="C642" s="1"/>
@@ -6922,7 +6870,7 @@
       <c r="G642" s="1"/>
       <c r="H642" s="1"/>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8">
       <c r="A643" s="1"/>
       <c r="B643" s="2"/>
       <c r="C643" s="1"/>
@@ -6932,7 +6880,7 @@
       <c r="G643" s="1"/>
       <c r="H643" s="1"/>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8">
       <c r="A644" s="1"/>
       <c r="B644" s="2"/>
       <c r="C644" s="1"/>
@@ -6942,7 +6890,7 @@
       <c r="G644" s="1"/>
       <c r="H644" s="1"/>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8">
       <c r="A645" s="1"/>
       <c r="B645" s="2"/>
       <c r="C645" s="1"/>
@@ -6952,7 +6900,7 @@
       <c r="G645" s="1"/>
       <c r="H645" s="1"/>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8">
       <c r="A646" s="1"/>
       <c r="B646" s="2"/>
       <c r="C646" s="1"/>
@@ -6962,7 +6910,7 @@
       <c r="G646" s="1"/>
       <c r="H646" s="1"/>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8">
       <c r="A647" s="1"/>
       <c r="B647" s="2"/>
       <c r="C647" s="1"/>
@@ -6972,7 +6920,7 @@
       <c r="G647" s="1"/>
       <c r="H647" s="1"/>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8">
       <c r="A648" s="1"/>
       <c r="B648" s="2"/>
       <c r="C648" s="1"/>
@@ -6982,7 +6930,7 @@
       <c r="G648" s="1"/>
       <c r="H648" s="1"/>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8">
       <c r="A649" s="1"/>
       <c r="B649" s="2"/>
       <c r="C649" s="1"/>
@@ -6992,7 +6940,7 @@
       <c r="G649" s="1"/>
       <c r="H649" s="1"/>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8">
       <c r="A650" s="1"/>
       <c r="B650" s="2"/>
       <c r="C650" s="1"/>
@@ -7002,7 +6950,7 @@
       <c r="G650" s="1"/>
       <c r="H650" s="1"/>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8">
       <c r="A651" s="1"/>
       <c r="B651" s="2"/>
       <c r="C651" s="1"/>
@@ -7012,7 +6960,7 @@
       <c r="G651" s="1"/>
       <c r="H651" s="1"/>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8">
       <c r="A652" s="1"/>
       <c r="B652" s="2"/>
       <c r="C652" s="1"/>
@@ -7022,7 +6970,7 @@
       <c r="G652" s="1"/>
       <c r="H652" s="1"/>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8">
       <c r="A653" s="1"/>
       <c r="B653" s="2"/>
       <c r="C653" s="1"/>
@@ -7032,7 +6980,7 @@
       <c r="G653" s="1"/>
       <c r="H653" s="1"/>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8">
       <c r="A654" s="1"/>
       <c r="B654" s="2"/>
       <c r="C654" s="1"/>
@@ -7042,7 +6990,7 @@
       <c r="G654" s="1"/>
       <c r="H654" s="1"/>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8">
       <c r="A655" s="1"/>
       <c r="B655" s="2"/>
       <c r="C655" s="1"/>
@@ -7052,7 +7000,7 @@
       <c r="G655" s="1"/>
       <c r="H655" s="1"/>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:8">
       <c r="A656" s="1"/>
       <c r="B656" s="2"/>
       <c r="C656" s="1"/>
@@ -7062,7 +7010,7 @@
       <c r="G656" s="1"/>
       <c r="H656" s="1"/>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:8">
       <c r="A657" s="1"/>
       <c r="B657" s="2"/>
       <c r="C657" s="1"/>
@@ -7072,7 +7020,7 @@
       <c r="G657" s="1"/>
       <c r="H657" s="1"/>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:8">
       <c r="A658" s="1"/>
       <c r="B658" s="2"/>
       <c r="C658" s="1"/>
@@ -7082,7 +7030,7 @@
       <c r="G658" s="1"/>
       <c r="H658" s="1"/>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8">
       <c r="A659" s="1"/>
       <c r="B659" s="2"/>
       <c r="C659" s="1"/>
@@ -7092,7 +7040,7 @@
       <c r="G659" s="1"/>
       <c r="H659" s="1"/>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:8">
       <c r="A660" s="1"/>
       <c r="B660" s="2"/>
       <c r="C660" s="1"/>
@@ -7102,7 +7050,7 @@
       <c r="G660" s="1"/>
       <c r="H660" s="1"/>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8">
       <c r="A661" s="1"/>
       <c r="B661" s="2"/>
       <c r="C661" s="1"/>
@@ -7112,7 +7060,7 @@
       <c r="G661" s="1"/>
       <c r="H661" s="1"/>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8">
       <c r="A662" s="1"/>
       <c r="B662" s="2"/>
       <c r="C662" s="1"/>
@@ -7122,7 +7070,7 @@
       <c r="G662" s="1"/>
       <c r="H662" s="1"/>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8">
       <c r="A663" s="1"/>
       <c r="B663" s="2"/>
       <c r="C663" s="1"/>
@@ -7132,7 +7080,7 @@
       <c r="G663" s="1"/>
       <c r="H663" s="1"/>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8">
       <c r="A664" s="1"/>
       <c r="B664" s="2"/>
       <c r="C664" s="1"/>
@@ -7142,7 +7090,7 @@
       <c r="G664" s="1"/>
       <c r="H664" s="1"/>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8">
       <c r="A665" s="1"/>
       <c r="B665" s="2"/>
       <c r="C665" s="1"/>
@@ -7152,7 +7100,7 @@
       <c r="G665" s="1"/>
       <c r="H665" s="1"/>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8">
       <c r="A666" s="1"/>
       <c r="B666" s="2"/>
       <c r="C666" s="1"/>
@@ -7162,7 +7110,7 @@
       <c r="G666" s="1"/>
       <c r="H666" s="1"/>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8">
       <c r="A667" s="1"/>
       <c r="B667" s="2"/>
       <c r="C667" s="1"/>
@@ -7172,7 +7120,7 @@
       <c r="G667" s="1"/>
       <c r="H667" s="1"/>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8">
       <c r="A668" s="1"/>
       <c r="B668" s="2"/>
       <c r="C668" s="1"/>
@@ -7182,7 +7130,7 @@
       <c r="G668" s="1"/>
       <c r="H668" s="1"/>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8">
       <c r="A669" s="1"/>
       <c r="B669" s="2"/>
       <c r="C669" s="1"/>
@@ -7192,7 +7140,7 @@
       <c r="G669" s="1"/>
       <c r="H669" s="1"/>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8">
       <c r="A670" s="1"/>
       <c r="B670" s="2"/>
       <c r="C670" s="1"/>
@@ -7202,7 +7150,7 @@
       <c r="G670" s="1"/>
       <c r="H670" s="1"/>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8">
       <c r="A671" s="1"/>
       <c r="B671" s="2"/>
       <c r="C671" s="1"/>
@@ -7212,7 +7160,7 @@
       <c r="G671" s="1"/>
       <c r="H671" s="1"/>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8">
       <c r="A672" s="1"/>
       <c r="B672" s="2"/>
       <c r="C672" s="1"/>
@@ -7222,7 +7170,7 @@
       <c r="G672" s="1"/>
       <c r="H672" s="1"/>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8">
       <c r="A673" s="1"/>
       <c r="B673" s="2"/>
       <c r="C673" s="1"/>
@@ -7232,7 +7180,7 @@
       <c r="G673" s="1"/>
       <c r="H673" s="1"/>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8">
       <c r="A674" s="1"/>
       <c r="B674" s="2"/>
       <c r="C674" s="1"/>
@@ -7242,7 +7190,7 @@
       <c r="G674" s="1"/>
       <c r="H674" s="1"/>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8">
       <c r="A675" s="1"/>
       <c r="B675" s="2"/>
       <c r="C675" s="1"/>
@@ -7252,7 +7200,7 @@
       <c r="G675" s="1"/>
       <c r="H675" s="1"/>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8">
       <c r="A676" s="1"/>
       <c r="B676" s="2"/>
       <c r="C676" s="1"/>
@@ -7262,7 +7210,7 @@
       <c r="G676" s="1"/>
       <c r="H676" s="1"/>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8">
       <c r="A677" s="1"/>
       <c r="B677" s="2"/>
       <c r="C677" s="1"/>
@@ -7272,7 +7220,7 @@
       <c r="G677" s="1"/>
       <c r="H677" s="1"/>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8">
       <c r="A678" s="1"/>
       <c r="B678" s="2"/>
       <c r="C678" s="1"/>
@@ -7282,7 +7230,7 @@
       <c r="G678" s="1"/>
       <c r="H678" s="1"/>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8">
       <c r="A679" s="1"/>
       <c r="B679" s="2"/>
       <c r="C679" s="1"/>
@@ -7292,7 +7240,7 @@
       <c r="G679" s="1"/>
       <c r="H679" s="1"/>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8">
       <c r="A680" s="1"/>
       <c r="B680" s="2"/>
       <c r="C680" s="1"/>
@@ -7302,7 +7250,7 @@
       <c r="G680" s="1"/>
       <c r="H680" s="1"/>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8">
       <c r="A681" s="1"/>
       <c r="B681" s="2"/>
       <c r="C681" s="1"/>
@@ -7312,7 +7260,7 @@
       <c r="G681" s="1"/>
       <c r="H681" s="1"/>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8">
       <c r="A682" s="1"/>
       <c r="B682" s="2"/>
       <c r="C682" s="1"/>
@@ -7322,7 +7270,7 @@
       <c r="G682" s="1"/>
       <c r="H682" s="1"/>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8">
       <c r="A683" s="1"/>
       <c r="B683" s="2"/>
       <c r="C683" s="1"/>
@@ -7332,7 +7280,7 @@
       <c r="G683" s="1"/>
       <c r="H683" s="1"/>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8">
       <c r="A684" s="1"/>
       <c r="B684" s="2"/>
       <c r="C684" s="1"/>
@@ -7342,7 +7290,7 @@
       <c r="G684" s="1"/>
       <c r="H684" s="1"/>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8">
       <c r="A685" s="1"/>
       <c r="B685" s="2"/>
       <c r="C685" s="1"/>
@@ -7352,7 +7300,7 @@
       <c r="G685" s="1"/>
       <c r="H685" s="1"/>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8">
       <c r="A686" s="1"/>
       <c r="B686" s="2"/>
       <c r="C686" s="1"/>
@@ -7362,7 +7310,7 @@
       <c r="G686" s="1"/>
       <c r="H686" s="1"/>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8">
       <c r="A687" s="1"/>
       <c r="B687" s="2"/>
       <c r="C687" s="1"/>
@@ -7372,7 +7320,7 @@
       <c r="G687" s="1"/>
       <c r="H687" s="1"/>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8">
       <c r="A688" s="1"/>
       <c r="B688" s="2"/>
       <c r="C688" s="1"/>
@@ -7382,7 +7330,7 @@
       <c r="G688" s="1"/>
       <c r="H688" s="1"/>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:8">
       <c r="A689" s="1"/>
       <c r="B689" s="2"/>
       <c r="C689" s="1"/>
@@ -7392,7 +7340,7 @@
       <c r="G689" s="1"/>
       <c r="H689" s="1"/>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:8">
       <c r="A690" s="1"/>
       <c r="B690" s="2"/>
       <c r="C690" s="1"/>
@@ -7402,7 +7350,7 @@
       <c r="G690" s="1"/>
       <c r="H690" s="1"/>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:8">
       <c r="A691" s="1"/>
       <c r="B691" s="2"/>
       <c r="C691" s="1"/>
@@ -7412,7 +7360,7 @@
       <c r="G691" s="1"/>
       <c r="H691" s="1"/>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:8">
       <c r="A692" s="1"/>
       <c r="B692" s="2"/>
       <c r="C692" s="1"/>
@@ -7422,7 +7370,7 @@
       <c r="G692" s="1"/>
       <c r="H692" s="1"/>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8">
       <c r="A693" s="1"/>
       <c r="B693" s="2"/>
       <c r="C693" s="1"/>
@@ -7432,7 +7380,7 @@
       <c r="G693" s="1"/>
       <c r="H693" s="1"/>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8">
       <c r="A694" s="1"/>
       <c r="B694" s="2"/>
       <c r="C694" s="1"/>
@@ -7442,7 +7390,7 @@
       <c r="G694" s="1"/>
       <c r="H694" s="1"/>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:8">
       <c r="A695" s="1"/>
       <c r="B695" s="2"/>
       <c r="C695" s="1"/>
@@ -7452,7 +7400,7 @@
       <c r="G695" s="1"/>
       <c r="H695" s="1"/>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8">
       <c r="A696" s="1"/>
       <c r="B696" s="2"/>
       <c r="C696" s="1"/>
@@ -7462,7 +7410,7 @@
       <c r="G696" s="1"/>
       <c r="H696" s="1"/>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8">
       <c r="A697" s="1"/>
       <c r="B697" s="2"/>
       <c r="C697" s="1"/>
@@ -7472,7 +7420,7 @@
       <c r="G697" s="1"/>
       <c r="H697" s="1"/>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:8">
       <c r="A698" s="1"/>
       <c r="B698" s="2"/>
       <c r="C698" s="1"/>
@@ -7482,7 +7430,7 @@
       <c r="G698" s="1"/>
       <c r="H698" s="1"/>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:8">
       <c r="A699" s="1"/>
       <c r="B699" s="2"/>
       <c r="C699" s="1"/>
@@ -7492,7 +7440,7 @@
       <c r="G699" s="1"/>
       <c r="H699" s="1"/>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:8">
       <c r="A700" s="1"/>
       <c r="B700" s="2"/>
       <c r="C700" s="1"/>
@@ -7502,7 +7450,7 @@
       <c r="G700" s="1"/>
       <c r="H700" s="1"/>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:8">
       <c r="A701" s="1"/>
       <c r="B701" s="2"/>
       <c r="C701" s="1"/>
@@ -7512,7 +7460,7 @@
       <c r="G701" s="1"/>
       <c r="H701" s="1"/>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:8">
       <c r="A702" s="1"/>
       <c r="B702" s="2"/>
       <c r="C702" s="1"/>
@@ -7522,7 +7470,7 @@
       <c r="G702" s="1"/>
       <c r="H702" s="1"/>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:8">
       <c r="A703" s="1"/>
       <c r="B703" s="2"/>
       <c r="C703" s="1"/>
@@ -7532,7 +7480,7 @@
       <c r="G703" s="1"/>
       <c r="H703" s="1"/>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:8">
       <c r="A704" s="1"/>
       <c r="B704" s="2"/>
       <c r="C704" s="1"/>
@@ -7542,7 +7490,7 @@
       <c r="G704" s="1"/>
       <c r="H704" s="1"/>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:8">
       <c r="A705" s="1"/>
       <c r="B705" s="2"/>
       <c r="C705" s="1"/>
@@ -7552,7 +7500,7 @@
       <c r="G705" s="1"/>
       <c r="H705" s="1"/>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:8">
       <c r="A706" s="1"/>
       <c r="B706" s="2"/>
       <c r="C706" s="1"/>
@@ -7562,7 +7510,7 @@
       <c r="G706" s="1"/>
       <c r="H706" s="1"/>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:8">
       <c r="A707" s="1"/>
       <c r="B707" s="2"/>
       <c r="C707" s="1"/>
@@ -7572,7 +7520,7 @@
       <c r="G707" s="1"/>
       <c r="H707" s="1"/>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:8">
       <c r="A708" s="1"/>
       <c r="B708" s="2"/>
       <c r="C708" s="1"/>
@@ -7582,7 +7530,7 @@
       <c r="G708" s="1"/>
       <c r="H708" s="1"/>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:8">
       <c r="A709" s="1"/>
       <c r="B709" s="2"/>
       <c r="C709" s="1"/>
@@ -7592,7 +7540,7 @@
       <c r="G709" s="1"/>
       <c r="H709" s="1"/>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8">
       <c r="A710" s="1"/>
       <c r="B710" s="2"/>
       <c r="C710" s="1"/>
@@ -7602,7 +7550,7 @@
       <c r="G710" s="1"/>
       <c r="H710" s="1"/>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8">
       <c r="A711" s="1"/>
       <c r="B711" s="2"/>
       <c r="C711" s="1"/>
@@ -7612,7 +7560,7 @@
       <c r="G711" s="1"/>
       <c r="H711" s="1"/>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8">
       <c r="A712" s="1"/>
       <c r="B712" s="2"/>
       <c r="C712" s="1"/>
@@ -7622,7 +7570,7 @@
       <c r="G712" s="1"/>
       <c r="H712" s="1"/>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8">
       <c r="A713" s="1"/>
       <c r="B713" s="2"/>
       <c r="C713" s="1"/>
@@ -7632,7 +7580,7 @@
       <c r="G713" s="1"/>
       <c r="H713" s="1"/>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8">
       <c r="A714" s="1"/>
       <c r="B714" s="2"/>
       <c r="C714" s="1"/>
@@ -7642,7 +7590,7 @@
       <c r="G714" s="1"/>
       <c r="H714" s="1"/>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:8">
       <c r="A715" s="1"/>
       <c r="B715" s="2"/>
       <c r="C715" s="1"/>
@@ -7652,7 +7600,7 @@
       <c r="G715" s="1"/>
       <c r="H715" s="1"/>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:8">
       <c r="A716" s="1"/>
       <c r="B716" s="2"/>
       <c r="C716" s="1"/>
@@ -7662,7 +7610,7 @@
       <c r="G716" s="1"/>
       <c r="H716" s="1"/>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:8">
       <c r="A717" s="1"/>
       <c r="B717" s="2"/>
       <c r="C717" s="1"/>
@@ -7672,7 +7620,7 @@
       <c r="G717" s="1"/>
       <c r="H717" s="1"/>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:8">
       <c r="A718" s="1"/>
       <c r="B718" s="2"/>
       <c r="C718" s="1"/>
@@ -7682,7 +7630,7 @@
       <c r="G718" s="1"/>
       <c r="H718" s="1"/>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:8">
       <c r="A719" s="1"/>
       <c r="B719" s="2"/>
       <c r="C719" s="1"/>
@@ -7692,7 +7640,7 @@
       <c r="G719" s="1"/>
       <c r="H719" s="1"/>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:8">
       <c r="A720" s="1"/>
       <c r="B720" s="2"/>
       <c r="C720" s="1"/>
@@ -7702,7 +7650,7 @@
       <c r="G720" s="1"/>
       <c r="H720" s="1"/>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:8">
       <c r="A721" s="1"/>
       <c r="B721" s="2"/>
       <c r="C721" s="1"/>
@@ -7712,7 +7660,7 @@
       <c r="G721" s="1"/>
       <c r="H721" s="1"/>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:8">
       <c r="A722" s="1"/>
       <c r="B722" s="2"/>
       <c r="C722" s="1"/>
@@ -7722,7 +7670,7 @@
       <c r="G722" s="1"/>
       <c r="H722" s="1"/>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:8">
       <c r="A723" s="1"/>
       <c r="B723" s="2"/>
       <c r="C723" s="1"/>
@@ -7732,7 +7680,7 @@
       <c r="G723" s="1"/>
       <c r="H723" s="1"/>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:8">
       <c r="A724" s="1"/>
       <c r="B724" s="2"/>
       <c r="C724" s="1"/>
@@ -7742,7 +7690,7 @@
       <c r="G724" s="1"/>
       <c r="H724" s="1"/>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:8">
       <c r="A725" s="1"/>
       <c r="B725" s="2"/>
       <c r="C725" s="1"/>
@@ -7752,7 +7700,7 @@
       <c r="G725" s="1"/>
       <c r="H725" s="1"/>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:8">
       <c r="A726" s="1"/>
       <c r="B726" s="2"/>
       <c r="C726" s="1"/>
@@ -7762,7 +7710,7 @@
       <c r="G726" s="1"/>
       <c r="H726" s="1"/>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:8">
       <c r="A727" s="1"/>
       <c r="B727" s="2"/>
       <c r="C727" s="1"/>
@@ -7772,7 +7720,7 @@
       <c r="G727" s="1"/>
       <c r="H727" s="1"/>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:8">
       <c r="A728" s="1"/>
       <c r="B728" s="2"/>
       <c r="C728" s="1"/>
@@ -7782,7 +7730,7 @@
       <c r="G728" s="1"/>
       <c r="H728" s="1"/>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:8">
       <c r="A729" s="1"/>
       <c r="B729" s="2"/>
       <c r="C729" s="1"/>
@@ -7792,7 +7740,7 @@
       <c r="G729" s="1"/>
       <c r="H729" s="1"/>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:8">
       <c r="A730" s="1"/>
       <c r="B730" s="2"/>
       <c r="C730" s="1"/>
@@ -7802,7 +7750,7 @@
       <c r="G730" s="1"/>
       <c r="H730" s="1"/>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:8">
       <c r="A731" s="1"/>
       <c r="B731" s="2"/>
       <c r="C731" s="1"/>
@@ -7812,7 +7760,7 @@
       <c r="G731" s="1"/>
       <c r="H731" s="1"/>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:8">
       <c r="A732" s="1"/>
       <c r="B732" s="2"/>
       <c r="C732" s="1"/>
@@ -7822,7 +7770,7 @@
       <c r="G732" s="1"/>
       <c r="H732" s="1"/>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:8">
       <c r="A733" s="1"/>
       <c r="B733" s="2"/>
       <c r="C733" s="1"/>
@@ -7832,7 +7780,7 @@
       <c r="G733" s="1"/>
       <c r="H733" s="1"/>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:8">
       <c r="A734" s="1"/>
       <c r="B734" s="2"/>
       <c r="C734" s="1"/>
@@ -7842,7 +7790,7 @@
       <c r="G734" s="1"/>
       <c r="H734" s="1"/>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:8">
       <c r="A735" s="1"/>
       <c r="B735" s="2"/>
       <c r="C735" s="1"/>
@@ -7852,7 +7800,7 @@
       <c r="G735" s="1"/>
       <c r="H735" s="1"/>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:8">
       <c r="A736" s="1"/>
       <c r="B736" s="2"/>
       <c r="C736" s="1"/>
@@ -7862,7 +7810,7 @@
       <c r="G736" s="1"/>
       <c r="H736" s="1"/>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8">
       <c r="A737" s="1"/>
       <c r="B737" s="2"/>
       <c r="C737" s="1"/>
@@ -7872,7 +7820,7 @@
       <c r="G737" s="1"/>
       <c r="H737" s="1"/>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8">
       <c r="A738" s="1"/>
       <c r="B738" s="2"/>
       <c r="C738" s="1"/>
@@ -7882,7 +7830,7 @@
       <c r="G738" s="1"/>
       <c r="H738" s="1"/>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8">
       <c r="A739" s="1"/>
       <c r="B739" s="2"/>
       <c r="C739" s="1"/>
@@ -7892,7 +7840,7 @@
       <c r="G739" s="1"/>
       <c r="H739" s="1"/>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8">
       <c r="A740" s="1"/>
       <c r="B740" s="2"/>
       <c r="C740" s="1"/>
@@ -7902,7 +7850,7 @@
       <c r="G740" s="1"/>
       <c r="H740" s="1"/>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8">
       <c r="A741" s="1"/>
       <c r="B741" s="2"/>
       <c r="C741" s="1"/>
@@ -7912,7 +7860,7 @@
       <c r="G741" s="1"/>
       <c r="H741" s="1"/>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8">
       <c r="A742" s="1"/>
       <c r="B742" s="2"/>
       <c r="C742" s="1"/>
@@ -7922,7 +7870,7 @@
       <c r="G742" s="1"/>
       <c r="H742" s="1"/>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8">
       <c r="A743" s="1"/>
       <c r="B743" s="2"/>
       <c r="C743" s="1"/>
@@ -7932,7 +7880,7 @@
       <c r="G743" s="1"/>
       <c r="H743" s="1"/>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8">
       <c r="A744" s="1"/>
       <c r="B744" s="2"/>
       <c r="C744" s="1"/>
@@ -7942,7 +7890,7 @@
       <c r="G744" s="1"/>
       <c r="H744" s="1"/>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8">
       <c r="A745" s="1"/>
       <c r="B745" s="2"/>
       <c r="C745" s="1"/>
@@ -7952,7 +7900,7 @@
       <c r="G745" s="1"/>
       <c r="H745" s="1"/>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8">
       <c r="A746" s="1"/>
       <c r="B746" s="2"/>
       <c r="C746" s="1"/>
@@ -7962,7 +7910,7 @@
       <c r="G746" s="1"/>
       <c r="H746" s="1"/>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8">
       <c r="A747" s="1"/>
       <c r="B747" s="2"/>
       <c r="C747" s="1"/>
@@ -7972,7 +7920,7 @@
       <c r="G747" s="1"/>
       <c r="H747" s="1"/>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8">
       <c r="A748" s="1"/>
       <c r="B748" s="2"/>
       <c r="C748" s="1"/>
@@ -7982,7 +7930,7 @@
       <c r="G748" s="1"/>
       <c r="H748" s="1"/>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8">
       <c r="A749" s="1"/>
       <c r="B749" s="2"/>
       <c r="C749" s="1"/>
@@ -7992,7 +7940,7 @@
       <c r="G749" s="1"/>
       <c r="H749" s="1"/>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8">
       <c r="A750" s="1"/>
       <c r="B750" s="2"/>
       <c r="C750" s="1"/>
@@ -8002,7 +7950,7 @@
       <c r="G750" s="1"/>
       <c r="H750" s="1"/>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8">
       <c r="A751" s="1"/>
       <c r="B751" s="2"/>
       <c r="C751" s="1"/>
@@ -8012,7 +7960,7 @@
       <c r="G751" s="1"/>
       <c r="H751" s="1"/>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:8">
       <c r="A752" s="1"/>
       <c r="B752" s="2"/>
       <c r="C752" s="1"/>
@@ -8022,7 +7970,7 @@
       <c r="G752" s="1"/>
       <c r="H752" s="1"/>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:8">
       <c r="A753" s="1"/>
       <c r="B753" s="2"/>
       <c r="C753" s="1"/>
@@ -8032,7 +7980,7 @@
       <c r="G753" s="1"/>
       <c r="H753" s="1"/>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:8">
       <c r="A754" s="1"/>
       <c r="B754" s="2"/>
       <c r="C754" s="1"/>
@@ -8042,7 +7990,7 @@
       <c r="G754" s="1"/>
       <c r="H754" s="1"/>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:8">
       <c r="A755" s="1"/>
       <c r="B755" s="2"/>
       <c r="C755" s="1"/>
@@ -8052,7 +8000,7 @@
       <c r="G755" s="1"/>
       <c r="H755" s="1"/>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:8">
       <c r="A756" s="1"/>
       <c r="B756" s="2"/>
       <c r="C756" s="1"/>
@@ -8062,7 +8010,7 @@
       <c r="G756" s="1"/>
       <c r="H756" s="1"/>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:8">
       <c r="A757" s="1"/>
       <c r="B757" s="2"/>
       <c r="C757" s="1"/>
@@ -8072,7 +8020,7 @@
       <c r="G757" s="1"/>
       <c r="H757" s="1"/>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:8">
       <c r="A758" s="1"/>
       <c r="B758" s="2"/>
       <c r="C758" s="1"/>
@@ -8082,7 +8030,7 @@
       <c r="G758" s="1"/>
       <c r="H758" s="1"/>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:8">
       <c r="A759" s="1"/>
       <c r="B759" s="2"/>
       <c r="C759" s="1"/>
@@ -8092,7 +8040,7 @@
       <c r="G759" s="1"/>
       <c r="H759" s="1"/>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:8">
       <c r="A760" s="1"/>
       <c r="B760" s="2"/>
       <c r="C760" s="1"/>
@@ -8102,7 +8050,7 @@
       <c r="G760" s="1"/>
       <c r="H760" s="1"/>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:8">
       <c r="A761" s="1"/>
       <c r="B761" s="2"/>
       <c r="C761" s="1"/>
@@ -8112,7 +8060,7 @@
       <c r="G761" s="1"/>
       <c r="H761" s="1"/>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:8">
       <c r="A762" s="1"/>
       <c r="B762" s="2"/>
       <c r="C762" s="1"/>
@@ -8122,7 +8070,7 @@
       <c r="G762" s="1"/>
       <c r="H762" s="1"/>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:8">
       <c r="A763" s="1"/>
       <c r="B763" s="2"/>
       <c r="C763" s="1"/>
@@ -8132,7 +8080,7 @@
       <c r="G763" s="1"/>
       <c r="H763" s="1"/>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:8">
       <c r="A764" s="1"/>
       <c r="B764" s="2"/>
       <c r="C764" s="1"/>
@@ -8142,7 +8090,7 @@
       <c r="G764" s="1"/>
       <c r="H764" s="1"/>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:8">
       <c r="A765" s="1"/>
       <c r="B765" s="2"/>
       <c r="C765" s="1"/>
@@ -8152,7 +8100,7 @@
       <c r="G765" s="1"/>
       <c r="H765" s="1"/>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:8">
       <c r="A766" s="1"/>
       <c r="B766" s="2"/>
       <c r="C766" s="1"/>
@@ -8162,7 +8110,7 @@
       <c r="G766" s="1"/>
       <c r="H766" s="1"/>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:8">
       <c r="A767" s="1"/>
       <c r="B767" s="2"/>
       <c r="C767" s="1"/>
@@ -8172,7 +8120,7 @@
       <c r="G767" s="1"/>
       <c r="H767" s="1"/>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:8">
       <c r="A768" s="1"/>
       <c r="B768" s="2"/>
       <c r="C768" s="1"/>
@@ -8182,7 +8130,7 @@
       <c r="G768" s="1"/>
       <c r="H768" s="1"/>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:8">
       <c r="A769" s="1"/>
       <c r="B769" s="2"/>
       <c r="C769" s="1"/>
@@ -8192,7 +8140,7 @@
       <c r="G769" s="1"/>
       <c r="H769" s="1"/>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:8">
       <c r="A770" s="1"/>
       <c r="B770" s="2"/>
       <c r="C770" s="1"/>
@@ -8202,7 +8150,7 @@
       <c r="G770" s="1"/>
       <c r="H770" s="1"/>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:8">
       <c r="A771" s="1"/>
       <c r="B771" s="2"/>
       <c r="C771" s="1"/>
@@ -8212,7 +8160,7 @@
       <c r="G771" s="1"/>
       <c r="H771" s="1"/>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:8">
       <c r="A772" s="1"/>
       <c r="B772" s="2"/>
       <c r="C772" s="1"/>
@@ -8222,7 +8170,7 @@
       <c r="G772" s="1"/>
       <c r="H772" s="1"/>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:8">
       <c r="A773" s="1"/>
       <c r="B773" s="2"/>
       <c r="C773" s="1"/>
@@ -8232,7 +8180,7 @@
       <c r="G773" s="1"/>
       <c r="H773" s="1"/>
     </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:8">
       <c r="A774" s="1"/>
       <c r="B774" s="2"/>
       <c r="C774" s="1"/>
@@ -8242,7 +8190,7 @@
       <c r="G774" s="1"/>
       <c r="H774" s="1"/>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:8">
       <c r="A775" s="1"/>
       <c r="B775" s="2"/>
       <c r="C775" s="1"/>
@@ -8252,7 +8200,7 @@
       <c r="G775" s="1"/>
       <c r="H775" s="1"/>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:8">
       <c r="A776" s="1"/>
       <c r="B776" s="2"/>
       <c r="C776" s="1"/>
@@ -8262,7 +8210,7 @@
       <c r="G776" s="1"/>
       <c r="H776" s="1"/>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:8">
       <c r="A777" s="1"/>
       <c r="B777" s="2"/>
       <c r="C777" s="1"/>
@@ -8272,7 +8220,7 @@
       <c r="G777" s="1"/>
       <c r="H777" s="1"/>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:8">
       <c r="A778" s="1"/>
       <c r="B778" s="2"/>
       <c r="C778" s="1"/>
@@ -8282,7 +8230,7 @@
       <c r="G778" s="1"/>
       <c r="H778" s="1"/>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:8">
       <c r="A779" s="1"/>
       <c r="B779" s="2"/>
       <c r="C779" s="1"/>
@@ -8292,7 +8240,7 @@
       <c r="G779" s="1"/>
       <c r="H779" s="1"/>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:8">
       <c r="A780" s="1"/>
       <c r="B780" s="2"/>
       <c r="C780" s="1"/>
@@ -8302,7 +8250,7 @@
       <c r="G780" s="1"/>
       <c r="H780" s="1"/>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:8">
       <c r="A781" s="1"/>
       <c r="B781" s="2"/>
       <c r="C781" s="1"/>
@@ -8312,7 +8260,7 @@
       <c r="G781" s="1"/>
       <c r="H781" s="1"/>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:8">
       <c r="A782" s="1"/>
       <c r="B782" s="2"/>
       <c r="C782" s="1"/>
@@ -8322,7 +8270,7 @@
       <c r="G782" s="1"/>
       <c r="H782" s="1"/>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:8">
       <c r="A783" s="1"/>
       <c r="B783" s="2"/>
       <c r="C783" s="1"/>
@@ -8332,7 +8280,7 @@
       <c r="G783" s="1"/>
       <c r="H783" s="1"/>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:8">
       <c r="A784" s="1"/>
       <c r="B784" s="2"/>
       <c r="C784" s="1"/>
@@ -8342,7 +8290,7 @@
       <c r="G784" s="1"/>
       <c r="H784" s="1"/>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:8">
       <c r="A785" s="1"/>
       <c r="B785" s="2"/>
       <c r="C785" s="1"/>
@@ -8352,7 +8300,7 @@
       <c r="G785" s="1"/>
       <c r="H785" s="1"/>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:8">
       <c r="A786" s="1"/>
       <c r="B786" s="2"/>
       <c r="C786" s="1"/>
@@ -8362,7 +8310,7 @@
       <c r="G786" s="1"/>
       <c r="H786" s="1"/>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:8">
       <c r="A787" s="1"/>
       <c r="B787" s="2"/>
       <c r="C787" s="1"/>
@@ -8372,7 +8320,7 @@
       <c r="G787" s="1"/>
       <c r="H787" s="1"/>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:8">
       <c r="A788" s="1"/>
       <c r="B788" s="2"/>
       <c r="C788" s="1"/>
@@ -8382,7 +8330,7 @@
       <c r="G788" s="1"/>
       <c r="H788" s="1"/>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:8">
       <c r="A789" s="1"/>
       <c r="B789" s="2"/>
       <c r="C789" s="1"/>
@@ -8392,7 +8340,7 @@
       <c r="G789" s="1"/>
       <c r="H789" s="1"/>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:8">
       <c r="A790" s="1"/>
       <c r="B790" s="2"/>
       <c r="C790" s="1"/>
@@ -8402,7 +8350,7 @@
       <c r="G790" s="1"/>
       <c r="H790" s="1"/>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:8">
       <c r="A791" s="1"/>
       <c r="B791" s="2"/>
       <c r="C791" s="1"/>
@@ -8412,7 +8360,7 @@
       <c r="G791" s="1"/>
       <c r="H791" s="1"/>
     </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:8">
       <c r="A792" s="1"/>
       <c r="B792" s="2"/>
       <c r="C792" s="1"/>
@@ -8422,7 +8370,7 @@
       <c r="G792" s="1"/>
       <c r="H792" s="1"/>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:8">
       <c r="A793" s="1"/>
       <c r="B793" s="2"/>
       <c r="C793" s="1"/>
@@ -8432,7 +8380,7 @@
       <c r="G793" s="1"/>
       <c r="H793" s="1"/>
     </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:8">
       <c r="A794" s="1"/>
       <c r="B794" s="2"/>
       <c r="C794" s="1"/>
@@ -8442,7 +8390,7 @@
       <c r="G794" s="1"/>
       <c r="H794" s="1"/>
     </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:8">
       <c r="A795" s="1"/>
       <c r="B795" s="2"/>
       <c r="C795" s="1"/>
@@ -8452,7 +8400,7 @@
       <c r="G795" s="1"/>
       <c r="H795" s="1"/>
     </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:8">
       <c r="A796" s="1"/>
       <c r="B796" s="2"/>
       <c r="C796" s="1"/>
@@ -8462,7 +8410,7 @@
       <c r="G796" s="1"/>
       <c r="H796" s="1"/>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:8">
       <c r="A797" s="1"/>
       <c r="B797" s="2"/>
       <c r="C797" s="1"/>
@@ -8472,7 +8420,7 @@
       <c r="G797" s="1"/>
       <c r="H797" s="1"/>
     </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:8">
       <c r="A798" s="1"/>
       <c r="B798" s="2"/>
       <c r="C798" s="1"/>
@@ -8482,7 +8430,7 @@
       <c r="G798" s="1"/>
       <c r="H798" s="1"/>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:8">
       <c r="A799" s="1"/>
       <c r="B799" s="2"/>
       <c r="C799" s="1"/>
@@ -8492,7 +8440,7 @@
       <c r="G799" s="1"/>
       <c r="H799" s="1"/>
     </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:8">
       <c r="A800" s="1"/>
       <c r="B800" s="2"/>
       <c r="C800" s="1"/>
@@ -8502,7 +8450,7 @@
       <c r="G800" s="1"/>
       <c r="H800" s="1"/>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:8">
       <c r="A801" s="1"/>
       <c r="B801" s="2"/>
       <c r="C801" s="1"/>
@@ -8512,7 +8460,7 @@
       <c r="G801" s="1"/>
       <c r="H801" s="1"/>
     </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:8">
       <c r="A802" s="1"/>
       <c r="B802" s="2"/>
       <c r="C802" s="1"/>
@@ -8522,7 +8470,7 @@
       <c r="G802" s="1"/>
       <c r="H802" s="1"/>
     </row>
-    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:8">
       <c r="A803" s="1"/>
       <c r="B803" s="2"/>
       <c r="C803" s="1"/>
@@ -8532,7 +8480,7 @@
       <c r="G803" s="1"/>
       <c r="H803" s="1"/>
     </row>
-    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:8">
       <c r="A804" s="1"/>
       <c r="B804" s="2"/>
       <c r="C804" s="1"/>
@@ -8542,7 +8490,7 @@
       <c r="G804" s="1"/>
       <c r="H804" s="1"/>
     </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:8">
       <c r="A805" s="1"/>
       <c r="B805" s="2"/>
       <c r="C805" s="1"/>
@@ -8552,7 +8500,7 @@
       <c r="G805" s="1"/>
       <c r="H805" s="1"/>
     </row>
-    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:8">
       <c r="A806" s="1"/>
       <c r="B806" s="2"/>
       <c r="C806" s="1"/>
@@ -8562,7 +8510,7 @@
       <c r="G806" s="1"/>
       <c r="H806" s="1"/>
     </row>
-    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:8">
       <c r="A807" s="1"/>
       <c r="B807" s="2"/>
       <c r="C807" s="1"/>
@@ -8572,7 +8520,7 @@
       <c r="G807" s="1"/>
       <c r="H807" s="1"/>
     </row>
-    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:8">
       <c r="A808" s="1"/>
       <c r="B808" s="2"/>
       <c r="C808" s="1"/>
@@ -8582,7 +8530,7 @@
       <c r="G808" s="1"/>
       <c r="H808" s="1"/>
     </row>
-    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:8">
       <c r="A809" s="1"/>
       <c r="B809" s="2"/>
       <c r="C809" s="1"/>
@@ -8592,7 +8540,7 @@
       <c r="G809" s="1"/>
       <c r="H809" s="1"/>
     </row>
-    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:8">
       <c r="A810" s="1"/>
       <c r="B810" s="2"/>
       <c r="C810" s="1"/>
@@ -8602,7 +8550,7 @@
       <c r="G810" s="1"/>
       <c r="H810" s="1"/>
     </row>
-    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:8">
       <c r="A811" s="1"/>
       <c r="B811" s="2"/>
       <c r="C811" s="1"/>
@@ -8612,7 +8560,7 @@
       <c r="G811" s="1"/>
       <c r="H811" s="1"/>
     </row>
-    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:8">
       <c r="A812" s="1"/>
       <c r="B812" s="2"/>
       <c r="C812" s="1"/>
@@ -8622,7 +8570,7 @@
       <c r="G812" s="1"/>
       <c r="H812" s="1"/>
     </row>
-    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:8">
       <c r="A813" s="1"/>
       <c r="B813" s="2"/>
       <c r="C813" s="1"/>
@@ -8632,7 +8580,7 @@
       <c r="G813" s="1"/>
       <c r="H813" s="1"/>
     </row>
-    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:8">
       <c r="A814" s="1"/>
       <c r="B814" s="2"/>
       <c r="C814" s="1"/>
@@ -8642,7 +8590,7 @@
       <c r="G814" s="1"/>
       <c r="H814" s="1"/>
     </row>
-    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:8">
       <c r="A815" s="1"/>
       <c r="B815" s="2"/>
       <c r="C815" s="1"/>
@@ -8652,7 +8600,7 @@
       <c r="G815" s="1"/>
       <c r="H815" s="1"/>
     </row>
-    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:8">
       <c r="A816" s="1"/>
       <c r="B816" s="2"/>
       <c r="C816" s="1"/>
@@ -8662,7 +8610,7 @@
       <c r="G816" s="1"/>
       <c r="H816" s="1"/>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:8">
       <c r="A817" s="1"/>
       <c r="B817" s="2"/>
       <c r="C817" s="1"/>
@@ -8672,7 +8620,7 @@
       <c r="G817" s="1"/>
       <c r="H817" s="1"/>
     </row>
-    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:8">
       <c r="A818" s="1"/>
       <c r="B818" s="2"/>
       <c r="C818" s="1"/>
@@ -8682,7 +8630,7 @@
       <c r="G818" s="1"/>
       <c r="H818" s="1"/>
     </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:8">
       <c r="A819" s="1"/>
       <c r="B819" s="2"/>
       <c r="C819" s="1"/>
@@ -8692,7 +8640,7 @@
       <c r="G819" s="1"/>
       <c r="H819" s="1"/>
     </row>
-    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:8">
       <c r="A820" s="1"/>
       <c r="B820" s="2"/>
       <c r="C820" s="1"/>
@@ -8702,7 +8650,7 @@
       <c r="G820" s="1"/>
       <c r="H820" s="1"/>
     </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:8">
       <c r="A821" s="1"/>
       <c r="B821" s="2"/>
       <c r="C821" s="1"/>
@@ -8712,7 +8660,7 @@
       <c r="G821" s="1"/>
       <c r="H821" s="1"/>
     </row>
-    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:8">
       <c r="A822" s="1"/>
       <c r="B822" s="2"/>
       <c r="C822" s="1"/>
@@ -8722,7 +8670,7 @@
       <c r="G822" s="1"/>
       <c r="H822" s="1"/>
     </row>
-    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:8">
       <c r="A823" s="1"/>
       <c r="B823" s="2"/>
       <c r="C823" s="1"/>
@@ -8732,7 +8680,7 @@
       <c r="G823" s="1"/>
       <c r="H823" s="1"/>
     </row>
-    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:8">
       <c r="A824" s="1"/>
       <c r="B824" s="2"/>
       <c r="C824" s="1"/>
@@ -8742,7 +8690,7 @@
       <c r="G824" s="1"/>
       <c r="H824" s="1"/>
     </row>
-    <row r="825" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:8">
       <c r="A825" s="1"/>
       <c r="B825" s="2"/>
       <c r="C825" s="1"/>
@@ -8752,7 +8700,7 @@
       <c r="G825" s="1"/>
       <c r="H825" s="1"/>
     </row>
-    <row r="826" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:8">
       <c r="A826" s="1"/>
       <c r="B826" s="2"/>
       <c r="C826" s="1"/>
@@ -8762,7 +8710,7 @@
       <c r="G826" s="1"/>
       <c r="H826" s="1"/>
     </row>
-    <row r="827" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:8">
       <c r="A827" s="1"/>
       <c r="B827" s="2"/>
       <c r="C827" s="1"/>
@@ -8772,7 +8720,7 @@
       <c r="G827" s="1"/>
       <c r="H827" s="1"/>
     </row>
-    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:8">
       <c r="A828" s="1"/>
       <c r="B828" s="2"/>
       <c r="C828" s="1"/>
@@ -8782,7 +8730,7 @@
       <c r="G828" s="1"/>
       <c r="H828" s="1"/>
     </row>
-    <row r="829" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:8">
       <c r="A829" s="1"/>
       <c r="B829" s="2"/>
       <c r="C829" s="1"/>
@@ -8792,7 +8740,7 @@
       <c r="G829" s="1"/>
       <c r="H829" s="1"/>
     </row>
-    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:8">
       <c r="A830" s="1"/>
       <c r="B830" s="2"/>
       <c r="C830" s="1"/>
@@ -8802,7 +8750,7 @@
       <c r="G830" s="1"/>
       <c r="H830" s="1"/>
     </row>
-    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:8">
       <c r="A831" s="1"/>
       <c r="B831" s="2"/>
       <c r="C831" s="1"/>
@@ -8812,7 +8760,7 @@
       <c r="G831" s="1"/>
       <c r="H831" s="1"/>
     </row>
-    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:8">
       <c r="A832" s="1"/>
       <c r="B832" s="2"/>
       <c r="C832" s="1"/>
@@ -8822,7 +8770,7 @@
       <c r="G832" s="1"/>
       <c r="H832" s="1"/>
     </row>
-    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:8">
       <c r="A833" s="1"/>
       <c r="B833" s="2"/>
       <c r="C833" s="1"/>
@@ -8832,7 +8780,7 @@
       <c r="G833" s="1"/>
       <c r="H833" s="1"/>
     </row>
-    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:8">
       <c r="A834" s="1"/>
       <c r="B834" s="2"/>
       <c r="C834" s="1"/>
@@ -8842,7 +8790,7 @@
       <c r="G834" s="1"/>
       <c r="H834" s="1"/>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:8">
       <c r="A835" s="1"/>
       <c r="B835" s="2"/>
       <c r="C835" s="1"/>
@@ -8852,7 +8800,7 @@
       <c r="G835" s="1"/>
       <c r="H835" s="1"/>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:8">
       <c r="A836" s="1"/>
       <c r="B836" s="2"/>
       <c r="C836" s="1"/>
@@ -8862,7 +8810,7 @@
       <c r="G836" s="1"/>
       <c r="H836" s="1"/>
     </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:8">
       <c r="A837" s="1"/>
       <c r="B837" s="2"/>
       <c r="C837" s="1"/>
@@ -8872,7 +8820,7 @@
       <c r="G837" s="1"/>
       <c r="H837" s="1"/>
     </row>
-    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:8">
       <c r="A838" s="1"/>
       <c r="B838" s="2"/>
       <c r="C838" s="1"/>
@@ -8882,7 +8830,7 @@
       <c r="G838" s="1"/>
       <c r="H838" s="1"/>
     </row>
-    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:8">
       <c r="A839" s="1"/>
       <c r="B839" s="2"/>
       <c r="C839" s="1"/>
@@ -8892,7 +8840,7 @@
       <c r="G839" s="1"/>
       <c r="H839" s="1"/>
     </row>
-    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:8">
       <c r="A840" s="1"/>
       <c r="B840" s="2"/>
       <c r="C840" s="1"/>
@@ -8902,7 +8850,7 @@
       <c r="G840" s="1"/>
       <c r="H840" s="1"/>
     </row>
-    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:8">
       <c r="A841" s="1"/>
       <c r="B841" s="2"/>
       <c r="C841" s="1"/>
@@ -8912,7 +8860,7 @@
       <c r="G841" s="1"/>
       <c r="H841" s="1"/>
     </row>
-    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:8">
       <c r="A842" s="1"/>
       <c r="B842" s="2"/>
       <c r="C842" s="1"/>
@@ -8922,7 +8870,7 @@
       <c r="G842" s="1"/>
       <c r="H842" s="1"/>
     </row>
-    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:8">
       <c r="A843" s="1"/>
       <c r="B843" s="2"/>
       <c r="C843" s="1"/>
@@ -8932,7 +8880,7 @@
       <c r="G843" s="1"/>
       <c r="H843" s="1"/>
     </row>
-    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:8">
       <c r="A844" s="1"/>
       <c r="B844" s="2"/>
       <c r="C844" s="1"/>
@@ -8942,7 +8890,7 @@
       <c r="G844" s="1"/>
       <c r="H844" s="1"/>
     </row>
-    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:8">
       <c r="A845" s="1"/>
       <c r="B845" s="2"/>
       <c r="C845" s="1"/>
@@ -8952,7 +8900,7 @@
       <c r="G845" s="1"/>
       <c r="H845" s="1"/>
     </row>
-    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:8">
       <c r="A846" s="1"/>
       <c r="B846" s="2"/>
       <c r="C846" s="1"/>
@@ -8962,7 +8910,7 @@
       <c r="G846" s="1"/>
       <c r="H846" s="1"/>
     </row>
-    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:8">
       <c r="A847" s="1"/>
       <c r="B847" s="2"/>
       <c r="C847" s="1"/>
@@ -8972,7 +8920,7 @@
       <c r="G847" s="1"/>
       <c r="H847" s="1"/>
     </row>
-    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:8">
       <c r="A848" s="1"/>
       <c r="B848" s="2"/>
       <c r="C848" s="1"/>
@@ -8982,7 +8930,7 @@
       <c r="G848" s="1"/>
       <c r="H848" s="1"/>
     </row>
-    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:8">
       <c r="A849" s="1"/>
       <c r="B849" s="2"/>
       <c r="C849" s="1"/>
@@ -8992,7 +8940,7 @@
       <c r="G849" s="1"/>
       <c r="H849" s="1"/>
     </row>
-    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:8">
       <c r="A850" s="1"/>
       <c r="B850" s="2"/>
       <c r="C850" s="1"/>
@@ -9002,7 +8950,7 @@
       <c r="G850" s="1"/>
       <c r="H850" s="1"/>
     </row>
-    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:8">
       <c r="A851" s="1"/>
       <c r="B851" s="2"/>
       <c r="C851" s="1"/>
@@ -9012,7 +8960,7 @@
       <c r="G851" s="1"/>
       <c r="H851" s="1"/>
     </row>
-    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:8">
       <c r="A852" s="1"/>
       <c r="B852" s="2"/>
       <c r="C852" s="1"/>
@@ -9022,7 +8970,7 @@
       <c r="G852" s="1"/>
       <c r="H852" s="1"/>
     </row>
-    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:8">
       <c r="A853" s="1"/>
       <c r="B853" s="2"/>
       <c r="C853" s="1"/>
@@ -9032,7 +8980,7 @@
       <c r="G853" s="1"/>
       <c r="H853" s="1"/>
     </row>
-    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:8">
       <c r="A854" s="1"/>
       <c r="B854" s="2"/>
       <c r="C854" s="1"/>
@@ -9042,7 +8990,7 @@
       <c r="G854" s="1"/>
       <c r="H854" s="1"/>
     </row>
-    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:8">
       <c r="A855" s="1"/>
       <c r="B855" s="2"/>
       <c r="C855" s="1"/>
@@ -9052,7 +9000,7 @@
       <c r="G855" s="1"/>
       <c r="H855" s="1"/>
     </row>
-    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:8">
       <c r="A856" s="1"/>
       <c r="B856" s="2"/>
       <c r="C856" s="1"/>
@@ -9062,7 +9010,7 @@
       <c r="G856" s="1"/>
       <c r="H856" s="1"/>
     </row>
-    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:8">
       <c r="A857" s="1"/>
       <c r="B857" s="2"/>
       <c r="C857" s="1"/>
@@ -9072,7 +9020,7 @@
       <c r="G857" s="1"/>
       <c r="H857" s="1"/>
     </row>
-    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:8">
       <c r="A858" s="1"/>
       <c r="B858" s="2"/>
       <c r="C858" s="1"/>
@@ -9082,7 +9030,7 @@
       <c r="G858" s="1"/>
       <c r="H858" s="1"/>
     </row>
-    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:8">
       <c r="A859" s="1"/>
       <c r="B859" s="2"/>
       <c r="C859" s="1"/>
@@ -9092,7 +9040,7 @@
       <c r="G859" s="1"/>
       <c r="H859" s="1"/>
     </row>
-    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:8">
       <c r="A860" s="1"/>
       <c r="B860" s="2"/>
       <c r="C860" s="1"/>
@@ -9102,7 +9050,7 @@
       <c r="G860" s="1"/>
       <c r="H860" s="1"/>
     </row>
-    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:8">
       <c r="A861" s="1"/>
       <c r="B861" s="2"/>
       <c r="C861" s="1"/>
@@ -9112,7 +9060,7 @@
       <c r="G861" s="1"/>
       <c r="H861" s="1"/>
     </row>
-    <row r="862" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:8">
       <c r="A862" s="1"/>
       <c r="B862" s="2"/>
       <c r="C862" s="1"/>
@@ -9122,7 +9070,7 @@
       <c r="G862" s="1"/>
       <c r="H862" s="1"/>
     </row>
-    <row r="863" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:8">
       <c r="A863" s="1"/>
       <c r="B863" s="2"/>
       <c r="C863" s="1"/>
@@ -9132,7 +9080,7 @@
       <c r="G863" s="1"/>
       <c r="H863" s="1"/>
     </row>
-    <row r="864" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:8">
       <c r="A864" s="1"/>
       <c r="B864" s="2"/>
       <c r="C864" s="1"/>
@@ -9142,7 +9090,7 @@
       <c r="G864" s="1"/>
       <c r="H864" s="1"/>
     </row>
-    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:8">
       <c r="A865" s="1"/>
       <c r="B865" s="2"/>
       <c r="C865" s="1"/>
@@ -9152,7 +9100,7 @@
       <c r="G865" s="1"/>
       <c r="H865" s="1"/>
     </row>
-    <row r="866" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:8">
       <c r="A866" s="1"/>
       <c r="B866" s="2"/>
       <c r="C866" s="1"/>
@@ -9162,7 +9110,7 @@
       <c r="G866" s="1"/>
       <c r="H866" s="1"/>
     </row>
-    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:8">
       <c r="A867" s="1"/>
       <c r="B867" s="2"/>
       <c r="C867" s="1"/>
@@ -9172,7 +9120,7 @@
       <c r="G867" s="1"/>
       <c r="H867" s="1"/>
     </row>
-    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:8">
       <c r="A868" s="1"/>
       <c r="B868" s="2"/>
       <c r="C868" s="1"/>
@@ -9182,7 +9130,7 @@
       <c r="G868" s="1"/>
       <c r="H868" s="1"/>
     </row>
-    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:8">
       <c r="A869" s="1"/>
       <c r="B869" s="2"/>
       <c r="C869" s="1"/>
@@ -9192,7 +9140,7 @@
       <c r="G869" s="1"/>
       <c r="H869" s="1"/>
     </row>
-    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:8">
       <c r="A870" s="1"/>
       <c r="B870" s="2"/>
       <c r="C870" s="1"/>
@@ -9202,7 +9150,7 @@
       <c r="G870" s="1"/>
       <c r="H870" s="1"/>
     </row>
-    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:8">
       <c r="A871" s="1"/>
       <c r="B871" s="2"/>
       <c r="C871" s="1"/>
@@ -9212,7 +9160,7 @@
       <c r="G871" s="1"/>
       <c r="H871" s="1"/>
     </row>
-    <row r="872" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:8">
       <c r="A872" s="1"/>
       <c r="B872" s="2"/>
       <c r="C872" s="1"/>
@@ -9222,7 +9170,7 @@
       <c r="G872" s="1"/>
       <c r="H872" s="1"/>
     </row>
-    <row r="873" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:8">
       <c r="A873" s="1"/>
       <c r="B873" s="2"/>
       <c r="C873" s="1"/>
@@ -9232,7 +9180,7 @@
       <c r="G873" s="1"/>
       <c r="H873" s="1"/>
     </row>
-    <row r="874" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:8">
       <c r="A874" s="1"/>
       <c r="B874" s="2"/>
       <c r="C874" s="1"/>
@@ -9242,7 +9190,7 @@
       <c r="G874" s="1"/>
       <c r="H874" s="1"/>
     </row>
-    <row r="875" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:8">
       <c r="A875" s="1"/>
       <c r="B875" s="2"/>
       <c r="C875" s="1"/>
@@ -9252,7 +9200,7 @@
       <c r="G875" s="1"/>
       <c r="H875" s="1"/>
     </row>
-    <row r="876" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:8">
       <c r="A876" s="1"/>
       <c r="B876" s="2"/>
       <c r="C876" s="1"/>
@@ -9262,7 +9210,7 @@
       <c r="G876" s="1"/>
       <c r="H876" s="1"/>
     </row>
-    <row r="877" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:8">
       <c r="A877" s="1"/>
       <c r="B877" s="2"/>
       <c r="C877" s="1"/>
@@ -9272,7 +9220,7 @@
       <c r="G877" s="1"/>
       <c r="H877" s="1"/>
     </row>
-    <row r="878" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:8">
       <c r="A878" s="1"/>
       <c r="B878" s="2"/>
       <c r="C878" s="1"/>
@@ -9282,7 +9230,7 @@
       <c r="G878" s="1"/>
       <c r="H878" s="1"/>
     </row>
-    <row r="879" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:8">
       <c r="A879" s="1"/>
       <c r="B879" s="2"/>
       <c r="C879" s="1"/>
@@ -9292,7 +9240,7 @@
       <c r="G879" s="1"/>
       <c r="H879" s="1"/>
     </row>
-    <row r="880" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:8">
       <c r="A880" s="1"/>
       <c r="B880" s="2"/>
       <c r="C880" s="1"/>
@@ -9302,7 +9250,7 @@
       <c r="G880" s="1"/>
       <c r="H880" s="1"/>
     </row>
-    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:8">
       <c r="A881" s="1"/>
       <c r="B881" s="2"/>
       <c r="C881" s="1"/>
@@ -9312,7 +9260,7 @@
       <c r="G881" s="1"/>
       <c r="H881" s="1"/>
     </row>
-    <row r="882" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:8">
       <c r="A882" s="1"/>
       <c r="B882" s="2"/>
       <c r="C882" s="1"/>
@@ -9322,7 +9270,7 @@
       <c r="G882" s="1"/>
       <c r="H882" s="1"/>
     </row>
-    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:8">
       <c r="A883" s="1"/>
       <c r="B883" s="2"/>
       <c r="C883" s="1"/>
@@ -9332,7 +9280,7 @@
       <c r="G883" s="1"/>
       <c r="H883" s="1"/>
     </row>
-    <row r="884" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:8">
       <c r="A884" s="1"/>
       <c r="B884" s="2"/>
       <c r="C884" s="1"/>
@@ -9342,7 +9290,7 @@
       <c r="G884" s="1"/>
       <c r="H884" s="1"/>
     </row>
-    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:8">
       <c r="A885" s="1"/>
       <c r="B885" s="2"/>
       <c r="C885" s="1"/>
@@ -9352,7 +9300,7 @@
       <c r="G885" s="1"/>
       <c r="H885" s="1"/>
     </row>
-    <row r="886" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:8">
       <c r="A886" s="1"/>
       <c r="B886" s="2"/>
       <c r="C886" s="1"/>
@@ -9362,7 +9310,7 @@
       <c r="G886" s="1"/>
       <c r="H886" s="1"/>
     </row>
-    <row r="887" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:8">
       <c r="A887" s="1"/>
       <c r="B887" s="2"/>
       <c r="C887" s="1"/>
@@ -9372,7 +9320,7 @@
       <c r="G887" s="1"/>
       <c r="H887" s="1"/>
     </row>
-    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:8">
       <c r="A888" s="1"/>
       <c r="B888" s="2"/>
       <c r="C888" s="1"/>
@@ -9382,7 +9330,7 @@
       <c r="G888" s="1"/>
       <c r="H888" s="1"/>
     </row>
-    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:8">
       <c r="A889" s="1"/>
       <c r="B889" s="2"/>
       <c r="C889" s="1"/>
@@ -9392,7 +9340,7 @@
       <c r="G889" s="1"/>
       <c r="H889" s="1"/>
     </row>
-    <row r="890" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:8">
       <c r="A890" s="1"/>
       <c r="B890" s="2"/>
       <c r="C890" s="1"/>
@@ -9402,7 +9350,7 @@
       <c r="G890" s="1"/>
       <c r="H890" s="1"/>
     </row>
-    <row r="891" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:8">
       <c r="A891" s="1"/>
       <c r="B891" s="2"/>
       <c r="C891" s="1"/>
@@ -9412,7 +9360,7 @@
       <c r="G891" s="1"/>
       <c r="H891" s="1"/>
     </row>
-    <row r="892" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:8">
       <c r="A892" s="1"/>
       <c r="B892" s="2"/>
       <c r="C892" s="1"/>
@@ -9422,7 +9370,7 @@
       <c r="G892" s="1"/>
       <c r="H892" s="1"/>
     </row>
-    <row r="893" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:8">
       <c r="A893" s="1"/>
       <c r="B893" s="2"/>
       <c r="C893" s="1"/>
@@ -9432,7 +9380,7 @@
       <c r="G893" s="1"/>
       <c r="H893" s="1"/>
     </row>
-    <row r="894" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:8">
       <c r="A894" s="1"/>
       <c r="B894" s="2"/>
       <c r="C894" s="1"/>
@@ -9442,7 +9390,7 @@
       <c r="G894" s="1"/>
       <c r="H894" s="1"/>
     </row>
-    <row r="895" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:8">
       <c r="A895" s="1"/>
       <c r="B895" s="2"/>
       <c r="C895" s="1"/>
@@ -9452,7 +9400,7 @@
       <c r="G895" s="1"/>
       <c r="H895" s="1"/>
     </row>
-    <row r="896" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:8">
       <c r="A896" s="1"/>
       <c r="B896" s="2"/>
       <c r="C896" s="1"/>
@@ -9462,7 +9410,7 @@
       <c r="G896" s="1"/>
       <c r="H896" s="1"/>
     </row>
-    <row r="897" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:8">
       <c r="A897" s="1"/>
       <c r="B897" s="2"/>
       <c r="C897" s="1"/>
@@ -9472,7 +9420,7 @@
       <c r="G897" s="1"/>
       <c r="H897" s="1"/>
     </row>
-    <row r="898" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:8">
       <c r="A898" s="1"/>
       <c r="B898" s="2"/>
       <c r="C898" s="1"/>
@@ -9482,7 +9430,7 @@
       <c r="G898" s="1"/>
       <c r="H898" s="1"/>
     </row>
-    <row r="899" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:8">
       <c r="A899" s="1"/>
       <c r="B899" s="2"/>
       <c r="C899" s="1"/>
@@ -9492,7 +9440,7 @@
       <c r="G899" s="1"/>
       <c r="H899" s="1"/>
     </row>
-    <row r="900" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:8">
       <c r="A900" s="1"/>
       <c r="B900" s="2"/>
       <c r="C900" s="1"/>
@@ -9502,7 +9450,7 @@
       <c r="G900" s="1"/>
       <c r="H900" s="1"/>
     </row>
-    <row r="901" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:8">
       <c r="A901" s="1"/>
       <c r="B901" s="2"/>
       <c r="C901" s="1"/>
@@ -9512,7 +9460,7 @@
       <c r="G901" s="1"/>
       <c r="H901" s="1"/>
     </row>
-    <row r="902" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:8">
       <c r="A902" s="1"/>
       <c r="B902" s="2"/>
       <c r="C902" s="1"/>
@@ -9522,7 +9470,7 @@
       <c r="G902" s="1"/>
       <c r="H902" s="1"/>
     </row>
-    <row r="903" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:8">
       <c r="A903" s="1"/>
       <c r="B903" s="2"/>
       <c r="C903" s="1"/>
@@ -9532,7 +9480,7 @@
       <c r="G903" s="1"/>
       <c r="H903" s="1"/>
     </row>
-    <row r="904" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:8">
       <c r="A904" s="1"/>
       <c r="B904" s="2"/>
       <c r="C904" s="1"/>
@@ -9542,7 +9490,7 @@
       <c r="G904" s="1"/>
       <c r="H904" s="1"/>
     </row>
-    <row r="905" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:8">
       <c r="A905" s="1"/>
       <c r="B905" s="2"/>
       <c r="C905" s="1"/>
@@ -9552,7 +9500,7 @@
       <c r="G905" s="1"/>
       <c r="H905" s="1"/>
     </row>
-    <row r="906" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:8">
       <c r="A906" s="1"/>
       <c r="B906" s="2"/>
       <c r="C906" s="1"/>
@@ -9562,7 +9510,7 @@
       <c r="G906" s="1"/>
       <c r="H906" s="1"/>
     </row>
-    <row r="907" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:8">
       <c r="A907" s="1"/>
       <c r="B907" s="2"/>
       <c r="C907" s="1"/>
@@ -9572,7 +9520,7 @@
       <c r="G907" s="1"/>
       <c r="H907" s="1"/>
     </row>
-    <row r="908" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:8">
       <c r="A908" s="1"/>
       <c r="B908" s="2"/>
       <c r="C908" s="1"/>
@@ -9582,7 +9530,7 @@
       <c r="G908" s="1"/>
       <c r="H908" s="1"/>
     </row>
-    <row r="909" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:8">
       <c r="A909" s="1"/>
       <c r="B909" s="2"/>
       <c r="C909" s="1"/>
@@ -9592,7 +9540,7 @@
       <c r="G909" s="1"/>
       <c r="H909" s="1"/>
     </row>
-    <row r="910" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:8">
       <c r="A910" s="1"/>
       <c r="B910" s="2"/>
       <c r="C910" s="1"/>
@@ -9602,7 +9550,7 @@
       <c r="G910" s="1"/>
       <c r="H910" s="1"/>
     </row>
-    <row r="911" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:8">
       <c r="A911" s="1"/>
       <c r="B911" s="2"/>
       <c r="C911" s="1"/>
@@ -9612,7 +9560,7 @@
       <c r="G911" s="1"/>
       <c r="H911" s="1"/>
     </row>
-    <row r="912" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:8">
       <c r="A912" s="1"/>
       <c r="B912" s="2"/>
       <c r="C912" s="1"/>
@@ -9622,7 +9570,7 @@
       <c r="G912" s="1"/>
       <c r="H912" s="1"/>
     </row>
-    <row r="913" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:8">
       <c r="A913" s="1"/>
       <c r="B913" s="2"/>
       <c r="C913" s="1"/>
@@ -9632,7 +9580,7 @@
       <c r="G913" s="1"/>
       <c r="H913" s="1"/>
     </row>
-    <row r="914" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:8">
       <c r="A914" s="1"/>
       <c r="B914" s="2"/>
       <c r="C914" s="1"/>
@@ -9642,7 +9590,7 @@
       <c r="G914" s="1"/>
       <c r="H914" s="1"/>
     </row>
-    <row r="915" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:8">
       <c r="A915" s="1"/>
       <c r="B915" s="2"/>
       <c r="C915" s="1"/>
@@ -9652,7 +9600,7 @@
       <c r="G915" s="1"/>
       <c r="H915" s="1"/>
     </row>
-    <row r="916" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:8">
       <c r="A916" s="1"/>
       <c r="B916" s="2"/>
       <c r="C916" s="1"/>
@@ -9662,7 +9610,7 @@
       <c r="G916" s="1"/>
       <c r="H916" s="1"/>
     </row>
-    <row r="917" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:8">
       <c r="A917" s="1"/>
       <c r="B917" s="2"/>
       <c r="C917" s="1"/>
@@ -9672,7 +9620,7 @@
       <c r="G917" s="1"/>
       <c r="H917" s="1"/>
     </row>
-    <row r="918" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:8">
       <c r="A918" s="1"/>
       <c r="B918" s="2"/>
       <c r="C918" s="1"/>
@@ -9682,7 +9630,7 @@
       <c r="G918" s="1"/>
       <c r="H918" s="1"/>
     </row>
-    <row r="919" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:8">
       <c r="A919" s="1"/>
       <c r="B919" s="2"/>
       <c r="C919" s="1"/>
@@ -9692,7 +9640,7 @@
       <c r="G919" s="1"/>
       <c r="H919" s="1"/>
     </row>
-    <row r="920" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:8">
       <c r="A920" s="1"/>
       <c r="B920" s="2"/>
       <c r="C920" s="1"/>
@@ -9702,7 +9650,7 @@
       <c r="G920" s="1"/>
       <c r="H920" s="1"/>
     </row>
-    <row r="921" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:8">
       <c r="A921" s="1"/>
       <c r="B921" s="2"/>
       <c r="C921" s="1"/>
@@ -9712,7 +9660,7 @@
       <c r="G921" s="1"/>
       <c r="H921" s="1"/>
     </row>
-    <row r="922" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:8">
       <c r="A922" s="1"/>
       <c r="B922" s="2"/>
       <c r="C922" s="1"/>
@@ -9722,7 +9670,7 @@
       <c r="G922" s="1"/>
       <c r="H922" s="1"/>
     </row>
-    <row r="923" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:8">
       <c r="A923" s="1"/>
       <c r="B923" s="2"/>
       <c r="C923" s="1"/>
@@ -9732,7 +9680,7 @@
       <c r="G923" s="1"/>
       <c r="H923" s="1"/>
     </row>
-    <row r="924" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:8">
       <c r="A924" s="1"/>
       <c r="B924" s="2"/>
       <c r="C924" s="1"/>
@@ -9742,7 +9690,7 @@
       <c r="G924" s="1"/>
       <c r="H924" s="1"/>
     </row>
-    <row r="925" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:8">
       <c r="A925" s="1"/>
       <c r="B925" s="2"/>
       <c r="C925" s="1"/>
@@ -9752,7 +9700,7 @@
       <c r="G925" s="1"/>
       <c r="H925" s="1"/>
     </row>
-    <row r="926" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:8">
       <c r="A926" s="1"/>
       <c r="B926" s="2"/>
       <c r="C926" s="1"/>
@@ -9762,7 +9710,7 @@
       <c r="G926" s="1"/>
       <c r="H926" s="1"/>
     </row>
-    <row r="927" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:8">
       <c r="A927" s="1"/>
       <c r="B927" s="2"/>
       <c r="C927" s="1"/>
@@ -9772,7 +9720,7 @@
       <c r="G927" s="1"/>
       <c r="H927" s="1"/>
     </row>
-    <row r="928" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:8">
       <c r="A928" s="1"/>
       <c r="B928" s="2"/>
       <c r="C928" s="1"/>
@@ -9782,7 +9730,7 @@
       <c r="G928" s="1"/>
       <c r="H928" s="1"/>
     </row>
-    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:8">
       <c r="A929" s="1"/>
       <c r="B929" s="2"/>
       <c r="C929" s="1"/>
@@ -9792,7 +9740,7 @@
       <c r="G929" s="1"/>
       <c r="H929" s="1"/>
     </row>
-    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:8">
       <c r="A930" s="1"/>
       <c r="B930" s="2"/>
       <c r="C930" s="1"/>
@@ -9802,7 +9750,7 @@
       <c r="G930" s="1"/>
       <c r="H930" s="1"/>
     </row>
-    <row r="931" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:8">
       <c r="A931" s="1"/>
       <c r="B931" s="2"/>
       <c r="C931" s="1"/>
@@ -9812,7 +9760,7 @@
       <c r="G931" s="1"/>
       <c r="H931" s="1"/>
     </row>
-    <row r="932" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:8">
       <c r="A932" s="1"/>
       <c r="B932" s="2"/>
       <c r="C932" s="1"/>
@@ -9822,7 +9770,7 @@
       <c r="G932" s="1"/>
       <c r="H932" s="1"/>
     </row>
-    <row r="933" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:8">
       <c r="A933" s="1"/>
       <c r="B933" s="2"/>
       <c r="C933" s="1"/>
@@ -9832,7 +9780,7 @@
       <c r="G933" s="1"/>
       <c r="H933" s="1"/>
     </row>
-    <row r="934" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:8">
       <c r="A934" s="1"/>
       <c r="B934" s="2"/>
       <c r="C934" s="1"/>
@@ -9842,7 +9790,7 @@
       <c r="G934" s="1"/>
       <c r="H934" s="1"/>
     </row>
-    <row r="935" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:8">
       <c r="A935" s="1"/>
       <c r="B935" s="2"/>
       <c r="C935" s="1"/>
@@ -9852,7 +9800,7 @@
       <c r="G935" s="1"/>
       <c r="H935" s="1"/>
     </row>
-    <row r="936" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:8">
       <c r="A936" s="1"/>
       <c r="B936" s="2"/>
       <c r="C936" s="1"/>
@@ -9862,7 +9810,7 @@
       <c r="G936" s="1"/>
       <c r="H936" s="1"/>
     </row>
-    <row r="937" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:8">
       <c r="A937" s="1"/>
       <c r="B937" s="2"/>
       <c r="C937" s="1"/>
@@ -9872,7 +9820,7 @@
       <c r="G937" s="1"/>
       <c r="H937" s="1"/>
     </row>
-    <row r="938" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:8">
       <c r="A938" s="1"/>
       <c r="B938" s="2"/>
       <c r="C938" s="1"/>
@@ -9882,7 +9830,7 @@
       <c r="G938" s="1"/>
       <c r="H938" s="1"/>
     </row>
-    <row r="939" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:8">
       <c r="A939" s="1"/>
       <c r="B939" s="2"/>
       <c r="C939" s="1"/>
@@ -9892,7 +9840,7 @@
       <c r="G939" s="1"/>
       <c r="H939" s="1"/>
     </row>
-    <row r="940" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:8">
       <c r="A940" s="1"/>
       <c r="B940" s="2"/>
       <c r="C940" s="1"/>
@@ -9902,7 +9850,7 @@
       <c r="G940" s="1"/>
       <c r="H940" s="1"/>
     </row>
-    <row r="941" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:8">
       <c r="A941" s="1"/>
       <c r="B941" s="2"/>
       <c r="C941" s="1"/>
@@ -9912,7 +9860,7 @@
       <c r="G941" s="1"/>
       <c r="H941" s="1"/>
     </row>
-    <row r="942" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:8">
       <c r="A942" s="1"/>
       <c r="B942" s="2"/>
       <c r="C942" s="1"/>
@@ -9922,7 +9870,7 @@
       <c r="G942" s="1"/>
       <c r="H942" s="1"/>
     </row>
-    <row r="943" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:8">
       <c r="A943" s="1"/>
       <c r="B943" s="2"/>
       <c r="C943" s="1"/>
@@ -9932,7 +9880,7 @@
       <c r="G943" s="1"/>
       <c r="H943" s="1"/>
     </row>
-    <row r="944" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:8">
       <c r="A944" s="1"/>
       <c r="B944" s="2"/>
       <c r="C944" s="1"/>
@@ -9942,7 +9890,7 @@
       <c r="G944" s="1"/>
       <c r="H944" s="1"/>
     </row>
-    <row r="945" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:8">
       <c r="A945" s="1"/>
       <c r="B945" s="2"/>
       <c r="C945" s="1"/>
@@ -9952,7 +9900,7 @@
       <c r="G945" s="1"/>
       <c r="H945" s="1"/>
     </row>
-    <row r="946" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:8">
       <c r="A946" s="1"/>
       <c r="B946" s="2"/>
       <c r="C946" s="1"/>
@@ -9962,7 +9910,7 @@
       <c r="G946" s="1"/>
       <c r="H946" s="1"/>
     </row>
-    <row r="947" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:8">
       <c r="A947" s="1"/>
       <c r="B947" s="2"/>
       <c r="C947" s="1"/>
@@ -9972,7 +9920,7 @@
       <c r="G947" s="1"/>
       <c r="H947" s="1"/>
     </row>
-    <row r="948" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:8">
       <c r="A948" s="1"/>
       <c r="B948" s="2"/>
       <c r="C948" s="1"/>
@@ -9982,7 +9930,7 @@
       <c r="G948" s="1"/>
       <c r="H948" s="1"/>
     </row>
-    <row r="949" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:8">
       <c r="A949" s="1"/>
       <c r="B949" s="2"/>
       <c r="C949" s="1"/>
@@ -9992,7 +9940,7 @@
       <c r="G949" s="1"/>
       <c r="H949" s="1"/>
     </row>
-    <row r="950" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:8">
       <c r="A950" s="1"/>
       <c r="B950" s="2"/>
       <c r="C950" s="1"/>
@@ -10002,7 +9950,7 @@
       <c r="G950" s="1"/>
       <c r="H950" s="1"/>
     </row>
-    <row r="951" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:8">
       <c r="A951" s="1"/>
       <c r="B951" s="2"/>
       <c r="C951" s="1"/>
@@ -10012,7 +9960,7 @@
       <c r="G951" s="1"/>
       <c r="H951" s="1"/>
     </row>
-    <row r="952" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:8">
       <c r="A952" s="1"/>
       <c r="B952" s="2"/>
       <c r="C952" s="1"/>
@@ -10022,7 +9970,7 @@
       <c r="G952" s="1"/>
       <c r="H952" s="1"/>
     </row>
-    <row r="953" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:8">
       <c r="A953" s="1"/>
       <c r="B953" s="2"/>
       <c r="C953" s="1"/>
@@ -10032,7 +9980,7 @@
       <c r="G953" s="1"/>
       <c r="H953" s="1"/>
     </row>
-    <row r="954" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:8">
       <c r="A954" s="1"/>
       <c r="B954" s="2"/>
       <c r="C954" s="1"/>
@@ -10042,7 +9990,7 @@
       <c r="G954" s="1"/>
       <c r="H954" s="1"/>
     </row>
-    <row r="955" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:8">
       <c r="A955" s="1"/>
       <c r="B955" s="2"/>
       <c r="C955" s="1"/>
@@ -10052,7 +10000,7 @@
       <c r="G955" s="1"/>
       <c r="H955" s="1"/>
     </row>
-    <row r="956" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:8">
       <c r="A956" s="1"/>
       <c r="B956" s="2"/>
       <c r="C956" s="1"/>
@@ -10062,7 +10010,7 @@
       <c r="G956" s="1"/>
       <c r="H956" s="1"/>
     </row>
-    <row r="957" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:8">
       <c r="A957" s="1"/>
       <c r="B957" s="2"/>
       <c r="C957" s="1"/>
@@ -10072,7 +10020,7 @@
       <c r="G957" s="1"/>
       <c r="H957" s="1"/>
     </row>
-    <row r="958" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:8">
       <c r="A958" s="1"/>
       <c r="B958" s="2"/>
       <c r="C958" s="1"/>
@@ -10082,7 +10030,7 @@
       <c r="G958" s="1"/>
       <c r="H958" s="1"/>
     </row>
-    <row r="959" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:8">
       <c r="A959" s="1"/>
       <c r="B959" s="2"/>
       <c r="C959" s="1"/>
@@ -10092,7 +10040,7 @@
       <c r="G959" s="1"/>
       <c r="H959" s="1"/>
     </row>
-    <row r="960" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:8">
       <c r="A960" s="1"/>
       <c r="B960" s="2"/>
       <c r="C960" s="1"/>
@@ -10102,7 +10050,7 @@
       <c r="G960" s="1"/>
       <c r="H960" s="1"/>
     </row>
-    <row r="961" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:8">
       <c r="A961" s="1"/>
       <c r="B961" s="2"/>
       <c r="C961" s="1"/>
@@ -10112,7 +10060,7 @@
       <c r="G961" s="1"/>
       <c r="H961" s="1"/>
     </row>
-    <row r="962" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:8">
       <c r="A962" s="1"/>
       <c r="B962" s="2"/>
       <c r="C962" s="1"/>
@@ -10122,7 +10070,7 @@
       <c r="G962" s="1"/>
       <c r="H962" s="1"/>
     </row>
-    <row r="963" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:8">
       <c r="A963" s="1"/>
       <c r="B963" s="2"/>
       <c r="C963" s="1"/>
@@ -10132,7 +10080,7 @@
       <c r="G963" s="1"/>
       <c r="H963" s="1"/>
     </row>
-    <row r="964" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:8">
       <c r="A964" s="1"/>
       <c r="B964" s="2"/>
       <c r="C964" s="1"/>
@@ -10142,7 +10090,7 @@
       <c r="G964" s="1"/>
       <c r="H964" s="1"/>
     </row>
-    <row r="965" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:8">
       <c r="A965" s="1"/>
       <c r="B965" s="2"/>
       <c r="C965" s="1"/>
@@ -10152,7 +10100,7 @@
       <c r="G965" s="1"/>
       <c r="H965" s="1"/>
     </row>
-    <row r="966" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:8">
       <c r="A966" s="1"/>
       <c r="B966" s="2"/>
       <c r="C966" s="1"/>
@@ -10162,7 +10110,7 @@
       <c r="G966" s="1"/>
       <c r="H966" s="1"/>
     </row>
-    <row r="967" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:8">
       <c r="A967" s="1"/>
       <c r="B967" s="2"/>
       <c r="C967" s="1"/>
@@ -10172,7 +10120,7 @@
       <c r="G967" s="1"/>
       <c r="H967" s="1"/>
     </row>
-    <row r="968" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:8">
       <c r="A968" s="1"/>
       <c r="B968" s="2"/>
       <c r="C968" s="1"/>
@@ -10182,7 +10130,7 @@
       <c r="G968" s="1"/>
       <c r="H968" s="1"/>
     </row>
-    <row r="969" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:8">
       <c r="A969" s="1"/>
       <c r="B969" s="2"/>
       <c r="C969" s="1"/>
@@ -10192,7 +10140,7 @@
       <c r="G969" s="1"/>
       <c r="H969" s="1"/>
     </row>
-    <row r="970" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:8">
       <c r="A970" s="1"/>
       <c r="B970" s="2"/>
       <c r="C970" s="1"/>
@@ -10202,7 +10150,7 @@
       <c r="G970" s="1"/>
       <c r="H970" s="1"/>
     </row>
-    <row r="971" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:8">
       <c r="A971" s="1"/>
       <c r="B971" s="2"/>
       <c r="C971" s="1"/>
@@ -10212,7 +10160,7 @@
       <c r="G971" s="1"/>
       <c r="H971" s="1"/>
     </row>
-    <row r="972" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:8">
       <c r="A972" s="1"/>
       <c r="B972" s="2"/>
       <c r="C972" s="1"/>
@@ -10222,7 +10170,7 @@
       <c r="G972" s="1"/>
       <c r="H972" s="1"/>
     </row>
-    <row r="973" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:8">
       <c r="A973" s="1"/>
       <c r="B973" s="2"/>
       <c r="C973" s="1"/>
@@ -10232,7 +10180,7 @@
       <c r="G973" s="1"/>
       <c r="H973" s="1"/>
     </row>
-    <row r="974" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:8">
       <c r="A974" s="1"/>
       <c r="B974" s="2"/>
       <c r="C974" s="1"/>
@@ -10242,7 +10190,7 @@
       <c r="G974" s="1"/>
       <c r="H974" s="1"/>
     </row>
-    <row r="975" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:8">
       <c r="A975" s="1"/>
       <c r="B975" s="2"/>
       <c r="C975" s="1"/>
@@ -10252,7 +10200,7 @@
       <c r="G975" s="1"/>
       <c r="H975" s="1"/>
     </row>
-    <row r="976" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:8">
       <c r="A976" s="1"/>
       <c r="B976" s="2"/>
       <c r="C976" s="1"/>
@@ -10262,7 +10210,7 @@
       <c r="G976" s="1"/>
       <c r="H976" s="1"/>
     </row>
-    <row r="977" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:8">
       <c r="A977" s="1"/>
       <c r="B977" s="2"/>
       <c r="C977" s="1"/>
@@ -10272,7 +10220,7 @@
       <c r="G977" s="1"/>
       <c r="H977" s="1"/>
     </row>
-    <row r="978" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:8">
       <c r="A978" s="1"/>
       <c r="B978" s="2"/>
       <c r="C978" s="1"/>
@@ -10282,7 +10230,7 @@
       <c r="G978" s="1"/>
       <c r="H978" s="1"/>
     </row>
-    <row r="979" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:8">
       <c r="A979" s="1"/>
       <c r="B979" s="2"/>
       <c r="C979" s="1"/>
@@ -10292,7 +10240,7 @@
       <c r="G979" s="1"/>
       <c r="H979" s="1"/>
     </row>
-    <row r="980" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:8">
       <c r="A980" s="1"/>
       <c r="B980" s="2"/>
       <c r="C980" s="1"/>
@@ -10302,7 +10250,7 @@
       <c r="G980" s="1"/>
       <c r="H980" s="1"/>
     </row>
-    <row r="981" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:8">
       <c r="A981" s="1"/>
       <c r="B981" s="2"/>
       <c r="C981" s="1"/>
@@ -10312,7 +10260,7 @@
       <c r="G981" s="1"/>
       <c r="H981" s="1"/>
     </row>
-    <row r="982" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:8">
       <c r="A982" s="1"/>
       <c r="B982" s="2"/>
       <c r="C982" s="1"/>
@@ -10322,7 +10270,7 @@
       <c r="G982" s="1"/>
       <c r="H982" s="1"/>
     </row>
-    <row r="983" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:8">
       <c r="A983" s="1"/>
       <c r="B983" s="2"/>
       <c r="C983" s="1"/>
@@ -10332,7 +10280,7 @@
       <c r="G983" s="1"/>
       <c r="H983" s="1"/>
     </row>
-    <row r="984" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:8">
       <c r="A984" s="1"/>
       <c r="B984" s="2"/>
       <c r="C984" s="1"/>
@@ -10342,7 +10290,7 @@
       <c r="G984" s="1"/>
       <c r="H984" s="1"/>
     </row>
-    <row r="985" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:8">
       <c r="A985" s="1"/>
       <c r="B985" s="2"/>
       <c r="C985" s="1"/>
@@ -10352,7 +10300,7 @@
       <c r="G985" s="1"/>
       <c r="H985" s="1"/>
     </row>
-    <row r="986" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:8">
       <c r="A986" s="1"/>
       <c r="B986" s="2"/>
       <c r="C986" s="1"/>
@@ -10362,7 +10310,7 @@
       <c r="G986" s="1"/>
       <c r="H986" s="1"/>
     </row>
-    <row r="987" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:8">
       <c r="A987" s="1"/>
       <c r="B987" s="2"/>
       <c r="C987" s="1"/>
@@ -10372,7 +10320,7 @@
       <c r="G987" s="1"/>
       <c r="H987" s="1"/>
     </row>
-    <row r="988" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:8">
       <c r="A988" s="1"/>
       <c r="B988" s="2"/>
       <c r="C988" s="1"/>
@@ -10382,7 +10330,7 @@
       <c r="G988" s="1"/>
       <c r="H988" s="1"/>
     </row>
-    <row r="989" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:8">
       <c r="A989" s="1"/>
       <c r="B989" s="2"/>
       <c r="C989" s="1"/>
@@ -10392,7 +10340,7 @@
       <c r="G989" s="1"/>
       <c r="H989" s="1"/>
     </row>
-    <row r="990" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:8">
       <c r="A990" s="1"/>
       <c r="B990" s="2"/>
       <c r="C990" s="1"/>
@@ -10402,7 +10350,7 @@
       <c r="G990" s="1"/>
       <c r="H990" s="1"/>
     </row>
-    <row r="991" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:8">
       <c r="A991" s="1"/>
       <c r="B991" s="2"/>
       <c r="C991" s="1"/>
@@ -10412,7 +10360,7 @@
       <c r="G991" s="1"/>
       <c r="H991" s="1"/>
     </row>
-    <row r="992" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:8">
       <c r="A992" s="1"/>
       <c r="B992" s="2"/>
       <c r="C992" s="1"/>
@@ -10422,7 +10370,7 @@
       <c r="G992" s="1"/>
       <c r="H992" s="1"/>
     </row>
-    <row r="993" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:8">
       <c r="A993" s="1"/>
       <c r="B993" s="2"/>
       <c r="C993" s="1"/>
@@ -10432,7 +10380,7 @@
       <c r="G993" s="1"/>
       <c r="H993" s="1"/>
     </row>
-    <row r="994" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:8">
       <c r="A994" s="1"/>
       <c r="B994" s="2"/>
       <c r="C994" s="1"/>
@@ -10442,7 +10390,7 @@
       <c r="G994" s="1"/>
       <c r="H994" s="1"/>
     </row>
-    <row r="995" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:8">
       <c r="A995" s="1"/>
       <c r="B995" s="2"/>
       <c r="C995" s="1"/>
@@ -10452,7 +10400,7 @@
       <c r="G995" s="1"/>
       <c r="H995" s="1"/>
     </row>
-    <row r="996" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:8">
       <c r="A996" s="1"/>
       <c r="B996" s="2"/>
       <c r="C996" s="1"/>
@@ -10462,7 +10410,7 @@
       <c r="G996" s="1"/>
       <c r="H996" s="1"/>
     </row>
-    <row r="997" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:8">
       <c r="A997" s="1"/>
       <c r="B997" s="2"/>
       <c r="C997" s="1"/>
@@ -10472,7 +10420,7 @@
       <c r="G997" s="1"/>
       <c r="H997" s="1"/>
     </row>
-    <row r="998" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:8">
       <c r="A998" s="1"/>
       <c r="B998" s="2"/>
       <c r="C998" s="1"/>
@@ -10482,7 +10430,7 @@
       <c r="G998" s="1"/>
       <c r="H998" s="1"/>
     </row>
-    <row r="999" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:8">
       <c r="A999" s="1"/>
       <c r="B999" s="2"/>
       <c r="C999" s="1"/>
@@ -10492,7 +10440,7 @@
       <c r="G999" s="1"/>
       <c r="H999" s="1"/>
     </row>
-    <row r="1000" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:8">
       <c r="A1000" s="1"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="1"/>
@@ -10502,7 +10450,7 @@
       <c r="G1000" s="1"/>
       <c r="H1000" s="1"/>
     </row>
-    <row r="1001" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:8">
       <c r="A1001" s="1"/>
       <c r="B1001" s="2"/>
       <c r="C1001" s="1"/>
@@ -10512,7 +10460,7 @@
       <c r="G1001" s="1"/>
       <c r="H1001" s="1"/>
     </row>
-    <row r="1002" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:8">
       <c r="A1002" s="1"/>
       <c r="B1002" s="2"/>
       <c r="C1002" s="1"/>
@@ -10522,7 +10470,7 @@
       <c r="G1002" s="1"/>
       <c r="H1002" s="1"/>
     </row>
-    <row r="1003" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:8">
       <c r="A1003" s="1"/>
       <c r="B1003" s="2"/>
       <c r="C1003" s="1"/>
@@ -10532,7 +10480,7 @@
       <c r="G1003" s="1"/>
       <c r="H1003" s="1"/>
     </row>
-    <row r="1004" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:8">
       <c r="A1004" s="1"/>
       <c r="B1004" s="2"/>
       <c r="C1004" s="1"/>
@@ -10542,7 +10490,7 @@
       <c r="G1004" s="1"/>
       <c r="H1004" s="1"/>
     </row>
-    <row r="1005" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:8">
       <c r="A1005" s="1"/>
       <c r="B1005" s="2"/>
       <c r="C1005" s="1"/>
@@ -10552,7 +10500,7 @@
       <c r="G1005" s="1"/>
       <c r="H1005" s="1"/>
     </row>
-    <row r="1006" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:8">
       <c r="A1006" s="1"/>
       <c r="B1006" s="2"/>
       <c r="C1006" s="1"/>
@@ -10562,7 +10510,7 @@
       <c r="G1006" s="1"/>
       <c r="H1006" s="1"/>
     </row>
-    <row r="1007" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:8">
       <c r="A1007" s="1"/>
       <c r="B1007" s="2"/>
       <c r="C1007" s="1"/>
@@ -10572,7 +10520,7 @@
       <c r="G1007" s="1"/>
       <c r="H1007" s="1"/>
     </row>
-    <row r="1008" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:8">
       <c r="A1008" s="1"/>
       <c r="B1008" s="2"/>
       <c r="C1008" s="1"/>
@@ -10582,7 +10530,7 @@
       <c r="G1008" s="1"/>
       <c r="H1008" s="1"/>
     </row>
-    <row r="1009" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:8">
       <c r="A1009" s="1"/>
       <c r="B1009" s="2"/>
       <c r="C1009" s="1"/>
@@ -10592,7 +10540,7 @@
       <c r="G1009" s="1"/>
       <c r="H1009" s="1"/>
     </row>
-    <row r="1010" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:8">
       <c r="A1010" s="1"/>
       <c r="B1010" s="2"/>
       <c r="C1010" s="1"/>
@@ -10602,7 +10550,7 @@
       <c r="G1010" s="1"/>
       <c r="H1010" s="1"/>
     </row>
-    <row r="1011" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:8">
       <c r="A1011" s="1"/>
       <c r="B1011" s="2"/>
       <c r="C1011" s="1"/>
@@ -10612,7 +10560,7 @@
       <c r="G1011" s="1"/>
       <c r="H1011" s="1"/>
     </row>
-    <row r="1012" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:8">
       <c r="A1012" s="1"/>
       <c r="B1012" s="2"/>
       <c r="C1012" s="1"/>
@@ -10622,7 +10570,7 @@
       <c r="G1012" s="1"/>
       <c r="H1012" s="1"/>
     </row>
-    <row r="1013" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:8">
       <c r="A1013" s="1"/>
       <c r="B1013" s="2"/>
       <c r="C1013" s="1"/>
@@ -10632,7 +10580,7 @@
       <c r="G1013" s="1"/>
       <c r="H1013" s="1"/>
     </row>
-    <row r="1014" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:8">
       <c r="A1014" s="1"/>
       <c r="B1014" s="2"/>
       <c r="C1014" s="1"/>
@@ -10642,7 +10590,7 @@
       <c r="G1014" s="1"/>
       <c r="H1014" s="1"/>
     </row>
-    <row r="1015" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:8">
       <c r="A1015" s="1"/>
       <c r="B1015" s="2"/>
       <c r="C1015" s="1"/>
@@ -10652,7 +10600,7 @@
       <c r="G1015" s="1"/>
       <c r="H1015" s="1"/>
     </row>
-    <row r="1016" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:8">
       <c r="A1016" s="1"/>
       <c r="B1016" s="2"/>
       <c r="C1016" s="1"/>
@@ -10662,7 +10610,7 @@
       <c r="G1016" s="1"/>
       <c r="H1016" s="1"/>
     </row>
-    <row r="1017" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:8">
       <c r="A1017" s="1"/>
       <c r="B1017" s="2"/>
       <c r="C1017" s="1"/>
@@ -10672,7 +10620,7 @@
       <c r="G1017" s="1"/>
       <c r="H1017" s="1"/>
     </row>
-    <row r="1018" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:8">
       <c r="A1018" s="1"/>
       <c r="B1018" s="2"/>
       <c r="C1018" s="1"/>
@@ -10682,7 +10630,7 @@
       <c r="G1018" s="1"/>
       <c r="H1018" s="1"/>
     </row>
-    <row r="1019" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:8">
       <c r="A1019" s="1"/>
       <c r="B1019" s="2"/>
       <c r="C1019" s="1"/>
@@ -10692,7 +10640,7 @@
       <c r="G1019" s="1"/>
       <c r="H1019" s="1"/>
     </row>
-    <row r="1020" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:8">
       <c r="A1020" s="1"/>
       <c r="B1020" s="2"/>
       <c r="C1020" s="1"/>
@@ -10702,7 +10650,7 @@
       <c r="G1020" s="1"/>
       <c r="H1020" s="1"/>
     </row>
-    <row r="1021" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:8">
       <c r="A1021" s="1"/>
       <c r="B1021" s="2"/>
       <c r="C1021" s="1"/>
@@ -10712,7 +10660,7 @@
       <c r="G1021" s="1"/>
       <c r="H1021" s="1"/>
     </row>
-    <row r="1022" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:8">
       <c r="A1022" s="1"/>
       <c r="B1022" s="2"/>
       <c r="C1022" s="1"/>
@@ -10722,7 +10670,7 @@
       <c r="G1022" s="1"/>
       <c r="H1022" s="1"/>
     </row>
-    <row r="1023" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:8">
       <c r="A1023" s="1"/>
       <c r="B1023" s="2"/>
       <c r="C1023" s="1"/>
@@ -10732,7 +10680,7 @@
       <c r="G1023" s="1"/>
       <c r="H1023" s="1"/>
     </row>
-    <row r="1024" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:8">
       <c r="A1024" s="1"/>
       <c r="B1024" s="2"/>
       <c r="C1024" s="1"/>
@@ -10742,7 +10690,7 @@
       <c r="G1024" s="1"/>
       <c r="H1024" s="1"/>
     </row>
-    <row r="1025" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:8">
       <c r="A1025" s="1"/>
       <c r="B1025" s="2"/>
       <c r="C1025" s="1"/>
@@ -10752,7 +10700,7 @@
       <c r="G1025" s="1"/>
       <c r="H1025" s="1"/>
     </row>
-    <row r="1026" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:8">
       <c r="A1026" s="1"/>
       <c r="B1026" s="2"/>
       <c r="C1026" s="1"/>
@@ -10762,7 +10710,7 @@
       <c r="G1026" s="1"/>
       <c r="H1026" s="1"/>
     </row>
-    <row r="1027" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:8">
       <c r="A1027" s="1"/>
       <c r="B1027" s="2"/>
       <c r="C1027" s="1"/>
@@ -10772,7 +10720,7 @@
       <c r="G1027" s="1"/>
       <c r="H1027" s="1"/>
     </row>
-    <row r="1028" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:8">
       <c r="A1028" s="1"/>
       <c r="B1028" s="2"/>
       <c r="C1028" s="1"/>
@@ -10782,7 +10730,7 @@
       <c r="G1028" s="1"/>
       <c r="H1028" s="1"/>
     </row>
-    <row r="1029" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:8">
       <c r="A1029" s="1"/>
       <c r="B1029" s="2"/>
       <c r="C1029" s="1"/>
@@ -10792,7 +10740,7 @@
       <c r="G1029" s="1"/>
       <c r="H1029" s="1"/>
     </row>
-    <row r="1030" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:8">
       <c r="A1030" s="1"/>
       <c r="B1030" s="2"/>
       <c r="C1030" s="1"/>
@@ -10802,7 +10750,7 @@
       <c r="G1030" s="1"/>
       <c r="H1030" s="1"/>
     </row>
-    <row r="1031" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:8">
       <c r="A1031" s="1"/>
       <c r="B1031" s="2"/>
       <c r="C1031" s="1"/>
@@ -10812,7 +10760,7 @@
       <c r="G1031" s="1"/>
       <c r="H1031" s="1"/>
     </row>
-    <row r="1032" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:8">
       <c r="A1032" s="1"/>
       <c r="B1032" s="2"/>
       <c r="C1032" s="1"/>
@@ -10822,7 +10770,7 @@
       <c r="G1032" s="1"/>
       <c r="H1032" s="1"/>
     </row>
-    <row r="1033" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:8">
       <c r="A1033" s="1"/>
       <c r="B1033" s="2"/>
       <c r="C1033" s="1"/>
@@ -10832,7 +10780,7 @@
       <c r="G1033" s="1"/>
       <c r="H1033" s="1"/>
     </row>
-    <row r="1034" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:8">
       <c r="A1034" s="1"/>
       <c r="B1034" s="2"/>
       <c r="C1034" s="1"/>
@@ -10842,7 +10790,7 @@
       <c r="G1034" s="1"/>
       <c r="H1034" s="1"/>
     </row>
-    <row r="1035" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:8">
       <c r="A1035" s="1"/>
       <c r="B1035" s="2"/>
       <c r="C1035" s="1"/>
@@ -10852,7 +10800,7 @@
       <c r="G1035" s="1"/>
       <c r="H1035" s="1"/>
     </row>
-    <row r="1036" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:8">
       <c r="A1036" s="1"/>
       <c r="B1036" s="2"/>
       <c r="C1036" s="1"/>
@@ -10862,7 +10810,7 @@
       <c r="G1036" s="1"/>
       <c r="H1036" s="1"/>
     </row>
-    <row r="1037" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:8">
       <c r="A1037" s="1"/>
       <c r="B1037" s="2"/>
       <c r="C1037" s="1"/>
@@ -10872,7 +10820,7 @@
       <c r="G1037" s="1"/>
       <c r="H1037" s="1"/>
     </row>
-    <row r="1038" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:8">
       <c r="A1038" s="1"/>
       <c r="B1038" s="2"/>
       <c r="C1038" s="1"/>
@@ -10882,7 +10830,7 @@
       <c r="G1038" s="1"/>
       <c r="H1038" s="1"/>
     </row>
-    <row r="1039" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:8">
       <c r="A1039" s="1"/>
       <c r="B1039" s="2"/>
       <c r="C1039" s="1"/>
@@ -10892,7 +10840,7 @@
       <c r="G1039" s="1"/>
       <c r="H1039" s="1"/>
     </row>
-    <row r="1040" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:8">
       <c r="A1040" s="1"/>
       <c r="B1040" s="2"/>
       <c r="C1040" s="1"/>
@@ -10902,7 +10850,7 @@
       <c r="G1040" s="1"/>
       <c r="H1040" s="1"/>
     </row>
-    <row r="1041" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:8">
       <c r="A1041" s="1"/>
       <c r="B1041" s="2"/>
       <c r="C1041" s="1"/>
@@ -10912,7 +10860,7 @@
       <c r="G1041" s="1"/>
       <c r="H1041" s="1"/>
     </row>
-    <row r="1042" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:8">
       <c r="A1042" s="1"/>
       <c r="B1042" s="2"/>
       <c r="C1042" s="1"/>
@@ -10922,7 +10870,7 @@
       <c r="G1042" s="1"/>
       <c r="H1042" s="1"/>
     </row>
-    <row r="1043" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:8">
       <c r="A1043" s="1"/>
       <c r="B1043" s="2"/>
       <c r="C1043" s="1"/>
@@ -10932,7 +10880,7 @@
       <c r="G1043" s="1"/>
       <c r="H1043" s="1"/>
     </row>
-    <row r="1044" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:8">
       <c r="A1044" s="1"/>
       <c r="B1044" s="2"/>
       <c r="C1044" s="1"/>
@@ -10942,7 +10890,7 @@
       <c r="G1044" s="1"/>
       <c r="H1044" s="1"/>
     </row>
-    <row r="1045" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:8">
       <c r="A1045" s="1"/>
       <c r="B1045" s="2"/>
       <c r="C1045" s="1"/>
@@ -10952,7 +10900,7 @@
       <c r="G1045" s="1"/>
       <c r="H1045" s="1"/>
     </row>
-    <row r="1046" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:8">
       <c r="A1046" s="1"/>
       <c r="B1046" s="2"/>
       <c r="C1046" s="1"/>
@@ -10962,7 +10910,7 @@
       <c r="G1046" s="1"/>
       <c r="H1046" s="1"/>
     </row>
-    <row r="1047" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:8">
       <c r="A1047" s="1"/>
       <c r="B1047" s="2"/>
       <c r="C1047" s="1"/>
@@ -10972,7 +10920,7 @@
       <c r="G1047" s="1"/>
       <c r="H1047" s="1"/>
     </row>
-    <row r="1048" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:8">
       <c r="A1048" s="1"/>
       <c r="B1048" s="2"/>
       <c r="C1048" s="1"/>
@@ -10982,7 +10930,7 @@
       <c r="G1048" s="1"/>
       <c r="H1048" s="1"/>
     </row>
-    <row r="1049" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:8">
       <c r="A1049" s="1"/>
       <c r="B1049" s="2"/>
       <c r="C1049" s="1"/>
@@ -10992,7 +10940,7 @@
       <c r="G1049" s="1"/>
       <c r="H1049" s="1"/>
     </row>
-    <row r="1050" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:8">
       <c r="A1050" s="1"/>
       <c r="B1050" s="2"/>
       <c r="C1050" s="1"/>
@@ -11002,7 +10950,7 @@
       <c r="G1050" s="1"/>
       <c r="H1050" s="1"/>
     </row>
-    <row r="1051" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:8">
       <c r="A1051" s="1"/>
       <c r="B1051" s="2"/>
       <c r="C1051" s="1"/>
@@ -11012,7 +10960,7 @@
       <c r="G1051" s="1"/>
       <c r="H1051" s="1"/>
     </row>
-    <row r="1052" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:8">
       <c r="A1052" s="1"/>
       <c r="B1052" s="2"/>
       <c r="C1052" s="1"/>
@@ -11022,7 +10970,7 @@
       <c r="G1052" s="1"/>
       <c r="H1052" s="1"/>
     </row>
-    <row r="1053" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:8">
       <c r="A1053" s="1"/>
       <c r="B1053" s="2"/>
       <c r="C1053" s="1"/>
@@ -11032,7 +10980,7 @@
       <c r="G1053" s="1"/>
       <c r="H1053" s="1"/>
     </row>
-    <row r="1054" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:8">
       <c r="A1054" s="1"/>
       <c r="B1054" s="2"/>
       <c r="C1054" s="1"/>
@@ -11042,7 +10990,7 @@
       <c r="G1054" s="1"/>
       <c r="H1054" s="1"/>
     </row>
-    <row r="1055" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:8">
       <c r="A1055" s="1"/>
       <c r="B1055" s="2"/>
       <c r="C1055" s="1"/>
@@ -11052,7 +11000,7 @@
       <c r="G1055" s="1"/>
       <c r="H1055" s="1"/>
     </row>
-    <row r="1056" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:8">
       <c r="A1056" s="1"/>
       <c r="B1056" s="2"/>
       <c r="C1056" s="1"/>
@@ -11062,7 +11010,7 @@
       <c r="G1056" s="1"/>
       <c r="H1056" s="1"/>
     </row>
-    <row r="1057" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:8">
       <c r="A1057" s="1"/>
       <c r="B1057" s="2"/>
       <c r="C1057" s="1"/>
@@ -11072,7 +11020,7 @@
       <c r="G1057" s="1"/>
       <c r="H1057" s="1"/>
     </row>
-    <row r="1058" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:8">
       <c r="A1058" s="1"/>
       <c r="B1058" s="2"/>
       <c r="C1058" s="1"/>
@@ -11082,7 +11030,7 @@
       <c r="G1058" s="1"/>
       <c r="H1058" s="1"/>
     </row>
-    <row r="1059" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:8">
       <c r="A1059" s="1"/>
       <c r="B1059" s="2"/>
       <c r="C1059" s="1"/>
@@ -11092,7 +11040,7 @@
       <c r="G1059" s="1"/>
       <c r="H1059" s="1"/>
     </row>
-    <row r="1060" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:8">
       <c r="A1060" s="1"/>
       <c r="B1060" s="2"/>
       <c r="C1060" s="1"/>
@@ -11102,7 +11050,7 @@
       <c r="G1060" s="1"/>
       <c r="H1060" s="1"/>
     </row>
-    <row r="1061" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:8">
       <c r="A1061" s="1"/>
       <c r="B1061" s="2"/>
       <c r="C1061" s="1"/>
@@ -11112,7 +11060,7 @@
       <c r="G1061" s="1"/>
       <c r="H1061" s="1"/>
     </row>
-    <row r="1062" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:8">
       <c r="A1062" s="1"/>
       <c r="B1062" s="2"/>
       <c r="C1062" s="1"/>
@@ -11122,7 +11070,7 @@
       <c r="G1062" s="1"/>
       <c r="H1062" s="1"/>
     </row>
-    <row r="1063" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:8">
       <c r="A1063" s="1"/>
       <c r="B1063" s="2"/>
       <c r="C1063" s="1"/>
@@ -11132,7 +11080,7 @@
       <c r="G1063" s="1"/>
       <c r="H1063" s="1"/>
     </row>
-    <row r="1064" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:8">
       <c r="A1064" s="1"/>
       <c r="B1064" s="2"/>
       <c r="C1064" s="1"/>
@@ -11142,7 +11090,7 @@
       <c r="G1064" s="1"/>
       <c r="H1064" s="1"/>
     </row>
-    <row r="1065" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:8">
       <c r="A1065" s="1"/>
       <c r="B1065" s="2"/>
       <c r="C1065" s="1"/>
@@ -11152,7 +11100,7 @@
       <c r="G1065" s="1"/>
       <c r="H1065" s="1"/>
     </row>
-    <row r="1066" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:8">
       <c r="A1066" s="1"/>
       <c r="B1066" s="2"/>
       <c r="C1066" s="1"/>
@@ -11162,7 +11110,7 @@
       <c r="G1066" s="1"/>
       <c r="H1066" s="1"/>
     </row>
-    <row r="1067" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:8">
       <c r="A1067" s="1"/>
       <c r="B1067" s="2"/>
       <c r="C1067" s="1"/>
@@ -11172,7 +11120,7 @@
       <c r="G1067" s="1"/>
       <c r="H1067" s="1"/>
     </row>
-    <row r="1068" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:8">
       <c r="A1068" s="1"/>
       <c r="B1068" s="2"/>
       <c r="C1068" s="1"/>
@@ -11182,7 +11130,7 @@
       <c r="G1068" s="1"/>
       <c r="H1068" s="1"/>
     </row>
-    <row r="1069" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:8">
       <c r="A1069" s="1"/>
       <c r="B1069" s="2"/>
       <c r="C1069" s="1"/>
@@ -11192,7 +11140,7 @@
       <c r="G1069" s="1"/>
       <c r="H1069" s="1"/>
     </row>
-    <row r="1070" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:8">
       <c r="A1070" s="1"/>
       <c r="B1070" s="2"/>
       <c r="C1070" s="1"/>
@@ -11202,7 +11150,7 @@
       <c r="G1070" s="1"/>
       <c r="H1070" s="1"/>
     </row>
-    <row r="1071" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:8">
       <c r="A1071" s="1"/>
       <c r="B1071" s="2"/>
       <c r="C1071" s="1"/>
@@ -11212,7 +11160,7 @@
       <c r="G1071" s="1"/>
       <c r="H1071" s="1"/>
     </row>
-    <row r="1072" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:8">
       <c r="A1072" s="1"/>
       <c r="B1072" s="2"/>
       <c r="C1072" s="1"/>
@@ -11222,7 +11170,7 @@
       <c r="G1072" s="1"/>
       <c r="H1072" s="1"/>
     </row>
-    <row r="1073" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:8">
       <c r="A1073" s="1"/>
       <c r="B1073" s="2"/>
       <c r="C1073" s="1"/>
@@ -11232,7 +11180,7 @@
       <c r="G1073" s="1"/>
       <c r="H1073" s="1"/>
     </row>
-    <row r="1074" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:8">
       <c r="A1074" s="1"/>
       <c r="B1074" s="2"/>
       <c r="C1074" s="1"/>
@@ -11242,7 +11190,7 @@
       <c r="G1074" s="1"/>
       <c r="H1074" s="1"/>
     </row>
-    <row r="1075" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:8">
       <c r="A1075" s="1"/>
       <c r="B1075" s="2"/>
       <c r="C1075" s="1"/>
@@ -11252,7 +11200,7 @@
       <c r="G1075" s="1"/>
       <c r="H1075" s="1"/>
     </row>
-    <row r="1076" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:8">
       <c r="A1076" s="1"/>
       <c r="B1076" s="2"/>
       <c r="C1076" s="1"/>
@@ -11262,7 +11210,7 @@
       <c r="G1076" s="1"/>
       <c r="H1076" s="1"/>
     </row>
-    <row r="1077" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:8">
       <c r="A1077" s="1"/>
       <c r="B1077" s="2"/>
       <c r="C1077" s="1"/>
@@ -11272,7 +11220,7 @@
       <c r="G1077" s="1"/>
       <c r="H1077" s="1"/>
     </row>
-    <row r="1078" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:8">
       <c r="A1078" s="1"/>
       <c r="B1078" s="2"/>
       <c r="C1078" s="1"/>
@@ -11282,7 +11230,7 @@
       <c r="G1078" s="1"/>
       <c r="H1078" s="1"/>
     </row>
-    <row r="1079" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:8">
       <c r="A1079" s="1"/>
       <c r="B1079" s="2"/>
       <c r="C1079" s="1"/>
@@ -11292,7 +11240,7 @@
       <c r="G1079" s="1"/>
       <c r="H1079" s="1"/>
     </row>
-    <row r="1080" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:8">
       <c r="A1080" s="1"/>
       <c r="B1080" s="2"/>
       <c r="C1080" s="1"/>
@@ -11302,7 +11250,7 @@
       <c r="G1080" s="1"/>
       <c r="H1080" s="1"/>
     </row>
-    <row r="1081" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:8">
       <c r="A1081" s="1"/>
       <c r="B1081" s="2"/>
       <c r="C1081" s="1"/>
@@ -11312,7 +11260,7 @@
       <c r="G1081" s="1"/>
       <c r="H1081" s="1"/>
     </row>
-    <row r="1082" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:8">
       <c r="A1082" s="1"/>
       <c r="B1082" s="2"/>
       <c r="C1082" s="1"/>
@@ -11322,7 +11270,7 @@
       <c r="G1082" s="1"/>
       <c r="H1082" s="1"/>
     </row>
-    <row r="1083" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:8">
       <c r="A1083" s="1"/>
       <c r="B1083" s="2"/>
       <c r="C1083" s="1"/>
@@ -11332,7 +11280,7 @@
       <c r="G1083" s="1"/>
       <c r="H1083" s="1"/>
     </row>
-    <row r="1084" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:8">
       <c r="A1084" s="1"/>
       <c r="B1084" s="2"/>
       <c r="C1084" s="1"/>

--- a/Compras.xlsx
+++ b/Compras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\UiPath\Compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EE2F64-E382-469E-8E35-182EF8E36BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BF128A-FC92-4B05-848A-84725743B73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E81748A-158E-47CF-85C5-D5DE687CA7E7}"/>
   </bookViews>
@@ -39,21 +39,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>80734665</t>
-  </si>
-  <si>
-    <t>JOSE ALEXANDER VARGAS CARDENAS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>AV</t>
   </si>
   <si>
-    <t>6ad3aada980b4f7d1d60613dd44ef0d7fa28a0011179d4a693ba58db6b2f163108765123cf1723a7047dd45c6603024d</t>
+    <t>10/08/2024</t>
   </si>
   <si>
-    <t>10/08/2024</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>75aedca108ea46484d2b545e6666e812170270fdaa4666c1011078d60bb36b2b0a201b56ee4d8a19fd60c3a8211d07d1</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ab498656a472525c726782ef748f7e152bc9fa7507c790e1872735593084e78a40c617c7e095d96d5ac3928e675c3bf2</t>
+  </si>
+  <si>
+    <t>68d027248af7362968c4491e5ed95e9e825fab1dd81f8a3417bf38bbf3dde38a5a8c7eff61aa176ae1068eeff84e5b3c</t>
+  </si>
+  <si>
+    <t>7445cd977469d5d8372824e6aacb60ff403d5e83d28cb17f382262641e420545d0793f626864d2084baca7f057d9f9b0</t>
+  </si>
+  <si>
+    <t>572f5b952b2be3491bd82a9db9761bf1309813934b8ceef05d1c7b666595cf5a712f8e04e73e6d980b06976655780795</t>
   </si>
 </sst>
 </file>
@@ -435,7 +450,7 @@
   <dimension ref="A1:H1084"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,66 +461,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2">
-        <v>220</v>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="G1" s="1">
-        <v>239400</v>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
       </c>
-      <c r="H1" s="1">
-        <v>1499400</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>

--- a/Compras.xlsx
+++ b/Compras.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\UiPath\compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1C9C18-EB90-4313-8C1E-C8DB7C6AC24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2770C470-EB1E-4F1B-B71E-5619FCB68928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2E81748A-158E-47CF-85C5-D5DE687CA7E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$D$1:$D$1084</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$D$1:$D$1072</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,25 +41,136 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="41">
   <si>
     <t>AV</t>
   </si>
   <si>
-    <t>10/08/2024</t>
+    <t>11-08-2024</t>
   </si>
   <si>
-    <t>40106e771e24302a1df3eb7e5a91a2ade6464aad3a829f9ac78f48cc39c00e79f74211b3601db929bf1b767556a4e405</t>
+    <t>11/08/2024</t>
   </si>
   <si>
-    <t>517</t>
+    <t>4faf414b3b540a388299ca5bb42537f579f63bbba2ccae4d013e12af66f2e7e13382ca7a29b28d8c1e22f3b218e26a96</t>
+  </si>
+  <si>
+    <t>581</t>
+  </si>
+  <si>
+    <t>ff8659f93f41a5d51cd4fc6a38a9b4c4fae4a6410a91224c48cc4a23df7d647f106ee04dd92f692c64ce090eff76c644</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>6ac7ab8b84186c078bd466f4553beb78d4e1baae086fbbc849499a20eecff213f6505311241b5b8e3ea8cefe5ffdaf0e</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>1cf054b62582312847589f8f54a62f86c8089f7f851d226d328f6f098d1cf218726468bb1c8a701fce70fe363295d76d</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t>65fe2512103852efd5e2c6ad25d185fbfabc5fda98de9e8d42125c006448ad875ac4098466caaf5e77062a0a2453d7b0</t>
+  </si>
+  <si>
+    <t>577</t>
+  </si>
+  <si>
+    <t>6288340f2ec13f870dc1b656568cb2da9a77ad4c49c0a941521aaf27595baac5646799be18530898dd045faf543215d8</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>f1b3e2a46e3d0359879069135736385df5b7558bd061efbdcd14675eba37ac77bbcb390c932996266a7dad998e62e109</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>aa2c1b6a73fb22918de3b539f6f7bb9510fb0a972c5ca5f64a970d29b9ab774628b891af2fc96bef59f3edeecfa533d3</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>18f9db0c1485a82eb49f069b3c46640742110d15b42ec4bb6d867a799aafe72a47243259452ede1118f8c6f9b2d0dd35</t>
+  </si>
+  <si>
+    <t>592</t>
+  </si>
+  <si>
+    <t>2978ff988012927e73ac0d73fc0686be63da529866ced29675ea1dd941879d07e1a7e0c74c9a3f76ff2ecd6749d4c109</t>
+  </si>
+  <si>
+    <t>591</t>
+  </si>
+  <si>
+    <t>1146e43faa5e02f99c948832a93f2c13d32a6211eb63eedbf69133d046f5b673672c347fd6f0b60d276070f77c2c9001</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>7cd8e4555dcc31654cd431adfb643b9c26be13faa90b98f8df8a7a9ba29731851a3371347f5a7fd870f471b642f1e7de</t>
+  </si>
+  <si>
+    <t>589</t>
+  </si>
+  <si>
+    <t>4f3e296de844175eeb4d9ba296cb56eee26a67e0dac6253f70c289872fd36b564167bb404cfeea1cfd18c8385b74abb1</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>7e860809383aaf8353a7be819d8e6e186db4698af788a6c1dc19da9d99c5f4893affca4a8d57147561fa146c565aa63c</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>0b7e68869d3a13419cfe4a68200a6b6c3c4c7d2ce0de809320b0893ad8ae7abd26f16c5ff7fa8aac16aa1a963d2aec2a</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
+    <t>0a9aea6359d9a7577396f1e9e8837c02e85c147337e1928183c2a0265f6f7194f08397d11672c6a8a159940ac97e967a</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>89c386ed1697986394d80580cbbf5e99bdc2cd94e0e39853dd067e297af295eaf51c8282660236a086f5da4ba7a7d28f</t>
+  </si>
+  <si>
+    <t>584</t>
+  </si>
+  <si>
+    <t>81c3198936d1fea905dda7f563b29de3127358065a1e738dcb9f1aa2a1b907906c1d23c5a5bd5b4b73be3802f288244d</t>
+  </si>
+  <si>
+    <t>583</t>
+  </si>
+  <si>
+    <t>35d95ddded92ce52b65fedbded0f138bb73e2e8303030d948a3c91183130c3c45a24290f883ff64dfe8ddf4c1c0c39f3</t>
+  </si>
+  <si>
+    <t>582</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +181,12 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -429,31 +548,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66BDD09-7B3A-477C-A2F1-E0A72859F091}">
-  <dimension ref="A1:H1084"/>
+  <dimension ref="A1:H1072"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="104.125" customWidth="1"/>
     <col min="2" max="2" width="9.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="59.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -461,180 +580,324 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -11170,130 +11433,313 @@
       <c r="G1072" s="1"/>
       <c r="H1072" s="1"/>
     </row>
-    <row r="1073" spans="1:8">
-      <c r="A1073" s="1"/>
-      <c r="B1073" s="2"/>
-      <c r="C1073" s="1"/>
-      <c r="D1073" s="2"/>
-      <c r="E1073" s="1"/>
-      <c r="F1073" s="1"/>
-      <c r="G1073" s="1"/>
-      <c r="H1073" s="1"/>
-    </row>
-    <row r="1074" spans="1:8">
-      <c r="A1074" s="1"/>
-      <c r="B1074" s="2"/>
-      <c r="C1074" s="1"/>
-      <c r="D1074" s="2"/>
-      <c r="E1074" s="1"/>
-      <c r="F1074" s="1"/>
-      <c r="G1074" s="1"/>
-      <c r="H1074" s="1"/>
-    </row>
-    <row r="1075" spans="1:8">
-      <c r="A1075" s="1"/>
-      <c r="B1075" s="2"/>
-      <c r="C1075" s="1"/>
-      <c r="D1075" s="2"/>
-      <c r="E1075" s="1"/>
-      <c r="F1075" s="1"/>
-      <c r="G1075" s="1"/>
-      <c r="H1075" s="1"/>
-    </row>
-    <row r="1076" spans="1:8">
-      <c r="A1076" s="1"/>
-      <c r="B1076" s="2"/>
-      <c r="C1076" s="1"/>
-      <c r="D1076" s="2"/>
-      <c r="E1076" s="1"/>
-      <c r="F1076" s="1"/>
-      <c r="G1076" s="1"/>
-      <c r="H1076" s="1"/>
-    </row>
-    <row r="1077" spans="1:8">
-      <c r="A1077" s="1"/>
-      <c r="B1077" s="2"/>
-      <c r="C1077" s="1"/>
-      <c r="D1077" s="2"/>
-      <c r="E1077" s="1"/>
-      <c r="F1077" s="1"/>
-      <c r="G1077" s="1"/>
-      <c r="H1077" s="1"/>
-    </row>
-    <row r="1078" spans="1:8">
-      <c r="A1078" s="1"/>
-      <c r="B1078" s="2"/>
-      <c r="C1078" s="1"/>
-      <c r="D1078" s="2"/>
-      <c r="E1078" s="1"/>
-      <c r="F1078" s="1"/>
-      <c r="G1078" s="1"/>
-      <c r="H1078" s="1"/>
-    </row>
-    <row r="1079" spans="1:8">
-      <c r="A1079" s="1"/>
-      <c r="B1079" s="2"/>
-      <c r="C1079" s="1"/>
-      <c r="D1079" s="2"/>
-      <c r="E1079" s="1"/>
-      <c r="F1079" s="1"/>
-      <c r="G1079" s="1"/>
-      <c r="H1079" s="1"/>
-    </row>
-    <row r="1080" spans="1:8">
-      <c r="A1080" s="1"/>
-      <c r="B1080" s="2"/>
-      <c r="C1080" s="1"/>
-      <c r="D1080" s="2"/>
-      <c r="E1080" s="1"/>
-      <c r="F1080" s="1"/>
-      <c r="G1080" s="1"/>
-      <c r="H1080" s="1"/>
-    </row>
-    <row r="1081" spans="1:8">
-      <c r="A1081" s="1"/>
-      <c r="B1081" s="2"/>
-      <c r="C1081" s="1"/>
-      <c r="D1081" s="2"/>
-      <c r="E1081" s="1"/>
-      <c r="F1081" s="1"/>
-      <c r="G1081" s="1"/>
-      <c r="H1081" s="1"/>
-    </row>
-    <row r="1082" spans="1:8">
-      <c r="A1082" s="1"/>
-      <c r="B1082" s="2"/>
-      <c r="C1082" s="1"/>
-      <c r="D1082" s="2"/>
-      <c r="E1082" s="1"/>
-      <c r="F1082" s="1"/>
-      <c r="G1082" s="1"/>
-      <c r="H1082" s="1"/>
-    </row>
-    <row r="1083" spans="1:8">
-      <c r="A1083" s="1"/>
-      <c r="B1083" s="2"/>
-      <c r="C1083" s="1"/>
-      <c r="D1083" s="2"/>
-      <c r="E1083" s="1"/>
-      <c r="F1083" s="1"/>
-      <c r="G1083" s="1"/>
-      <c r="H1083" s="1"/>
-    </row>
-    <row r="1084" spans="1:8">
-      <c r="A1084" s="1"/>
-      <c r="B1084" s="2"/>
-      <c r="C1084" s="1"/>
-      <c r="D1084" s="2"/>
-      <c r="E1084" s="1"/>
-      <c r="F1084" s="1"/>
-      <c r="G1084" s="1"/>
-      <c r="H1084" s="1"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H1093">
-    <sortCondition ref="B1:B1093"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H1081">
+    <sortCondition ref="B1:B1081"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE05E93-E858-4F63-8E0A-8B6C14293C26}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="83.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{6DE05E93-E858-4F63-8E0A-8B6C14293C26}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C20">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Compras.xlsx
+++ b/Compras.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\UiPath\Compras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c63faa4e59edd0c6/Documents/UiPath/compras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0118D0-D5E4-4FC7-B298-94CAE94DD01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{3D0118D0-D5E4-4FC7-B298-94CAE94DD01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BC4600D-2DEE-46EB-8E3E-6BBC5092F744}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E81748A-158E-47CF-85C5-D5DE687CA7E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E81748A-158E-47CF-85C5-D5DE687CA7E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -163,10 +163,10 @@
     <t>582</t>
   </si>
   <si>
-    <t>55c00da541d84dfd025a4e8c269b145d27d3056132ac76950eea58c0df41b9a1940db9bf1e27b46fb7a6fee45d82f8be</t>
+    <t>BEC</t>
   </si>
   <si>
-    <t>BEC</t>
+    <t>d12d0acfd053c6827127c89e866c9e44e0da4ec9f86cbc728bc544c7bd0d5b3f86d0a10078e5540a3f7903a35810f344</t>
   </si>
 </sst>
 </file>
@@ -234,6 +234,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -556,25 +560,25 @@
   <dimension ref="A1:H1072"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="104.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="104.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1">
         <v>399565214</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4">
         <v>45534</v>
@@ -584,7 +588,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -594,7 +598,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -604,7 +608,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -614,7 +618,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -624,7 +628,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -634,7 +638,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -644,7 +648,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -654,7 +658,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -664,7 +668,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -674,7 +678,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -684,7 +688,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -694,7 +698,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -704,7 +708,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -714,7 +718,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -724,7 +728,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -734,7 +738,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -744,7 +748,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -754,7 +758,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -764,7 +768,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
@@ -774,7 +778,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
@@ -784,7 +788,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
@@ -794,7 +798,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
@@ -804,7 +808,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
@@ -814,7 +818,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
@@ -824,7 +828,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
@@ -834,7 +838,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
@@ -844,7 +848,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
@@ -854,7 +858,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
@@ -864,7 +868,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
@@ -874,7 +878,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -884,7 +888,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -894,7 +898,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
@@ -904,7 +908,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
@@ -914,7 +918,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -924,7 +928,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -934,7 +938,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -944,7 +948,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -954,7 +958,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -964,7 +968,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -974,7 +978,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -984,7 +988,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -994,7 +998,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -1004,7 +1008,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -1014,7 +1018,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -1024,7 +1028,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -1034,7 +1038,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -1044,7 +1048,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -1054,7 +1058,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -1064,7 +1068,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -1074,7 +1078,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -1084,7 +1088,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1094,7 +1098,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1104,7 +1108,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1114,7 +1118,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1124,7 +1128,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1134,7 +1138,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -1144,7 +1148,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -1154,7 +1158,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -1164,7 +1168,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -1174,7 +1178,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -1184,7 +1188,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -1194,7 +1198,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -1204,7 +1208,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -1214,7 +1218,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -1224,7 +1228,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -1234,7 +1238,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -1244,7 +1248,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -1254,7 +1258,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -1264,7 +1268,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -1274,7 +1278,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -1284,7 +1288,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -1294,7 +1298,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -1304,7 +1308,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -1314,7 +1318,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -1324,7 +1328,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -1334,7 +1338,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -1344,7 +1348,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -1354,7 +1358,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -1364,7 +1368,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -1374,7 +1378,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -1384,7 +1388,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -1394,7 +1398,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -1404,7 +1408,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -1414,7 +1418,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -1424,7 +1428,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -1434,7 +1438,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -1444,7 +1448,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -1454,7 +1458,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -1464,7 +1468,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -1474,7 +1478,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -1484,7 +1488,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -1494,7 +1498,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -1504,7 +1508,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -1514,7 +1518,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -1524,7 +1528,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -1534,7 +1538,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -1544,7 +1548,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -1554,7 +1558,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -1564,7 +1568,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -1574,7 +1578,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -1584,7 +1588,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -1594,7 +1598,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -1604,7 +1608,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -1614,7 +1618,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -1624,7 +1628,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -1634,7 +1638,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -1644,7 +1648,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -1654,7 +1658,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -1664,7 +1668,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -1674,7 +1678,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -1684,7 +1688,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -1694,7 +1698,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -1704,7 +1708,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -1714,7 +1718,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -1724,7 +1728,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -1734,7 +1738,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -1744,7 +1748,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -1754,7 +1758,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -1764,7 +1768,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -1774,7 +1778,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -1784,7 +1788,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -1794,7 +1798,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -1804,7 +1808,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -1814,7 +1818,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -1824,7 +1828,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -1834,7 +1838,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -1844,7 +1848,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -1854,7 +1858,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -1864,7 +1868,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -1874,7 +1878,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -1884,7 +1888,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -1894,7 +1898,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -1904,7 +1908,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -1914,7 +1918,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -1924,7 +1928,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -1934,7 +1938,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -1944,7 +1948,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -1954,7 +1958,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -1964,7 +1968,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -1974,7 +1978,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -1984,7 +1988,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -1994,7 +1998,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -2004,7 +2008,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -2014,7 +2018,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -2024,7 +2028,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -2034,7 +2038,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -2044,7 +2048,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -2054,7 +2058,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -2064,7 +2068,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -2074,7 +2078,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -2084,7 +2088,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -2094,7 +2098,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -2104,7 +2108,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -2114,7 +2118,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -2124,7 +2128,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -2134,7 +2138,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -2144,7 +2148,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -2154,7 +2158,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -2164,7 +2168,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -2174,7 +2178,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -2184,7 +2188,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -2194,7 +2198,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -2204,7 +2208,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -2214,7 +2218,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -2224,7 +2228,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -2234,7 +2238,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -2244,7 +2248,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -2254,7 +2258,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -2264,7 +2268,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -2274,7 +2278,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -2284,7 +2288,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -2294,7 +2298,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -2304,7 +2308,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -2314,7 +2318,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -2324,7 +2328,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -2334,7 +2338,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -2344,7 +2348,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -2354,7 +2358,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -2364,7 +2368,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -2374,7 +2378,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -2384,7 +2388,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -2394,7 +2398,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -2404,7 +2408,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -2414,7 +2418,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -2424,7 +2428,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -2434,7 +2438,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -2444,7 +2448,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -2454,7 +2458,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -2464,7 +2468,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -2474,7 +2478,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -2484,7 +2488,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -2494,7 +2498,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -2504,7 +2508,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -2514,7 +2518,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -2524,7 +2528,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -2534,7 +2538,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -2544,7 +2548,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -2554,7 +2558,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -2564,7 +2568,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -2574,7 +2578,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="1"/>
@@ -2584,7 +2588,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="1"/>
@@ -2594,7 +2598,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="1"/>
@@ -2604,7 +2608,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="1"/>
@@ -2614,7 +2618,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
       <c r="C205" s="1"/>
@@ -2624,7 +2628,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="1"/>
@@ -2634,7 +2638,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="1"/>
@@ -2644,7 +2648,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="1"/>
@@ -2654,7 +2658,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="1"/>
@@ -2664,7 +2668,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="1"/>
@@ -2674,7 +2678,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="1"/>
@@ -2684,7 +2688,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="1"/>
@@ -2694,7 +2698,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="1"/>
@@ -2704,7 +2708,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="1"/>
@@ -2714,7 +2718,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="1"/>
@@ -2724,7 +2728,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="1"/>
@@ -2734,7 +2738,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="1"/>
@@ -2744,7 +2748,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="1"/>
@@ -2754,7 +2758,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="1"/>
@@ -2764,7 +2768,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="1"/>
@@ -2774,7 +2778,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="1"/>
@@ -2784,7 +2788,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="1"/>
@@ -2794,7 +2798,7 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="1"/>
@@ -2804,7 +2808,7 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="1"/>
@@ -2814,7 +2818,7 @@
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="1"/>
@@ -2824,7 +2828,7 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="1"/>
@@ -2834,7 +2838,7 @@
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="1"/>
@@ -2844,7 +2848,7 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="1"/>
@@ -2854,7 +2858,7 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="1"/>
@@ -2864,7 +2868,7 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="1"/>
@@ -2874,7 +2878,7 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="1"/>
@@ -2884,7 +2888,7 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="2"/>
       <c r="C232" s="1"/>
@@ -2894,7 +2898,7 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="2"/>
       <c r="C233" s="1"/>
@@ -2904,7 +2908,7 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
       <c r="C234" s="1"/>
@@ -2914,7 +2918,7 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="1"/>
@@ -2924,7 +2928,7 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="1"/>
@@ -2934,7 +2938,7 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="1"/>
@@ -2944,7 +2948,7 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="1"/>
@@ -2954,7 +2958,7 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="1"/>
@@ -2964,7 +2968,7 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
       <c r="C240" s="1"/>
@@ -2974,7 +2978,7 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
       <c r="C241" s="1"/>
@@ -2984,7 +2988,7 @@
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
       <c r="C242" s="1"/>
@@ -2994,7 +2998,7 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
       <c r="C243" s="1"/>
@@ -3004,7 +3008,7 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
       <c r="C244" s="1"/>
@@ -3014,7 +3018,7 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
       <c r="C245" s="1"/>
@@ -3024,7 +3028,7 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="1"/>
@@ -3034,7 +3038,7 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
       <c r="C247" s="1"/>
@@ -3044,7 +3048,7 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
       <c r="C248" s="1"/>
@@ -3054,7 +3058,7 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
       <c r="C249" s="1"/>
@@ -3064,7 +3068,7 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
       <c r="C250" s="1"/>
@@ -3074,7 +3078,7 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
       <c r="C251" s="1"/>
@@ -3084,7 +3088,7 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
       <c r="C252" s="1"/>
@@ -3094,7 +3098,7 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
       <c r="C253" s="1"/>
@@ -3104,7 +3108,7 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
       <c r="C254" s="1"/>
@@ -3114,7 +3118,7 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
       <c r="C255" s="1"/>
@@ -3124,7 +3128,7 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
       <c r="C256" s="1"/>
@@ -3134,7 +3138,7 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
       <c r="C257" s="1"/>
@@ -3144,7 +3148,7 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
       <c r="C258" s="1"/>
@@ -3154,7 +3158,7 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
       <c r="C259" s="1"/>
@@ -3164,7 +3168,7 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
       <c r="C260" s="1"/>
@@ -3174,7 +3178,7 @@
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="2"/>
       <c r="C261" s="1"/>
@@ -3184,7 +3188,7 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="2"/>
       <c r="C262" s="1"/>
@@ -3194,7 +3198,7 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="2"/>
       <c r="C263" s="1"/>
@@ -3204,7 +3208,7 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
       <c r="C264" s="1"/>
@@ -3214,7 +3218,7 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
       <c r="C265" s="1"/>
@@ -3224,7 +3228,7 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
       <c r="C266" s="1"/>
@@ -3234,7 +3238,7 @@
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
       <c r="C267" s="1"/>
@@ -3244,7 +3248,7 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
       <c r="C268" s="1"/>
@@ -3254,7 +3258,7 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
       <c r="C269" s="1"/>
@@ -3264,7 +3268,7 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
       <c r="C270" s="1"/>
@@ -3274,7 +3278,7 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
       <c r="C271" s="1"/>
@@ -3284,7 +3288,7 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="2"/>
       <c r="C272" s="1"/>
@@ -3294,7 +3298,7 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
       <c r="C273" s="1"/>
@@ -3304,7 +3308,7 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
       <c r="C274" s="1"/>
@@ -3314,7 +3318,7 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
       <c r="C275" s="1"/>
@@ -3324,7 +3328,7 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
       <c r="C276" s="1"/>
@@ -3334,7 +3338,7 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="2"/>
       <c r="C277" s="1"/>
@@ -3344,7 +3348,7 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="2"/>
       <c r="C278" s="1"/>
@@ -3354,7 +3358,7 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="2"/>
       <c r="C279" s="1"/>
@@ -3364,7 +3368,7 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="2"/>
       <c r="C280" s="1"/>
@@ -3374,7 +3378,7 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="2"/>
       <c r="C281" s="1"/>
@@ -3384,7 +3388,7 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="2"/>
       <c r="C282" s="1"/>
@@ -3394,7 +3398,7 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="2"/>
       <c r="C283" s="1"/>
@@ -3404,7 +3408,7 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
       <c r="C284" s="1"/>
@@ -3414,7 +3418,7 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="2"/>
       <c r="C285" s="1"/>
@@ -3424,7 +3428,7 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="2"/>
       <c r="C286" s="1"/>
@@ -3434,7 +3438,7 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
       <c r="C287" s="1"/>
@@ -3444,7 +3448,7 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="2"/>
       <c r="C288" s="1"/>
@@ -3454,7 +3458,7 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="2"/>
       <c r="C289" s="1"/>
@@ -3464,7 +3468,7 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="2"/>
       <c r="C290" s="1"/>
@@ -3474,7 +3478,7 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="2"/>
       <c r="C291" s="1"/>
@@ -3484,7 +3488,7 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="2"/>
       <c r="C292" s="1"/>
@@ -3494,7 +3498,7 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="2"/>
       <c r="C293" s="1"/>
@@ -3504,7 +3508,7 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="2"/>
       <c r="C294" s="1"/>
@@ -3514,7 +3518,7 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="2"/>
       <c r="C295" s="1"/>
@@ -3524,7 +3528,7 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="2"/>
       <c r="C296" s="1"/>
@@ -3534,7 +3538,7 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="2"/>
       <c r="C297" s="1"/>
@@ -3544,7 +3548,7 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="2"/>
       <c r="C298" s="1"/>
@@ -3554,7 +3558,7 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="2"/>
       <c r="C299" s="1"/>
@@ -3564,7 +3568,7 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="2"/>
       <c r="C300" s="1"/>
@@ -3574,7 +3578,7 @@
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="2"/>
       <c r="C301" s="1"/>
@@ -3584,7 +3588,7 @@
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="2"/>
       <c r="C302" s="1"/>
@@ -3594,7 +3598,7 @@
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
       <c r="C303" s="1"/>
@@ -3604,7 +3608,7 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="2"/>
       <c r="C304" s="1"/>
@@ -3614,7 +3618,7 @@
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="2"/>
       <c r="C305" s="1"/>
@@ -3624,7 +3628,7 @@
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="2"/>
       <c r="C306" s="1"/>
@@ -3634,7 +3638,7 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="2"/>
       <c r="C307" s="1"/>
@@ -3644,7 +3648,7 @@
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="2"/>
       <c r="C308" s="1"/>
@@ -3654,7 +3658,7 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="2"/>
       <c r="C309" s="1"/>
@@ -3664,7 +3668,7 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="2"/>
       <c r="C310" s="1"/>
@@ -3674,7 +3678,7 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="2"/>
       <c r="C311" s="1"/>
@@ -3684,7 +3688,7 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="2"/>
       <c r="C312" s="1"/>
@@ -3694,7 +3698,7 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="2"/>
       <c r="C313" s="1"/>
@@ -3704,7 +3708,7 @@
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="2"/>
       <c r="C314" s="1"/>
@@ -3714,7 +3718,7 @@
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="2"/>
       <c r="C315" s="1"/>
@@ -3724,7 +3728,7 @@
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="2"/>
       <c r="C316" s="1"/>
@@ -3734,7 +3738,7 @@
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="2"/>
       <c r="C317" s="1"/>
@@ -3744,7 +3748,7 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="2"/>
       <c r="C318" s="1"/>
@@ -3754,7 +3758,7 @@
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
       <c r="C319" s="1"/>
@@ -3764,7 +3768,7 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="2"/>
       <c r="C320" s="1"/>
@@ -3774,7 +3778,7 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="2"/>
       <c r="C321" s="1"/>
@@ -3784,7 +3788,7 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="B322" s="2"/>
       <c r="C322" s="1"/>
@@ -3794,7 +3798,7 @@
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
       <c r="B323" s="2"/>
       <c r="C323" s="1"/>
@@ -3804,7 +3808,7 @@
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="2"/>
       <c r="C324" s="1"/>
@@ -3814,7 +3818,7 @@
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="2"/>
       <c r="C325" s="1"/>
@@ -3824,7 +3828,7 @@
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="2"/>
       <c r="C326" s="1"/>
@@ -3834,7 +3838,7 @@
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="2"/>
       <c r="C327" s="1"/>
@@ -3844,7 +3848,7 @@
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="2"/>
       <c r="C328" s="1"/>
@@ -3854,7 +3858,7 @@
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
       <c r="B329" s="2"/>
       <c r="C329" s="1"/>
@@ -3864,7 +3868,7 @@
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="2"/>
       <c r="C330" s="1"/>
@@ -3874,7 +3878,7 @@
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
       <c r="B331" s="2"/>
       <c r="C331" s="1"/>
@@ -3884,7 +3888,7 @@
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
       <c r="B332" s="2"/>
       <c r="C332" s="1"/>
@@ -3894,7 +3898,7 @@
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
       <c r="C333" s="1"/>
@@ -3904,7 +3908,7 @@
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
       <c r="B334" s="2"/>
       <c r="C334" s="1"/>
@@ -3914,7 +3918,7 @@
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="2"/>
       <c r="C335" s="1"/>
@@ -3924,7 +3928,7 @@
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
       <c r="B336" s="2"/>
       <c r="C336" s="1"/>
@@ -3934,7 +3938,7 @@
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
       <c r="B337" s="2"/>
       <c r="C337" s="1"/>
@@ -3944,7 +3948,7 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="B338" s="2"/>
       <c r="C338" s="1"/>
@@ -3954,7 +3958,7 @@
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="B339" s="2"/>
       <c r="C339" s="1"/>
@@ -3964,7 +3968,7 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="B340" s="2"/>
       <c r="C340" s="1"/>
@@ -3974,7 +3978,7 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="2"/>
       <c r="C341" s="1"/>
@@ -3984,7 +3988,7 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
       <c r="C342" s="1"/>
@@ -3994,7 +3998,7 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="2"/>
       <c r="C343" s="1"/>
@@ -4004,7 +4008,7 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="2"/>
       <c r="C344" s="1"/>
@@ -4014,7 +4018,7 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="2"/>
       <c r="C345" s="1"/>
@@ -4024,7 +4028,7 @@
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="2"/>
       <c r="C346" s="1"/>
@@ -4034,7 +4038,7 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="2"/>
       <c r="C347" s="1"/>
@@ -4044,7 +4048,7 @@
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="2"/>
       <c r="C348" s="1"/>
@@ -4054,7 +4058,7 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
       <c r="C349" s="1"/>
@@ -4064,7 +4068,7 @@
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="2"/>
       <c r="C350" s="1"/>
@@ -4074,7 +4078,7 @@
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="2"/>
       <c r="C351" s="1"/>
@@ -4084,7 +4088,7 @@
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="2"/>
       <c r="C352" s="1"/>
@@ -4094,7 +4098,7 @@
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="2"/>
       <c r="C353" s="1"/>
@@ -4104,7 +4108,7 @@
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
       <c r="C354" s="1"/>
@@ -4114,7 +4118,7 @@
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
       <c r="B355" s="2"/>
       <c r="C355" s="1"/>
@@ -4124,7 +4128,7 @@
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
       <c r="B356" s="2"/>
       <c r="C356" s="1"/>
@@ -4134,7 +4138,7 @@
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="2"/>
       <c r="C357" s="1"/>
@@ -4144,7 +4148,7 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
       <c r="C358" s="1"/>
@@ -4154,7 +4158,7 @@
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
       <c r="B359" s="2"/>
       <c r="C359" s="1"/>
@@ -4164,7 +4168,7 @@
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
       <c r="B360" s="2"/>
       <c r="C360" s="1"/>
@@ -4174,7 +4178,7 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="2"/>
       <c r="C361" s="1"/>
@@ -4184,7 +4188,7 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="2"/>
       <c r="C362" s="1"/>
@@ -4194,7 +4198,7 @@
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="B363" s="2"/>
       <c r="C363" s="1"/>
@@ -4204,7 +4208,7 @@
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="B364" s="2"/>
       <c r="C364" s="1"/>
@@ -4214,7 +4218,7 @@
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
       <c r="C365" s="1"/>
@@ -4224,7 +4228,7 @@
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="2"/>
       <c r="C366" s="1"/>
@@ -4234,7 +4238,7 @@
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="B367" s="2"/>
       <c r="C367" s="1"/>
@@ -4244,7 +4248,7 @@
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
       <c r="C368" s="1"/>
@@ -4254,7 +4258,7 @@
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
       <c r="B369" s="2"/>
       <c r="C369" s="1"/>
@@ -4264,7 +4268,7 @@
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
       <c r="B370" s="2"/>
       <c r="C370" s="1"/>
@@ -4274,7 +4278,7 @@
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
       <c r="B371" s="2"/>
       <c r="C371" s="1"/>
@@ -4284,7 +4288,7 @@
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
       <c r="B372" s="2"/>
       <c r="C372" s="1"/>
@@ -4294,7 +4298,7 @@
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
       <c r="B373" s="2"/>
       <c r="C373" s="1"/>
@@ -4304,7 +4308,7 @@
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" s="1"/>
       <c r="B374" s="2"/>
       <c r="C374" s="1"/>
@@ -4314,7 +4318,7 @@
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
       <c r="B375" s="2"/>
       <c r="C375" s="1"/>
@@ -4324,7 +4328,7 @@
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" s="1"/>
       <c r="B376" s="2"/>
       <c r="C376" s="1"/>
@@ -4334,7 +4338,7 @@
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" s="1"/>
       <c r="B377" s="2"/>
       <c r="C377" s="1"/>
@@ -4344,7 +4348,7 @@
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
       <c r="B378" s="2"/>
       <c r="C378" s="1"/>
@@ -4354,7 +4358,7 @@
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
       <c r="C379" s="1"/>
@@ -4364,7 +4368,7 @@
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
       <c r="B380" s="2"/>
       <c r="C380" s="1"/>
@@ -4374,7 +4378,7 @@
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" s="1"/>
       <c r="B381" s="2"/>
       <c r="C381" s="1"/>
@@ -4384,7 +4388,7 @@
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" s="1"/>
       <c r="B382" s="2"/>
       <c r="C382" s="1"/>
@@ -4394,7 +4398,7 @@
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
       <c r="B383" s="2"/>
       <c r="C383" s="1"/>
@@ -4404,7 +4408,7 @@
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
       <c r="B384" s="2"/>
       <c r="C384" s="1"/>
@@ -4414,7 +4418,7 @@
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
       <c r="B385" s="2"/>
       <c r="C385" s="1"/>
@@ -4424,7 +4428,7 @@
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
       <c r="B386" s="2"/>
       <c r="C386" s="1"/>
@@ -4434,7 +4438,7 @@
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" s="1"/>
       <c r="B387" s="2"/>
       <c r="C387" s="1"/>
@@ -4444,7 +4448,7 @@
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
       <c r="B388" s="2"/>
       <c r="C388" s="1"/>
@@ -4454,7 +4458,7 @@
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
       <c r="B389" s="2"/>
       <c r="C389" s="1"/>
@@ -4464,7 +4468,7 @@
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" s="1"/>
       <c r="B390" s="2"/>
       <c r="C390" s="1"/>
@@ -4474,7 +4478,7 @@
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
       <c r="B391" s="2"/>
       <c r="C391" s="1"/>
@@ -4484,7 +4488,7 @@
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" s="1"/>
       <c r="B392" s="2"/>
       <c r="C392" s="1"/>
@@ -4494,7 +4498,7 @@
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
       <c r="B393" s="2"/>
       <c r="C393" s="1"/>
@@ -4504,7 +4508,7 @@
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
       <c r="B394" s="2"/>
       <c r="C394" s="1"/>
@@ -4514,7 +4518,7 @@
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
       <c r="C395" s="1"/>
@@ -4524,7 +4528,7 @@
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" s="1"/>
       <c r="B396" s="2"/>
       <c r="C396" s="1"/>
@@ -4534,7 +4538,7 @@
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" s="1"/>
       <c r="B397" s="2"/>
       <c r="C397" s="1"/>
@@ -4544,7 +4548,7 @@
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
       <c r="B398" s="2"/>
       <c r="C398" s="1"/>
@@ -4554,7 +4558,7 @@
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
       <c r="B399" s="2"/>
       <c r="C399" s="1"/>
@@ -4564,7 +4568,7 @@
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
       <c r="B400" s="2"/>
       <c r="C400" s="1"/>
@@ -4574,7 +4578,7 @@
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
       <c r="B401" s="2"/>
       <c r="C401" s="1"/>
@@ -4584,7 +4588,7 @@
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
       <c r="B402" s="2"/>
       <c r="C402" s="1"/>
@@ -4594,7 +4598,7 @@
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" s="1"/>
       <c r="B403" s="2"/>
       <c r="C403" s="1"/>
@@ -4604,7 +4608,7 @@
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
       <c r="B404" s="2"/>
       <c r="C404" s="1"/>
@@ -4614,7 +4618,7 @@
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" s="1"/>
       <c r="B405" s="2"/>
       <c r="C405" s="1"/>
@@ -4624,7 +4628,7 @@
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
       <c r="B406" s="2"/>
       <c r="C406" s="1"/>
@@ -4634,7 +4638,7 @@
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
       <c r="B407" s="2"/>
       <c r="C407" s="1"/>
@@ -4644,7 +4648,7 @@
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" s="1"/>
       <c r="B408" s="2"/>
       <c r="C408" s="1"/>
@@ -4654,7 +4658,7 @@
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" s="1"/>
       <c r="B409" s="2"/>
       <c r="C409" s="1"/>
@@ -4664,7 +4668,7 @@
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" s="1"/>
       <c r="B410" s="2"/>
       <c r="C410" s="1"/>
@@ -4674,7 +4678,7 @@
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
       <c r="C411" s="1"/>
@@ -4684,7 +4688,7 @@
       <c r="G411" s="1"/>
       <c r="H411" s="1"/>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
       <c r="B412" s="2"/>
       <c r="C412" s="1"/>
@@ -4694,7 +4698,7 @@
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
       <c r="B413" s="2"/>
       <c r="C413" s="1"/>
@@ -4704,7 +4708,7 @@
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
       <c r="B414" s="2"/>
       <c r="C414" s="1"/>
@@ -4714,7 +4718,7 @@
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
       <c r="B415" s="2"/>
       <c r="C415" s="1"/>
@@ -4724,7 +4728,7 @@
       <c r="G415" s="1"/>
       <c r="H415" s="1"/>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
       <c r="B416" s="2"/>
       <c r="C416" s="1"/>
@@ -4734,7 +4738,7 @@
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
       <c r="B417" s="2"/>
       <c r="C417" s="1"/>
@@ -4744,7 +4748,7 @@
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
       <c r="B418" s="2"/>
       <c r="C418" s="1"/>
@@ -4754,7 +4758,7 @@
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
       <c r="B419" s="2"/>
       <c r="C419" s="1"/>
@@ -4764,7 +4768,7 @@
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
       <c r="B420" s="2"/>
       <c r="C420" s="1"/>
@@ -4774,7 +4778,7 @@
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
       <c r="B421" s="2"/>
       <c r="C421" s="1"/>
@@ -4784,7 +4788,7 @@
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" s="1"/>
       <c r="B422" s="2"/>
       <c r="C422" s="1"/>
@@ -4794,7 +4798,7 @@
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
       <c r="B423" s="2"/>
       <c r="C423" s="1"/>
@@ -4804,7 +4808,7 @@
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" s="1"/>
       <c r="B424" s="2"/>
       <c r="C424" s="1"/>
@@ -4814,7 +4818,7 @@
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
       <c r="C425" s="1"/>
@@ -4824,7 +4828,7 @@
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" s="1"/>
       <c r="B426" s="2"/>
       <c r="C426" s="1"/>
@@ -4834,7 +4838,7 @@
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
       <c r="B427" s="2"/>
       <c r="C427" s="1"/>
@@ -4844,7 +4848,7 @@
       <c r="G427" s="1"/>
       <c r="H427" s="1"/>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
       <c r="B428" s="2"/>
       <c r="C428" s="1"/>
@@ -4854,7 +4858,7 @@
       <c r="G428" s="1"/>
       <c r="H428" s="1"/>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
       <c r="B429" s="2"/>
       <c r="C429" s="1"/>
@@ -4864,7 +4868,7 @@
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
       <c r="B430" s="2"/>
       <c r="C430" s="1"/>
@@ -4874,7 +4878,7 @@
       <c r="G430" s="1"/>
       <c r="H430" s="1"/>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
       <c r="B431" s="2"/>
       <c r="C431" s="1"/>
@@ -4884,7 +4888,7 @@
       <c r="G431" s="1"/>
       <c r="H431" s="1"/>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
       <c r="B432" s="2"/>
       <c r="C432" s="1"/>
@@ -4894,7 +4898,7 @@
       <c r="G432" s="1"/>
       <c r="H432" s="1"/>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" s="1"/>
       <c r="B433" s="2"/>
       <c r="C433" s="1"/>
@@ -4904,7 +4908,7 @@
       <c r="G433" s="1"/>
       <c r="H433" s="1"/>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
       <c r="B434" s="2"/>
       <c r="C434" s="1"/>
@@ -4914,7 +4918,7 @@
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" s="1"/>
       <c r="B435" s="2"/>
       <c r="C435" s="1"/>
@@ -4924,7 +4928,7 @@
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" s="1"/>
       <c r="B436" s="2"/>
       <c r="C436" s="1"/>
@@ -4934,7 +4938,7 @@
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
       <c r="B437" s="2"/>
       <c r="C437" s="1"/>
@@ -4944,7 +4948,7 @@
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
       <c r="B438" s="2"/>
       <c r="C438" s="1"/>
@@ -4954,7 +4958,7 @@
       <c r="G438" s="1"/>
       <c r="H438" s="1"/>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" s="1"/>
       <c r="B439" s="2"/>
       <c r="C439" s="1"/>
@@ -4964,7 +4968,7 @@
       <c r="G439" s="1"/>
       <c r="H439" s="1"/>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" s="1"/>
       <c r="B440" s="2"/>
       <c r="C440" s="1"/>
@@ -4974,7 +4978,7 @@
       <c r="G440" s="1"/>
       <c r="H440" s="1"/>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
       <c r="B441" s="2"/>
       <c r="C441" s="1"/>
@@ -4984,7 +4988,7 @@
       <c r="G441" s="1"/>
       <c r="H441" s="1"/>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" s="1"/>
       <c r="B442" s="2"/>
       <c r="C442" s="1"/>
@@ -4994,7 +4998,7 @@
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" s="1"/>
       <c r="B443" s="2"/>
       <c r="C443" s="1"/>
@@ -5004,7 +5008,7 @@
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" s="1"/>
       <c r="B444" s="2"/>
       <c r="C444" s="1"/>
@@ -5014,7 +5018,7 @@
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" s="1"/>
       <c r="B445" s="2"/>
       <c r="C445" s="1"/>
@@ -5024,7 +5028,7 @@
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" s="1"/>
       <c r="B446" s="2"/>
       <c r="C446" s="1"/>
@@ -5034,7 +5038,7 @@
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
       <c r="B447" s="2"/>
       <c r="C447" s="1"/>
@@ -5044,7 +5048,7 @@
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
       <c r="B448" s="2"/>
       <c r="C448" s="1"/>
@@ -5054,7 +5058,7 @@
       <c r="G448" s="1"/>
       <c r="H448" s="1"/>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" s="1"/>
       <c r="B449" s="2"/>
       <c r="C449" s="1"/>
@@ -5064,7 +5068,7 @@
       <c r="G449" s="1"/>
       <c r="H449" s="1"/>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" s="1"/>
       <c r="B450" s="2"/>
       <c r="C450" s="1"/>
@@ -5074,7 +5078,7 @@
       <c r="G450" s="1"/>
       <c r="H450" s="1"/>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
       <c r="B451" s="2"/>
       <c r="C451" s="1"/>
@@ -5084,7 +5088,7 @@
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
       <c r="B452" s="2"/>
       <c r="C452" s="1"/>
@@ -5094,7 +5098,7 @@
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
       <c r="B453" s="2"/>
       <c r="C453" s="1"/>
@@ -5104,7 +5108,7 @@
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" s="1"/>
       <c r="B454" s="2"/>
       <c r="C454" s="1"/>
@@ -5114,7 +5118,7 @@
       <c r="G454" s="1"/>
       <c r="H454" s="1"/>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" s="1"/>
       <c r="B455" s="2"/>
       <c r="C455" s="1"/>
@@ -5124,7 +5128,7 @@
       <c r="G455" s="1"/>
       <c r="H455" s="1"/>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
       <c r="B456" s="2"/>
       <c r="C456" s="1"/>
@@ -5134,7 +5138,7 @@
       <c r="G456" s="1"/>
       <c r="H456" s="1"/>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
       <c r="C457" s="1"/>
@@ -5144,7 +5148,7 @@
       <c r="G457" s="1"/>
       <c r="H457" s="1"/>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A458" s="1"/>
       <c r="B458" s="2"/>
       <c r="C458" s="1"/>
@@ -5154,7 +5158,7 @@
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" s="1"/>
       <c r="B459" s="2"/>
       <c r="C459" s="1"/>
@@ -5164,7 +5168,7 @@
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" s="1"/>
       <c r="B460" s="2"/>
       <c r="C460" s="1"/>
@@ -5174,7 +5178,7 @@
       <c r="G460" s="1"/>
       <c r="H460" s="1"/>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
       <c r="B461" s="2"/>
       <c r="C461" s="1"/>
@@ -5184,7 +5188,7 @@
       <c r="G461" s="1"/>
       <c r="H461" s="1"/>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" s="1"/>
       <c r="B462" s="2"/>
       <c r="C462" s="1"/>
@@ -5194,7 +5198,7 @@
       <c r="G462" s="1"/>
       <c r="H462" s="1"/>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" s="1"/>
       <c r="B463" s="2"/>
       <c r="C463" s="1"/>
@@ -5204,7 +5208,7 @@
       <c r="G463" s="1"/>
       <c r="H463" s="1"/>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
       <c r="B464" s="2"/>
       <c r="C464" s="1"/>
@@ -5214,7 +5218,7 @@
       <c r="G464" s="1"/>
       <c r="H464" s="1"/>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
       <c r="B465" s="2"/>
       <c r="C465" s="1"/>
@@ -5224,7 +5228,7 @@
       <c r="G465" s="1"/>
       <c r="H465" s="1"/>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" s="1"/>
       <c r="B466" s="2"/>
       <c r="C466" s="1"/>
@@ -5234,7 +5238,7 @@
       <c r="G466" s="1"/>
       <c r="H466" s="1"/>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
       <c r="B467" s="2"/>
       <c r="C467" s="1"/>
@@ -5244,7 +5248,7 @@
       <c r="G467" s="1"/>
       <c r="H467" s="1"/>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" s="1"/>
       <c r="B468" s="2"/>
       <c r="C468" s="1"/>
@@ -5254,7 +5258,7 @@
       <c r="G468" s="1"/>
       <c r="H468" s="1"/>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
       <c r="B469" s="2"/>
       <c r="C469" s="1"/>
@@ -5264,7 +5268,7 @@
       <c r="G469" s="1"/>
       <c r="H469" s="1"/>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
       <c r="B470" s="2"/>
       <c r="C470" s="1"/>
@@ -5274,7 +5278,7 @@
       <c r="G470" s="1"/>
       <c r="H470" s="1"/>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A471" s="1"/>
       <c r="B471" s="2"/>
       <c r="C471" s="1"/>
@@ -5284,7 +5288,7 @@
       <c r="G471" s="1"/>
       <c r="H471" s="1"/>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" s="1"/>
       <c r="B472" s="2"/>
       <c r="C472" s="1"/>
@@ -5294,7 +5298,7 @@
       <c r="G472" s="1"/>
       <c r="H472" s="1"/>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A473" s="1"/>
       <c r="B473" s="2"/>
       <c r="C473" s="1"/>
@@ -5304,7 +5308,7 @@
       <c r="G473" s="1"/>
       <c r="H473" s="1"/>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
       <c r="B474" s="2"/>
       <c r="C474" s="1"/>
@@ -5314,7 +5318,7 @@
       <c r="G474" s="1"/>
       <c r="H474" s="1"/>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A475" s="1"/>
       <c r="B475" s="2"/>
       <c r="C475" s="1"/>
@@ -5324,7 +5328,7 @@
       <c r="G475" s="1"/>
       <c r="H475" s="1"/>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" s="1"/>
       <c r="B476" s="2"/>
       <c r="C476" s="1"/>
@@ -5334,7 +5338,7 @@
       <c r="G476" s="1"/>
       <c r="H476" s="1"/>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
       <c r="B477" s="2"/>
       <c r="C477" s="1"/>
@@ -5344,7 +5348,7 @@
       <c r="G477" s="1"/>
       <c r="H477" s="1"/>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A478" s="1"/>
       <c r="B478" s="2"/>
       <c r="C478" s="1"/>
@@ -5354,7 +5358,7 @@
       <c r="G478" s="1"/>
       <c r="H478" s="1"/>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
       <c r="B479" s="2"/>
       <c r="C479" s="1"/>
@@ -5364,7 +5368,7 @@
       <c r="G479" s="1"/>
       <c r="H479" s="1"/>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
       <c r="B480" s="2"/>
       <c r="C480" s="1"/>
@@ -5374,7 +5378,7 @@
       <c r="G480" s="1"/>
       <c r="H480" s="1"/>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A481" s="1"/>
       <c r="B481" s="2"/>
       <c r="C481" s="1"/>
@@ -5384,7 +5388,7 @@
       <c r="G481" s="1"/>
       <c r="H481" s="1"/>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A482" s="1"/>
       <c r="B482" s="2"/>
       <c r="C482" s="1"/>
@@ -5394,7 +5398,7 @@
       <c r="G482" s="1"/>
       <c r="H482" s="1"/>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
       <c r="B483" s="2"/>
       <c r="C483" s="1"/>
@@ -5404,7 +5408,7 @@
       <c r="G483" s="1"/>
       <c r="H483" s="1"/>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484" s="1"/>
       <c r="B484" s="2"/>
       <c r="C484" s="1"/>
@@ -5414,7 +5418,7 @@
       <c r="G484" s="1"/>
       <c r="H484" s="1"/>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" s="1"/>
       <c r="B485" s="2"/>
       <c r="C485" s="1"/>
@@ -5424,7 +5428,7 @@
       <c r="G485" s="1"/>
       <c r="H485" s="1"/>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A486" s="1"/>
       <c r="B486" s="2"/>
       <c r="C486" s="1"/>
@@ -5434,7 +5438,7 @@
       <c r="G486" s="1"/>
       <c r="H486" s="1"/>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487" s="1"/>
       <c r="B487" s="2"/>
       <c r="C487" s="1"/>
@@ -5444,7 +5448,7 @@
       <c r="G487" s="1"/>
       <c r="H487" s="1"/>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" s="1"/>
       <c r="B488" s="2"/>
       <c r="C488" s="1"/>
@@ -5454,7 +5458,7 @@
       <c r="G488" s="1"/>
       <c r="H488" s="1"/>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A489" s="1"/>
       <c r="B489" s="2"/>
       <c r="C489" s="1"/>
@@ -5464,7 +5468,7 @@
       <c r="G489" s="1"/>
       <c r="H489" s="1"/>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A490" s="1"/>
       <c r="B490" s="2"/>
       <c r="C490" s="1"/>
@@ -5474,7 +5478,7 @@
       <c r="G490" s="1"/>
       <c r="H490" s="1"/>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A491" s="1"/>
       <c r="B491" s="2"/>
       <c r="C491" s="1"/>
@@ -5484,7 +5488,7 @@
       <c r="G491" s="1"/>
       <c r="H491" s="1"/>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A492" s="1"/>
       <c r="B492" s="2"/>
       <c r="C492" s="1"/>
@@ -5494,7 +5498,7 @@
       <c r="G492" s="1"/>
       <c r="H492" s="1"/>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A493" s="1"/>
       <c r="B493" s="2"/>
       <c r="C493" s="1"/>
@@ -5504,7 +5508,7 @@
       <c r="G493" s="1"/>
       <c r="H493" s="1"/>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A494" s="1"/>
       <c r="B494" s="2"/>
       <c r="C494" s="1"/>
@@ -5514,7 +5518,7 @@
       <c r="G494" s="1"/>
       <c r="H494" s="1"/>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A495" s="1"/>
       <c r="B495" s="2"/>
       <c r="C495" s="1"/>
@@ -5524,7 +5528,7 @@
       <c r="G495" s="1"/>
       <c r="H495" s="1"/>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A496" s="1"/>
       <c r="B496" s="2"/>
       <c r="C496" s="1"/>
@@ -5534,7 +5538,7 @@
       <c r="G496" s="1"/>
       <c r="H496" s="1"/>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497" s="1"/>
       <c r="B497" s="2"/>
       <c r="C497" s="1"/>
@@ -5544,7 +5548,7 @@
       <c r="G497" s="1"/>
       <c r="H497" s="1"/>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A498" s="1"/>
       <c r="B498" s="2"/>
       <c r="C498" s="1"/>
@@ -5554,7 +5558,7 @@
       <c r="G498" s="1"/>
       <c r="H498" s="1"/>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499" s="1"/>
       <c r="B499" s="2"/>
       <c r="C499" s="1"/>
@@ -5564,7 +5568,7 @@
       <c r="G499" s="1"/>
       <c r="H499" s="1"/>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" s="1"/>
       <c r="B500" s="2"/>
       <c r="C500" s="1"/>
@@ -5574,7 +5578,7 @@
       <c r="G500" s="1"/>
       <c r="H500" s="1"/>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" s="1"/>
       <c r="B501" s="2"/>
       <c r="C501" s="1"/>
@@ -5584,7 +5588,7 @@
       <c r="G501" s="1"/>
       <c r="H501" s="1"/>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
       <c r="C502" s="1"/>
@@ -5594,7 +5598,7 @@
       <c r="G502" s="1"/>
       <c r="H502" s="1"/>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A503" s="1"/>
       <c r="B503" s="2"/>
       <c r="C503" s="1"/>
@@ -5604,7 +5608,7 @@
       <c r="G503" s="1"/>
       <c r="H503" s="1"/>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504" s="1"/>
       <c r="B504" s="2"/>
       <c r="C504" s="1"/>
@@ -5614,7 +5618,7 @@
       <c r="G504" s="1"/>
       <c r="H504" s="1"/>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A505" s="1"/>
       <c r="B505" s="2"/>
       <c r="C505" s="1"/>
@@ -5624,7 +5628,7 @@
       <c r="G505" s="1"/>
       <c r="H505" s="1"/>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A506" s="1"/>
       <c r="B506" s="2"/>
       <c r="C506" s="1"/>
@@ -5634,7 +5638,7 @@
       <c r="G506" s="1"/>
       <c r="H506" s="1"/>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A507" s="1"/>
       <c r="B507" s="2"/>
       <c r="C507" s="1"/>
@@ -5644,7 +5648,7 @@
       <c r="G507" s="1"/>
       <c r="H507" s="1"/>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A508" s="1"/>
       <c r="B508" s="2"/>
       <c r="C508" s="1"/>
@@ -5654,7 +5658,7 @@
       <c r="G508" s="1"/>
       <c r="H508" s="1"/>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
       <c r="B509" s="2"/>
       <c r="C509" s="1"/>
@@ -5664,7 +5668,7 @@
       <c r="G509" s="1"/>
       <c r="H509" s="1"/>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A510" s="1"/>
       <c r="B510" s="2"/>
       <c r="C510" s="1"/>
@@ -5674,7 +5678,7 @@
       <c r="G510" s="1"/>
       <c r="H510" s="1"/>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A511" s="1"/>
       <c r="B511" s="2"/>
       <c r="C511" s="1"/>
@@ -5684,7 +5688,7 @@
       <c r="G511" s="1"/>
       <c r="H511" s="1"/>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512" s="1"/>
       <c r="B512" s="2"/>
       <c r="C512" s="1"/>
@@ -5694,7 +5698,7 @@
       <c r="G512" s="1"/>
       <c r="H512" s="1"/>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A513" s="1"/>
       <c r="B513" s="2"/>
       <c r="C513" s="1"/>
@@ -5704,7 +5708,7 @@
       <c r="G513" s="1"/>
       <c r="H513" s="1"/>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A514" s="1"/>
       <c r="B514" s="2"/>
       <c r="C514" s="1"/>
@@ -5714,7 +5718,7 @@
       <c r="G514" s="1"/>
       <c r="H514" s="1"/>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A515" s="1"/>
       <c r="B515" s="2"/>
       <c r="C515" s="1"/>
@@ -5724,7 +5728,7 @@
       <c r="G515" s="1"/>
       <c r="H515" s="1"/>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A516" s="1"/>
       <c r="B516" s="2"/>
       <c r="C516" s="1"/>
@@ -5734,7 +5738,7 @@
       <c r="G516" s="1"/>
       <c r="H516" s="1"/>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A517" s="1"/>
       <c r="B517" s="2"/>
       <c r="C517" s="1"/>
@@ -5744,7 +5748,7 @@
       <c r="G517" s="1"/>
       <c r="H517" s="1"/>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A518" s="1"/>
       <c r="B518" s="2"/>
       <c r="C518" s="1"/>
@@ -5754,7 +5758,7 @@
       <c r="G518" s="1"/>
       <c r="H518" s="1"/>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A519" s="1"/>
       <c r="B519" s="2"/>
       <c r="C519" s="1"/>
@@ -5764,7 +5768,7 @@
       <c r="G519" s="1"/>
       <c r="H519" s="1"/>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A520" s="1"/>
       <c r="B520" s="2"/>
       <c r="C520" s="1"/>
@@ -5774,7 +5778,7 @@
       <c r="G520" s="1"/>
       <c r="H520" s="1"/>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A521" s="1"/>
       <c r="B521" s="2"/>
       <c r="C521" s="1"/>
@@ -5784,7 +5788,7 @@
       <c r="G521" s="1"/>
       <c r="H521" s="1"/>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A522" s="1"/>
       <c r="B522" s="2"/>
       <c r="C522" s="1"/>
@@ -5794,7 +5798,7 @@
       <c r="G522" s="1"/>
       <c r="H522" s="1"/>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
       <c r="B523" s="2"/>
       <c r="C523" s="1"/>
@@ -5804,7 +5808,7 @@
       <c r="G523" s="1"/>
       <c r="H523" s="1"/>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A524" s="1"/>
       <c r="B524" s="2"/>
       <c r="C524" s="1"/>
@@ -5814,7 +5818,7 @@
       <c r="G524" s="1"/>
       <c r="H524" s="1"/>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A525" s="1"/>
       <c r="B525" s="2"/>
       <c r="C525" s="1"/>
@@ -5824,7 +5828,7 @@
       <c r="G525" s="1"/>
       <c r="H525" s="1"/>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A526" s="1"/>
       <c r="B526" s="2"/>
       <c r="C526" s="1"/>
@@ -5834,7 +5838,7 @@
       <c r="G526" s="1"/>
       <c r="H526" s="1"/>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A527" s="1"/>
       <c r="B527" s="2"/>
       <c r="C527" s="1"/>
@@ -5844,7 +5848,7 @@
       <c r="G527" s="1"/>
       <c r="H527" s="1"/>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
       <c r="B528" s="2"/>
       <c r="C528" s="1"/>
@@ -5854,7 +5858,7 @@
       <c r="G528" s="1"/>
       <c r="H528" s="1"/>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A529" s="1"/>
       <c r="B529" s="2"/>
       <c r="C529" s="1"/>
@@ -5864,7 +5868,7 @@
       <c r="G529" s="1"/>
       <c r="H529" s="1"/>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A530" s="1"/>
       <c r="B530" s="2"/>
       <c r="C530" s="1"/>
@@ -5874,7 +5878,7 @@
       <c r="G530" s="1"/>
       <c r="H530" s="1"/>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A531" s="1"/>
       <c r="B531" s="2"/>
       <c r="C531" s="1"/>
@@ -5884,7 +5888,7 @@
       <c r="G531" s="1"/>
       <c r="H531" s="1"/>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A532" s="1"/>
       <c r="B532" s="2"/>
       <c r="C532" s="1"/>
@@ -5894,7 +5898,7 @@
       <c r="G532" s="1"/>
       <c r="H532" s="1"/>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A533" s="1"/>
       <c r="B533" s="2"/>
       <c r="C533" s="1"/>
@@ -5904,7 +5908,7 @@
       <c r="G533" s="1"/>
       <c r="H533" s="1"/>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A534" s="1"/>
       <c r="B534" s="2"/>
       <c r="C534" s="1"/>
@@ -5914,7 +5918,7 @@
       <c r="G534" s="1"/>
       <c r="H534" s="1"/>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A535" s="1"/>
       <c r="B535" s="2"/>
       <c r="C535" s="1"/>
@@ -5924,7 +5928,7 @@
       <c r="G535" s="1"/>
       <c r="H535" s="1"/>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A536" s="1"/>
       <c r="B536" s="2"/>
       <c r="C536" s="1"/>
@@ -5934,7 +5938,7 @@
       <c r="G536" s="1"/>
       <c r="H536" s="1"/>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A537" s="1"/>
       <c r="B537" s="2"/>
       <c r="C537" s="1"/>
@@ -5944,7 +5948,7 @@
       <c r="G537" s="1"/>
       <c r="H537" s="1"/>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A538" s="1"/>
       <c r="B538" s="2"/>
       <c r="C538" s="1"/>
@@ -5954,7 +5958,7 @@
       <c r="G538" s="1"/>
       <c r="H538" s="1"/>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
       <c r="B539" s="2"/>
       <c r="C539" s="1"/>
@@ -5964,7 +5968,7 @@
       <c r="G539" s="1"/>
       <c r="H539" s="1"/>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A540" s="1"/>
       <c r="B540" s="2"/>
       <c r="C540" s="1"/>
@@ -5974,7 +5978,7 @@
       <c r="G540" s="1"/>
       <c r="H540" s="1"/>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A541" s="1"/>
       <c r="B541" s="2"/>
       <c r="C541" s="1"/>
@@ -5984,7 +5988,7 @@
       <c r="G541" s="1"/>
       <c r="H541" s="1"/>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A542" s="1"/>
       <c r="B542" s="2"/>
       <c r="C542" s="1"/>
@@ -5994,7 +5998,7 @@
       <c r="G542" s="1"/>
       <c r="H542" s="1"/>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A543" s="1"/>
       <c r="B543" s="2"/>
       <c r="C543" s="1"/>
@@ -6004,7 +6008,7 @@
       <c r="G543" s="1"/>
       <c r="H543" s="1"/>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
       <c r="B544" s="2"/>
       <c r="C544" s="1"/>
@@ -6014,7 +6018,7 @@
       <c r="G544" s="1"/>
       <c r="H544" s="1"/>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A545" s="1"/>
       <c r="B545" s="2"/>
       <c r="C545" s="1"/>
@@ -6024,7 +6028,7 @@
       <c r="G545" s="1"/>
       <c r="H545" s="1"/>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A546" s="1"/>
       <c r="B546" s="2"/>
       <c r="C546" s="1"/>
@@ -6034,7 +6038,7 @@
       <c r="G546" s="1"/>
       <c r="H546" s="1"/>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A547" s="1"/>
       <c r="B547" s="2"/>
       <c r="C547" s="1"/>
@@ -6044,7 +6048,7 @@
       <c r="G547" s="1"/>
       <c r="H547" s="1"/>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A548" s="1"/>
       <c r="B548" s="2"/>
       <c r="C548" s="1"/>
@@ -6054,7 +6058,7 @@
       <c r="G548" s="1"/>
       <c r="H548" s="1"/>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A549" s="1"/>
       <c r="B549" s="2"/>
       <c r="C549" s="1"/>
@@ -6064,7 +6068,7 @@
       <c r="G549" s="1"/>
       <c r="H549" s="1"/>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A550" s="1"/>
       <c r="B550" s="2"/>
       <c r="C550" s="1"/>
@@ -6074,7 +6078,7 @@
       <c r="G550" s="1"/>
       <c r="H550" s="1"/>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A551" s="1"/>
       <c r="B551" s="2"/>
       <c r="C551" s="1"/>
@@ -6084,7 +6088,7 @@
       <c r="G551" s="1"/>
       <c r="H551" s="1"/>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A552" s="1"/>
       <c r="B552" s="2"/>
       <c r="C552" s="1"/>
@@ -6094,7 +6098,7 @@
       <c r="G552" s="1"/>
       <c r="H552" s="1"/>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A553" s="1"/>
       <c r="B553" s="2"/>
       <c r="C553" s="1"/>
@@ -6104,7 +6108,7 @@
       <c r="G553" s="1"/>
       <c r="H553" s="1"/>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A554" s="1"/>
       <c r="B554" s="2"/>
       <c r="C554" s="1"/>
@@ -6114,7 +6118,7 @@
       <c r="G554" s="1"/>
       <c r="H554" s="1"/>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A555" s="1"/>
       <c r="B555" s="2"/>
       <c r="C555" s="1"/>
@@ -6124,7 +6128,7 @@
       <c r="G555" s="1"/>
       <c r="H555" s="1"/>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A556" s="1"/>
       <c r="B556" s="2"/>
       <c r="C556" s="1"/>
@@ -6134,7 +6138,7 @@
       <c r="G556" s="1"/>
       <c r="H556" s="1"/>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A557" s="1"/>
       <c r="B557" s="2"/>
       <c r="C557" s="1"/>
@@ -6144,7 +6148,7 @@
       <c r="G557" s="1"/>
       <c r="H557" s="1"/>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A558" s="1"/>
       <c r="B558" s="2"/>
       <c r="C558" s="1"/>
@@ -6154,7 +6158,7 @@
       <c r="G558" s="1"/>
       <c r="H558" s="1"/>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A559" s="1"/>
       <c r="B559" s="2"/>
       <c r="C559" s="1"/>
@@ -6164,7 +6168,7 @@
       <c r="G559" s="1"/>
       <c r="H559" s="1"/>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A560" s="1"/>
       <c r="B560" s="2"/>
       <c r="C560" s="1"/>
@@ -6174,7 +6178,7 @@
       <c r="G560" s="1"/>
       <c r="H560" s="1"/>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
       <c r="C561" s="1"/>
@@ -6184,7 +6188,7 @@
       <c r="G561" s="1"/>
       <c r="H561" s="1"/>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A562" s="1"/>
       <c r="B562" s="2"/>
       <c r="C562" s="1"/>
@@ -6194,7 +6198,7 @@
       <c r="G562" s="1"/>
       <c r="H562" s="1"/>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A563" s="1"/>
       <c r="B563" s="2"/>
       <c r="C563" s="1"/>
@@ -6204,7 +6208,7 @@
       <c r="G563" s="1"/>
       <c r="H563" s="1"/>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A564" s="1"/>
       <c r="B564" s="2"/>
       <c r="C564" s="1"/>
@@ -6214,7 +6218,7 @@
       <c r="G564" s="1"/>
       <c r="H564" s="1"/>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A565" s="1"/>
       <c r="B565" s="2"/>
       <c r="C565" s="1"/>
@@ -6224,7 +6228,7 @@
       <c r="G565" s="1"/>
       <c r="H565" s="1"/>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A566" s="1"/>
       <c r="B566" s="2"/>
       <c r="C566" s="1"/>
@@ -6234,7 +6238,7 @@
       <c r="G566" s="1"/>
       <c r="H566" s="1"/>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
       <c r="B567" s="2"/>
       <c r="C567" s="1"/>
@@ -6244,7 +6248,7 @@
       <c r="G567" s="1"/>
       <c r="H567" s="1"/>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A568" s="1"/>
       <c r="B568" s="2"/>
       <c r="C568" s="1"/>
@@ -6254,7 +6258,7 @@
       <c r="G568" s="1"/>
       <c r="H568" s="1"/>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A569" s="1"/>
       <c r="B569" s="2"/>
       <c r="C569" s="1"/>
@@ -6264,7 +6268,7 @@
       <c r="G569" s="1"/>
       <c r="H569" s="1"/>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A570" s="1"/>
       <c r="B570" s="2"/>
       <c r="C570" s="1"/>
@@ -6274,7 +6278,7 @@
       <c r="G570" s="1"/>
       <c r="H570" s="1"/>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A571" s="1"/>
       <c r="B571" s="2"/>
       <c r="C571" s="1"/>
@@ -6284,7 +6288,7 @@
       <c r="G571" s="1"/>
       <c r="H571" s="1"/>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A572" s="1"/>
       <c r="B572" s="2"/>
       <c r="C572" s="1"/>
@@ -6294,7 +6298,7 @@
       <c r="G572" s="1"/>
       <c r="H572" s="1"/>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A573" s="1"/>
       <c r="B573" s="2"/>
       <c r="C573" s="1"/>
@@ -6304,7 +6308,7 @@
       <c r="G573" s="1"/>
       <c r="H573" s="1"/>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A574" s="1"/>
       <c r="B574" s="2"/>
       <c r="C574" s="1"/>
@@ -6314,7 +6318,7 @@
       <c r="G574" s="1"/>
       <c r="H574" s="1"/>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A575" s="1"/>
       <c r="B575" s="2"/>
       <c r="C575" s="1"/>
@@ -6324,7 +6328,7 @@
       <c r="G575" s="1"/>
       <c r="H575" s="1"/>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A576" s="1"/>
       <c r="B576" s="2"/>
       <c r="C576" s="1"/>
@@ -6334,7 +6338,7 @@
       <c r="G576" s="1"/>
       <c r="H576" s="1"/>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A577" s="1"/>
       <c r="B577" s="2"/>
       <c r="C577" s="1"/>
@@ -6344,7 +6348,7 @@
       <c r="G577" s="1"/>
       <c r="H577" s="1"/>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A578" s="1"/>
       <c r="B578" s="2"/>
       <c r="C578" s="1"/>
@@ -6354,7 +6358,7 @@
       <c r="G578" s="1"/>
       <c r="H578" s="1"/>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A579" s="1"/>
       <c r="B579" s="2"/>
       <c r="C579" s="1"/>
@@ -6364,7 +6368,7 @@
       <c r="G579" s="1"/>
       <c r="H579" s="1"/>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A580" s="1"/>
       <c r="B580" s="2"/>
       <c r="C580" s="1"/>
@@ -6374,7 +6378,7 @@
       <c r="G580" s="1"/>
       <c r="H580" s="1"/>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A581" s="1"/>
       <c r="B581" s="2"/>
       <c r="C581" s="1"/>
@@ -6384,7 +6388,7 @@
       <c r="G581" s="1"/>
       <c r="H581" s="1"/>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A582" s="1"/>
       <c r="B582" s="2"/>
       <c r="C582" s="1"/>
@@ -6394,7 +6398,7 @@
       <c r="G582" s="1"/>
       <c r="H582" s="1"/>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A583" s="1"/>
       <c r="B583" s="2"/>
       <c r="C583" s="1"/>
@@ -6404,7 +6408,7 @@
       <c r="G583" s="1"/>
       <c r="H583" s="1"/>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A584" s="1"/>
       <c r="B584" s="2"/>
       <c r="C584" s="1"/>
@@ -6414,7 +6418,7 @@
       <c r="G584" s="1"/>
       <c r="H584" s="1"/>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A585" s="1"/>
       <c r="B585" s="2"/>
       <c r="C585" s="1"/>
@@ -6424,7 +6428,7 @@
       <c r="G585" s="1"/>
       <c r="H585" s="1"/>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A586" s="1"/>
       <c r="B586" s="2"/>
       <c r="C586" s="1"/>
@@ -6434,7 +6438,7 @@
       <c r="G586" s="1"/>
       <c r="H586" s="1"/>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A587" s="1"/>
       <c r="B587" s="2"/>
       <c r="C587" s="1"/>
@@ -6444,7 +6448,7 @@
       <c r="G587" s="1"/>
       <c r="H587" s="1"/>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A588" s="1"/>
       <c r="B588" s="2"/>
       <c r="C588" s="1"/>
@@ -6454,7 +6458,7 @@
       <c r="G588" s="1"/>
       <c r="H588" s="1"/>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A589" s="1"/>
       <c r="B589" s="2"/>
       <c r="C589" s="1"/>
@@ -6464,7 +6468,7 @@
       <c r="G589" s="1"/>
       <c r="H589" s="1"/>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A590" s="1"/>
       <c r="B590" s="2"/>
       <c r="C590" s="1"/>
@@ -6474,7 +6478,7 @@
       <c r="G590" s="1"/>
       <c r="H590" s="1"/>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A591" s="1"/>
       <c r="B591" s="2"/>
       <c r="C591" s="1"/>
@@ -6484,7 +6488,7 @@
       <c r="G591" s="1"/>
       <c r="H591" s="1"/>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A592" s="1"/>
       <c r="B592" s="2"/>
       <c r="C592" s="1"/>
@@ -6494,7 +6498,7 @@
       <c r="G592" s="1"/>
       <c r="H592" s="1"/>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A593" s="1"/>
       <c r="B593" s="2"/>
       <c r="C593" s="1"/>
@@ -6504,7 +6508,7 @@
       <c r="G593" s="1"/>
       <c r="H593" s="1"/>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A594" s="1"/>
       <c r="B594" s="2"/>
       <c r="C594" s="1"/>
@@ -6514,7 +6518,7 @@
       <c r="G594" s="1"/>
       <c r="H594" s="1"/>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A595" s="1"/>
       <c r="B595" s="2"/>
       <c r="C595" s="1"/>
@@ -6524,7 +6528,7 @@
       <c r="G595" s="1"/>
       <c r="H595" s="1"/>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A596" s="1"/>
       <c r="B596" s="2"/>
       <c r="C596" s="1"/>
@@ -6534,7 +6538,7 @@
       <c r="G596" s="1"/>
       <c r="H596" s="1"/>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A597" s="1"/>
       <c r="B597" s="2"/>
       <c r="C597" s="1"/>
@@ -6544,7 +6548,7 @@
       <c r="G597" s="1"/>
       <c r="H597" s="1"/>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A598" s="1"/>
       <c r="B598" s="2"/>
       <c r="C598" s="1"/>
@@ -6554,7 +6558,7 @@
       <c r="G598" s="1"/>
       <c r="H598" s="1"/>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A599" s="1"/>
       <c r="B599" s="2"/>
       <c r="C599" s="1"/>
@@ -6564,7 +6568,7 @@
       <c r="G599" s="1"/>
       <c r="H599" s="1"/>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A600" s="1"/>
       <c r="B600" s="2"/>
       <c r="C600" s="1"/>
@@ -6574,7 +6578,7 @@
       <c r="G600" s="1"/>
       <c r="H600" s="1"/>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A601" s="1"/>
       <c r="B601" s="2"/>
       <c r="C601" s="1"/>
@@ -6584,7 +6588,7 @@
       <c r="G601" s="1"/>
       <c r="H601" s="1"/>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A602" s="1"/>
       <c r="B602" s="2"/>
       <c r="C602" s="1"/>
@@ -6594,7 +6598,7 @@
       <c r="G602" s="1"/>
       <c r="H602" s="1"/>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A603" s="1"/>
       <c r="B603" s="2"/>
       <c r="C603" s="1"/>
@@ -6604,7 +6608,7 @@
       <c r="G603" s="1"/>
       <c r="H603" s="1"/>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A604" s="1"/>
       <c r="B604" s="2"/>
       <c r="C604" s="1"/>
@@ -6614,7 +6618,7 @@
       <c r="G604" s="1"/>
       <c r="H604" s="1"/>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A605" s="1"/>
       <c r="B605" s="2"/>
       <c r="C605" s="1"/>
@@ -6624,7 +6628,7 @@
       <c r="G605" s="1"/>
       <c r="H605" s="1"/>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A606" s="1"/>
       <c r="B606" s="2"/>
       <c r="C606" s="1"/>
@@ -6634,7 +6638,7 @@
       <c r="G606" s="1"/>
       <c r="H606" s="1"/>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A607" s="1"/>
       <c r="B607" s="2"/>
       <c r="C607" s="1"/>
@@ -6644,7 +6648,7 @@
       <c r="G607" s="1"/>
       <c r="H607" s="1"/>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A608" s="1"/>
       <c r="B608" s="2"/>
       <c r="C608" s="1"/>
@@ -6654,7 +6658,7 @@
       <c r="G608" s="1"/>
       <c r="H608" s="1"/>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A609" s="1"/>
       <c r="B609" s="2"/>
       <c r="C609" s="1"/>
@@ -6664,7 +6668,7 @@
       <c r="G609" s="1"/>
       <c r="H609" s="1"/>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A610" s="1"/>
       <c r="B610" s="2"/>
       <c r="C610" s="1"/>
@@ -6674,7 +6678,7 @@
       <c r="G610" s="1"/>
       <c r="H610" s="1"/>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A611" s="1"/>
       <c r="B611" s="2"/>
       <c r="C611" s="1"/>
@@ -6684,7 +6688,7 @@
       <c r="G611" s="1"/>
       <c r="H611" s="1"/>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A612" s="1"/>
       <c r="B612" s="2"/>
       <c r="C612" s="1"/>
@@ -6694,7 +6698,7 @@
       <c r="G612" s="1"/>
       <c r="H612" s="1"/>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A613" s="1"/>
       <c r="B613" s="2"/>
       <c r="C613" s="1"/>
@@ -6704,7 +6708,7 @@
       <c r="G613" s="1"/>
       <c r="H613" s="1"/>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A614" s="1"/>
       <c r="B614" s="2"/>
       <c r="C614" s="1"/>
@@ -6714,7 +6718,7 @@
       <c r="G614" s="1"/>
       <c r="H614" s="1"/>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A615" s="1"/>
       <c r="B615" s="2"/>
       <c r="C615" s="1"/>
@@ -6724,7 +6728,7 @@
       <c r="G615" s="1"/>
       <c r="H615" s="1"/>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A616" s="1"/>
       <c r="B616" s="2"/>
       <c r="C616" s="1"/>
@@ -6734,7 +6738,7 @@
       <c r="G616" s="1"/>
       <c r="H616" s="1"/>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A617" s="1"/>
       <c r="B617" s="2"/>
       <c r="C617" s="1"/>
@@ -6744,7 +6748,7 @@
       <c r="G617" s="1"/>
       <c r="H617" s="1"/>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A618" s="1"/>
       <c r="B618" s="2"/>
       <c r="C618" s="1"/>
@@ -6754,7 +6758,7 @@
       <c r="G618" s="1"/>
       <c r="H618" s="1"/>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A619" s="1"/>
       <c r="B619" s="2"/>
       <c r="C619" s="1"/>
@@ -6764,7 +6768,7 @@
       <c r="G619" s="1"/>
       <c r="H619" s="1"/>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A620" s="1"/>
       <c r="B620" s="2"/>
       <c r="C620" s="1"/>
@@ -6774,7 +6778,7 @@
       <c r="G620" s="1"/>
       <c r="H620" s="1"/>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A621" s="1"/>
       <c r="B621" s="2"/>
       <c r="C621" s="1"/>
@@ -6784,7 +6788,7 @@
       <c r="G621" s="1"/>
       <c r="H621" s="1"/>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A622" s="1"/>
       <c r="B622" s="2"/>
       <c r="C622" s="1"/>
@@ -6794,7 +6798,7 @@
       <c r="G622" s="1"/>
       <c r="H622" s="1"/>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A623" s="1"/>
       <c r="B623" s="2"/>
       <c r="C623" s="1"/>
@@ -6804,7 +6808,7 @@
       <c r="G623" s="1"/>
       <c r="H623" s="1"/>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A624" s="1"/>
       <c r="B624" s="2"/>
       <c r="C624" s="1"/>
@@ -6814,7 +6818,7 @@
       <c r="G624" s="1"/>
       <c r="H624" s="1"/>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A625" s="1"/>
       <c r="B625" s="2"/>
       <c r="C625" s="1"/>
@@ -6824,7 +6828,7 @@
       <c r="G625" s="1"/>
       <c r="H625" s="1"/>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A626" s="1"/>
       <c r="B626" s="2"/>
       <c r="C626" s="1"/>
@@ -6834,7 +6838,7 @@
       <c r="G626" s="1"/>
       <c r="H626" s="1"/>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A627" s="1"/>
       <c r="B627" s="2"/>
       <c r="C627" s="1"/>
@@ -6844,7 +6848,7 @@
       <c r="G627" s="1"/>
       <c r="H627" s="1"/>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A628" s="1"/>
       <c r="B628" s="2"/>
       <c r="C628" s="1"/>
@@ -6854,7 +6858,7 @@
       <c r="G628" s="1"/>
       <c r="H628" s="1"/>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A629" s="1"/>
       <c r="B629" s="2"/>
       <c r="C629" s="1"/>
@@ -6864,7 +6868,7 @@
       <c r="G629" s="1"/>
       <c r="H629" s="1"/>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A630" s="1"/>
       <c r="B630" s="2"/>
       <c r="C630" s="1"/>
@@ -6874,7 +6878,7 @@
       <c r="G630" s="1"/>
       <c r="H630" s="1"/>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A631" s="1"/>
       <c r="B631" s="2"/>
       <c r="C631" s="1"/>
@@ -6884,7 +6888,7 @@
       <c r="G631" s="1"/>
       <c r="H631" s="1"/>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A632" s="1"/>
       <c r="B632" s="2"/>
       <c r="C632" s="1"/>
@@ -6894,7 +6898,7 @@
       <c r="G632" s="1"/>
       <c r="H632" s="1"/>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A633" s="1"/>
       <c r="B633" s="2"/>
       <c r="C633" s="1"/>
@@ -6904,7 +6908,7 @@
       <c r="G633" s="1"/>
       <c r="H633" s="1"/>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A634" s="1"/>
       <c r="B634" s="2"/>
       <c r="C634" s="1"/>
@@ -6914,7 +6918,7 @@
       <c r="G634" s="1"/>
       <c r="H634" s="1"/>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A635" s="1"/>
       <c r="B635" s="2"/>
       <c r="C635" s="1"/>
@@ -6924,7 +6928,7 @@
       <c r="G635" s="1"/>
       <c r="H635" s="1"/>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A636" s="1"/>
       <c r="B636" s="2"/>
       <c r="C636" s="1"/>
@@ -6934,7 +6938,7 @@
       <c r="G636" s="1"/>
       <c r="H636" s="1"/>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A637" s="1"/>
       <c r="B637" s="2"/>
       <c r="C637" s="1"/>
@@ -6944,7 +6948,7 @@
       <c r="G637" s="1"/>
       <c r="H637" s="1"/>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A638" s="1"/>
       <c r="B638" s="2"/>
       <c r="C638" s="1"/>
@@ -6954,7 +6958,7 @@
       <c r="G638" s="1"/>
       <c r="H638" s="1"/>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A639" s="1"/>
       <c r="B639" s="2"/>
       <c r="C639" s="1"/>
@@ -6964,7 +6968,7 @@
       <c r="G639" s="1"/>
       <c r="H639" s="1"/>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A640" s="1"/>
       <c r="B640" s="2"/>
       <c r="C640" s="1"/>
@@ -6974,7 +6978,7 @@
       <c r="G640" s="1"/>
       <c r="H640" s="1"/>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A641" s="1"/>
       <c r="B641" s="2"/>
       <c r="C641" s="1"/>
@@ -6984,7 +6988,7 @@
       <c r="G641" s="1"/>
       <c r="H641" s="1"/>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A642" s="1"/>
       <c r="B642" s="2"/>
       <c r="C642" s="1"/>
@@ -6994,7 +6998,7 @@
       <c r="G642" s="1"/>
       <c r="H642" s="1"/>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A643" s="1"/>
       <c r="B643" s="2"/>
       <c r="C643" s="1"/>
@@ -7004,7 +7008,7 @@
       <c r="G643" s="1"/>
       <c r="H643" s="1"/>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A644" s="1"/>
       <c r="B644" s="2"/>
       <c r="C644" s="1"/>
@@ -7014,7 +7018,7 @@
       <c r="G644" s="1"/>
       <c r="H644" s="1"/>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A645" s="1"/>
       <c r="B645" s="2"/>
       <c r="C645" s="1"/>
@@ -7024,7 +7028,7 @@
       <c r="G645" s="1"/>
       <c r="H645" s="1"/>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A646" s="1"/>
       <c r="B646" s="2"/>
       <c r="C646" s="1"/>
@@ -7034,7 +7038,7 @@
       <c r="G646" s="1"/>
       <c r="H646" s="1"/>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A647" s="1"/>
       <c r="B647" s="2"/>
       <c r="C647" s="1"/>
@@ -7044,7 +7048,7 @@
       <c r="G647" s="1"/>
       <c r="H647" s="1"/>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A648" s="1"/>
       <c r="B648" s="2"/>
       <c r="C648" s="1"/>
@@ -7054,7 +7058,7 @@
       <c r="G648" s="1"/>
       <c r="H648" s="1"/>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A649" s="1"/>
       <c r="B649" s="2"/>
       <c r="C649" s="1"/>
@@ -7064,7 +7068,7 @@
       <c r="G649" s="1"/>
       <c r="H649" s="1"/>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A650" s="1"/>
       <c r="B650" s="2"/>
       <c r="C650" s="1"/>
@@ -7074,7 +7078,7 @@
       <c r="G650" s="1"/>
       <c r="H650" s="1"/>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A651" s="1"/>
       <c r="B651" s="2"/>
       <c r="C651" s="1"/>
@@ -7084,7 +7088,7 @@
       <c r="G651" s="1"/>
       <c r="H651" s="1"/>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A652" s="1"/>
       <c r="B652" s="2"/>
       <c r="C652" s="1"/>
@@ -7094,7 +7098,7 @@
       <c r="G652" s="1"/>
       <c r="H652" s="1"/>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A653" s="1"/>
       <c r="B653" s="2"/>
       <c r="C653" s="1"/>
@@ -7104,7 +7108,7 @@
       <c r="G653" s="1"/>
       <c r="H653" s="1"/>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A654" s="1"/>
       <c r="B654" s="2"/>
       <c r="C654" s="1"/>
@@ -7114,7 +7118,7 @@
       <c r="G654" s="1"/>
       <c r="H654" s="1"/>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A655" s="1"/>
       <c r="B655" s="2"/>
       <c r="C655" s="1"/>
@@ -7124,7 +7128,7 @@
       <c r="G655" s="1"/>
       <c r="H655" s="1"/>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A656" s="1"/>
       <c r="B656" s="2"/>
       <c r="C656" s="1"/>
@@ -7134,7 +7138,7 @@
       <c r="G656" s="1"/>
       <c r="H656" s="1"/>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A657" s="1"/>
       <c r="B657" s="2"/>
       <c r="C657" s="1"/>
@@ -7144,7 +7148,7 @@
       <c r="G657" s="1"/>
       <c r="H657" s="1"/>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A658" s="1"/>
       <c r="B658" s="2"/>
       <c r="C658" s="1"/>
@@ -7154,7 +7158,7 @@
       <c r="G658" s="1"/>
       <c r="H658" s="1"/>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A659" s="1"/>
       <c r="B659" s="2"/>
       <c r="C659" s="1"/>
@@ -7164,7 +7168,7 @@
       <c r="G659" s="1"/>
       <c r="H659" s="1"/>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A660" s="1"/>
       <c r="B660" s="2"/>
       <c r="C660" s="1"/>
@@ -7174,7 +7178,7 @@
       <c r="G660" s="1"/>
       <c r="H660" s="1"/>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A661" s="1"/>
       <c r="B661" s="2"/>
       <c r="C661" s="1"/>
@@ -7184,7 +7188,7 @@
       <c r="G661" s="1"/>
       <c r="H661" s="1"/>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A662" s="1"/>
       <c r="B662" s="2"/>
       <c r="C662" s="1"/>
@@ -7194,7 +7198,7 @@
       <c r="G662" s="1"/>
       <c r="H662" s="1"/>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A663" s="1"/>
       <c r="B663" s="2"/>
       <c r="C663" s="1"/>
@@ -7204,7 +7208,7 @@
       <c r="G663" s="1"/>
       <c r="H663" s="1"/>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A664" s="1"/>
       <c r="B664" s="2"/>
       <c r="C664" s="1"/>
@@ -7214,7 +7218,7 @@
       <c r="G664" s="1"/>
       <c r="H664" s="1"/>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A665" s="1"/>
       <c r="B665" s="2"/>
       <c r="C665" s="1"/>
@@ -7224,7 +7228,7 @@
       <c r="G665" s="1"/>
       <c r="H665" s="1"/>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A666" s="1"/>
       <c r="B666" s="2"/>
       <c r="C666" s="1"/>
@@ -7234,7 +7238,7 @@
       <c r="G666" s="1"/>
       <c r="H666" s="1"/>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A667" s="1"/>
       <c r="B667" s="2"/>
       <c r="C667" s="1"/>
@@ -7244,7 +7248,7 @@
       <c r="G667" s="1"/>
       <c r="H667" s="1"/>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A668" s="1"/>
       <c r="B668" s="2"/>
       <c r="C668" s="1"/>
@@ -7254,7 +7258,7 @@
       <c r="G668" s="1"/>
       <c r="H668" s="1"/>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A669" s="1"/>
       <c r="B669" s="2"/>
       <c r="C669" s="1"/>
@@ -7264,7 +7268,7 @@
       <c r="G669" s="1"/>
       <c r="H669" s="1"/>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A670" s="1"/>
       <c r="B670" s="2"/>
       <c r="C670" s="1"/>
@@ -7274,7 +7278,7 @@
       <c r="G670" s="1"/>
       <c r="H670" s="1"/>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A671" s="1"/>
       <c r="B671" s="2"/>
       <c r="C671" s="1"/>
@@ -7284,7 +7288,7 @@
       <c r="G671" s="1"/>
       <c r="H671" s="1"/>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A672" s="1"/>
       <c r="B672" s="2"/>
       <c r="C672" s="1"/>
@@ -7294,7 +7298,7 @@
       <c r="G672" s="1"/>
       <c r="H672" s="1"/>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A673" s="1"/>
       <c r="B673" s="2"/>
       <c r="C673" s="1"/>
@@ -7304,7 +7308,7 @@
       <c r="G673" s="1"/>
       <c r="H673" s="1"/>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A674" s="1"/>
       <c r="B674" s="2"/>
       <c r="C674" s="1"/>
@@ -7314,7 +7318,7 @@
       <c r="G674" s="1"/>
       <c r="H674" s="1"/>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A675" s="1"/>
       <c r="B675" s="2"/>
       <c r="C675" s="1"/>
@@ -7324,7 +7328,7 @@
       <c r="G675" s="1"/>
       <c r="H675" s="1"/>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A676" s="1"/>
       <c r="B676" s="2"/>
       <c r="C676" s="1"/>
@@ -7334,7 +7338,7 @@
       <c r="G676" s="1"/>
       <c r="H676" s="1"/>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A677" s="1"/>
       <c r="B677" s="2"/>
       <c r="C677" s="1"/>
@@ -7344,7 +7348,7 @@
       <c r="G677" s="1"/>
       <c r="H677" s="1"/>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A678" s="1"/>
       <c r="B678" s="2"/>
       <c r="C678" s="1"/>
@@ -7354,7 +7358,7 @@
       <c r="G678" s="1"/>
       <c r="H678" s="1"/>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A679" s="1"/>
       <c r="B679" s="2"/>
       <c r="C679" s="1"/>
@@ -7364,7 +7368,7 @@
       <c r="G679" s="1"/>
       <c r="H679" s="1"/>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A680" s="1"/>
       <c r="B680" s="2"/>
       <c r="C680" s="1"/>
@@ -7374,7 +7378,7 @@
       <c r="G680" s="1"/>
       <c r="H680" s="1"/>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A681" s="1"/>
       <c r="B681" s="2"/>
       <c r="C681" s="1"/>
@@ -7384,7 +7388,7 @@
       <c r="G681" s="1"/>
       <c r="H681" s="1"/>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A682" s="1"/>
       <c r="B682" s="2"/>
       <c r="C682" s="1"/>
@@ -7394,7 +7398,7 @@
       <c r="G682" s="1"/>
       <c r="H682" s="1"/>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A683" s="1"/>
       <c r="B683" s="2"/>
       <c r="C683" s="1"/>
@@ -7404,7 +7408,7 @@
       <c r="G683" s="1"/>
       <c r="H683" s="1"/>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A684" s="1"/>
       <c r="B684" s="2"/>
       <c r="C684" s="1"/>
@@ -7414,7 +7418,7 @@
       <c r="G684" s="1"/>
       <c r="H684" s="1"/>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A685" s="1"/>
       <c r="B685" s="2"/>
       <c r="C685" s="1"/>
@@ -7424,7 +7428,7 @@
       <c r="G685" s="1"/>
       <c r="H685" s="1"/>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A686" s="1"/>
       <c r="B686" s="2"/>
       <c r="C686" s="1"/>
@@ -7434,7 +7438,7 @@
       <c r="G686" s="1"/>
       <c r="H686" s="1"/>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A687" s="1"/>
       <c r="B687" s="2"/>
       <c r="C687" s="1"/>
@@ -7444,7 +7448,7 @@
       <c r="G687" s="1"/>
       <c r="H687" s="1"/>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A688" s="1"/>
       <c r="B688" s="2"/>
       <c r="C688" s="1"/>
@@ -7454,7 +7458,7 @@
       <c r="G688" s="1"/>
       <c r="H688" s="1"/>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A689" s="1"/>
       <c r="B689" s="2"/>
       <c r="C689" s="1"/>
@@ -7464,7 +7468,7 @@
       <c r="G689" s="1"/>
       <c r="H689" s="1"/>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A690" s="1"/>
       <c r="B690" s="2"/>
       <c r="C690" s="1"/>
@@ -7474,7 +7478,7 @@
       <c r="G690" s="1"/>
       <c r="H690" s="1"/>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A691" s="1"/>
       <c r="B691" s="2"/>
       <c r="C691" s="1"/>
@@ -7484,7 +7488,7 @@
       <c r="G691" s="1"/>
       <c r="H691" s="1"/>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A692" s="1"/>
       <c r="B692" s="2"/>
       <c r="C692" s="1"/>
@@ -7494,7 +7498,7 @@
       <c r="G692" s="1"/>
       <c r="H692" s="1"/>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A693" s="1"/>
       <c r="B693" s="2"/>
       <c r="C693" s="1"/>
@@ -7504,7 +7508,7 @@
       <c r="G693" s="1"/>
       <c r="H693" s="1"/>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A694" s="1"/>
       <c r="B694" s="2"/>
       <c r="C694" s="1"/>
@@ -7514,7 +7518,7 @@
       <c r="G694" s="1"/>
       <c r="H694" s="1"/>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A695" s="1"/>
       <c r="B695" s="2"/>
       <c r="C695" s="1"/>
@@ -7524,7 +7528,7 @@
       <c r="G695" s="1"/>
       <c r="H695" s="1"/>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A696" s="1"/>
       <c r="B696" s="2"/>
       <c r="C696" s="1"/>
@@ -7534,7 +7538,7 @@
       <c r="G696" s="1"/>
       <c r="H696" s="1"/>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A697" s="1"/>
       <c r="B697" s="2"/>
       <c r="C697" s="1"/>
@@ -7544,7 +7548,7 @@
       <c r="G697" s="1"/>
       <c r="H697" s="1"/>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A698" s="1"/>
       <c r="B698" s="2"/>
       <c r="C698" s="1"/>
@@ -7554,7 +7558,7 @@
       <c r="G698" s="1"/>
       <c r="H698" s="1"/>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A699" s="1"/>
       <c r="B699" s="2"/>
       <c r="C699" s="1"/>
@@ -7564,7 +7568,7 @@
       <c r="G699" s="1"/>
       <c r="H699" s="1"/>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A700" s="1"/>
       <c r="B700" s="2"/>
       <c r="C700" s="1"/>
@@ -7574,7 +7578,7 @@
       <c r="G700" s="1"/>
       <c r="H700" s="1"/>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A701" s="1"/>
       <c r="B701" s="2"/>
       <c r="C701" s="1"/>
@@ -7584,7 +7588,7 @@
       <c r="G701" s="1"/>
       <c r="H701" s="1"/>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A702" s="1"/>
       <c r="B702" s="2"/>
       <c r="C702" s="1"/>
@@ -7594,7 +7598,7 @@
       <c r="G702" s="1"/>
       <c r="H702" s="1"/>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A703" s="1"/>
       <c r="B703" s="2"/>
       <c r="C703" s="1"/>
@@ -7604,7 +7608,7 @@
       <c r="G703" s="1"/>
       <c r="H703" s="1"/>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A704" s="1"/>
       <c r="B704" s="2"/>
       <c r="C704" s="1"/>
@@ -7614,7 +7618,7 @@
       <c r="G704" s="1"/>
       <c r="H704" s="1"/>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A705" s="1"/>
       <c r="B705" s="2"/>
       <c r="C705" s="1"/>
@@ -7624,7 +7628,7 @@
       <c r="G705" s="1"/>
       <c r="H705" s="1"/>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A706" s="1"/>
       <c r="B706" s="2"/>
       <c r="C706" s="1"/>
@@ -7634,7 +7638,7 @@
       <c r="G706" s="1"/>
       <c r="H706" s="1"/>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A707" s="1"/>
       <c r="B707" s="2"/>
       <c r="C707" s="1"/>
@@ -7644,7 +7648,7 @@
       <c r="G707" s="1"/>
       <c r="H707" s="1"/>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A708" s="1"/>
       <c r="B708" s="2"/>
       <c r="C708" s="1"/>
@@ -7654,7 +7658,7 @@
       <c r="G708" s="1"/>
       <c r="H708" s="1"/>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A709" s="1"/>
       <c r="B709" s="2"/>
       <c r="C709" s="1"/>
@@ -7664,7 +7668,7 @@
       <c r="G709" s="1"/>
       <c r="H709" s="1"/>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A710" s="1"/>
       <c r="B710" s="2"/>
       <c r="C710" s="1"/>
@@ -7674,7 +7678,7 @@
       <c r="G710" s="1"/>
       <c r="H710" s="1"/>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A711" s="1"/>
       <c r="B711" s="2"/>
       <c r="C711" s="1"/>
@@ -7684,7 +7688,7 @@
       <c r="G711" s="1"/>
       <c r="H711" s="1"/>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A712" s="1"/>
       <c r="B712" s="2"/>
       <c r="C712" s="1"/>
@@ -7694,7 +7698,7 @@
       <c r="G712" s="1"/>
       <c r="H712" s="1"/>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A713" s="1"/>
       <c r="B713" s="2"/>
       <c r="C713" s="1"/>
@@ -7704,7 +7708,7 @@
       <c r="G713" s="1"/>
       <c r="H713" s="1"/>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A714" s="1"/>
       <c r="B714" s="2"/>
       <c r="C714" s="1"/>
@@ -7714,7 +7718,7 @@
       <c r="G714" s="1"/>
       <c r="H714" s="1"/>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A715" s="1"/>
       <c r="B715" s="2"/>
       <c r="C715" s="1"/>
@@ -7724,7 +7728,7 @@
       <c r="G715" s="1"/>
       <c r="H715" s="1"/>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A716" s="1"/>
       <c r="B716" s="2"/>
       <c r="C716" s="1"/>
@@ -7734,7 +7738,7 @@
       <c r="G716" s="1"/>
       <c r="H716" s="1"/>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A717" s="1"/>
       <c r="B717" s="2"/>
       <c r="C717" s="1"/>
@@ -7744,7 +7748,7 @@
       <c r="G717" s="1"/>
       <c r="H717" s="1"/>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A718" s="1"/>
       <c r="B718" s="2"/>
       <c r="C718" s="1"/>
@@ -7754,7 +7758,7 @@
       <c r="G718" s="1"/>
       <c r="H718" s="1"/>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A719" s="1"/>
       <c r="B719" s="2"/>
       <c r="C719" s="1"/>
@@ -7764,7 +7768,7 @@
       <c r="G719" s="1"/>
       <c r="H719" s="1"/>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A720" s="1"/>
       <c r="B720" s="2"/>
       <c r="C720" s="1"/>
@@ -7774,7 +7778,7 @@
       <c r="G720" s="1"/>
       <c r="H720" s="1"/>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A721" s="1"/>
       <c r="B721" s="2"/>
       <c r="C721" s="1"/>
@@ -7784,7 +7788,7 @@
       <c r="G721" s="1"/>
       <c r="H721" s="1"/>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A722" s="1"/>
       <c r="B722" s="2"/>
       <c r="C722" s="1"/>
@@ -7794,7 +7798,7 @@
       <c r="G722" s="1"/>
       <c r="H722" s="1"/>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A723" s="1"/>
       <c r="B723" s="2"/>
       <c r="C723" s="1"/>
@@ -7804,7 +7808,7 @@
       <c r="G723" s="1"/>
       <c r="H723" s="1"/>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A724" s="1"/>
       <c r="B724" s="2"/>
       <c r="C724" s="1"/>
@@ -7814,7 +7818,7 @@
       <c r="G724" s="1"/>
       <c r="H724" s="1"/>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A725" s="1"/>
       <c r="B725" s="2"/>
       <c r="C725" s="1"/>
@@ -7824,7 +7828,7 @@
       <c r="G725" s="1"/>
       <c r="H725" s="1"/>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A726" s="1"/>
       <c r="B726" s="2"/>
       <c r="C726" s="1"/>
@@ -7834,7 +7838,7 @@
       <c r="G726" s="1"/>
       <c r="H726" s="1"/>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A727" s="1"/>
       <c r="B727" s="2"/>
       <c r="C727" s="1"/>
@@ -7844,7 +7848,7 @@
       <c r="G727" s="1"/>
       <c r="H727" s="1"/>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A728" s="1"/>
       <c r="B728" s="2"/>
       <c r="C728" s="1"/>
@@ -7854,7 +7858,7 @@
       <c r="G728" s="1"/>
       <c r="H728" s="1"/>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A729" s="1"/>
       <c r="B729" s="2"/>
       <c r="C729" s="1"/>
@@ -7864,7 +7868,7 @@
       <c r="G729" s="1"/>
       <c r="H729" s="1"/>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A730" s="1"/>
       <c r="B730" s="2"/>
       <c r="C730" s="1"/>
@@ -7874,7 +7878,7 @@
       <c r="G730" s="1"/>
       <c r="H730" s="1"/>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A731" s="1"/>
       <c r="B731" s="2"/>
       <c r="C731" s="1"/>
@@ -7884,7 +7888,7 @@
       <c r="G731" s="1"/>
       <c r="H731" s="1"/>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A732" s="1"/>
       <c r="B732" s="2"/>
       <c r="C732" s="1"/>
@@ -7894,7 +7898,7 @@
       <c r="G732" s="1"/>
       <c r="H732" s="1"/>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A733" s="1"/>
       <c r="B733" s="2"/>
       <c r="C733" s="1"/>
@@ -7904,7 +7908,7 @@
       <c r="G733" s="1"/>
       <c r="H733" s="1"/>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A734" s="1"/>
       <c r="B734" s="2"/>
       <c r="C734" s="1"/>
@@ -7914,7 +7918,7 @@
       <c r="G734" s="1"/>
       <c r="H734" s="1"/>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A735" s="1"/>
       <c r="B735" s="2"/>
       <c r="C735" s="1"/>
@@ -7924,7 +7928,7 @@
       <c r="G735" s="1"/>
       <c r="H735" s="1"/>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A736" s="1"/>
       <c r="B736" s="2"/>
       <c r="C736" s="1"/>
@@ -7934,7 +7938,7 @@
       <c r="G736" s="1"/>
       <c r="H736" s="1"/>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A737" s="1"/>
       <c r="B737" s="2"/>
       <c r="C737" s="1"/>
@@ -7944,7 +7948,7 @@
       <c r="G737" s="1"/>
       <c r="H737" s="1"/>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A738" s="1"/>
       <c r="B738" s="2"/>
       <c r="C738" s="1"/>
@@ -7954,7 +7958,7 @@
       <c r="G738" s="1"/>
       <c r="H738" s="1"/>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A739" s="1"/>
       <c r="B739" s="2"/>
       <c r="C739" s="1"/>
@@ -7964,7 +7968,7 @@
       <c r="G739" s="1"/>
       <c r="H739" s="1"/>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A740" s="1"/>
       <c r="B740" s="2"/>
       <c r="C740" s="1"/>
@@ -7974,7 +7978,7 @@
       <c r="G740" s="1"/>
       <c r="H740" s="1"/>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A741" s="1"/>
       <c r="B741" s="2"/>
       <c r="C741" s="1"/>
@@ -7984,7 +7988,7 @@
       <c r="G741" s="1"/>
       <c r="H741" s="1"/>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A742" s="1"/>
       <c r="B742" s="2"/>
       <c r="C742" s="1"/>
@@ -7994,7 +7998,7 @@
       <c r="G742" s="1"/>
       <c r="H742" s="1"/>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A743" s="1"/>
       <c r="B743" s="2"/>
       <c r="C743" s="1"/>
@@ -8004,7 +8008,7 @@
       <c r="G743" s="1"/>
       <c r="H743" s="1"/>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A744" s="1"/>
       <c r="B744" s="2"/>
       <c r="C744" s="1"/>
@@ -8014,7 +8018,7 @@
       <c r="G744" s="1"/>
       <c r="H744" s="1"/>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A745" s="1"/>
       <c r="B745" s="2"/>
       <c r="C745" s="1"/>
@@ -8024,7 +8028,7 @@
       <c r="G745" s="1"/>
       <c r="H745" s="1"/>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A746" s="1"/>
       <c r="B746" s="2"/>
       <c r="C746" s="1"/>
@@ -8034,7 +8038,7 @@
       <c r="G746" s="1"/>
       <c r="H746" s="1"/>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A747" s="1"/>
       <c r="B747" s="2"/>
       <c r="C747" s="1"/>
@@ -8044,7 +8048,7 @@
       <c r="G747" s="1"/>
       <c r="H747" s="1"/>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A748" s="1"/>
       <c r="B748" s="2"/>
       <c r="C748" s="1"/>
@@ -8054,7 +8058,7 @@
       <c r="G748" s="1"/>
       <c r="H748" s="1"/>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A749" s="1"/>
       <c r="B749" s="2"/>
       <c r="C749" s="1"/>
@@ -8064,7 +8068,7 @@
       <c r="G749" s="1"/>
       <c r="H749" s="1"/>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A750" s="1"/>
       <c r="B750" s="2"/>
       <c r="C750" s="1"/>
@@ -8074,7 +8078,7 @@
       <c r="G750" s="1"/>
       <c r="H750" s="1"/>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A751" s="1"/>
       <c r="B751" s="2"/>
       <c r="C751" s="1"/>
@@ -8084,7 +8088,7 @@
       <c r="G751" s="1"/>
       <c r="H751" s="1"/>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A752" s="1"/>
       <c r="B752" s="2"/>
       <c r="C752" s="1"/>
@@ -8094,7 +8098,7 @@
       <c r="G752" s="1"/>
       <c r="H752" s="1"/>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A753" s="1"/>
       <c r="B753" s="2"/>
       <c r="C753" s="1"/>
@@ -8104,7 +8108,7 @@
       <c r="G753" s="1"/>
       <c r="H753" s="1"/>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A754" s="1"/>
       <c r="B754" s="2"/>
       <c r="C754" s="1"/>
@@ -8114,7 +8118,7 @@
       <c r="G754" s="1"/>
       <c r="H754" s="1"/>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A755" s="1"/>
       <c r="B755" s="2"/>
       <c r="C755" s="1"/>
@@ -8124,7 +8128,7 @@
       <c r="G755" s="1"/>
       <c r="H755" s="1"/>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A756" s="1"/>
       <c r="B756" s="2"/>
       <c r="C756" s="1"/>
@@ -8134,7 +8138,7 @@
       <c r="G756" s="1"/>
       <c r="H756" s="1"/>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A757" s="1"/>
       <c r="B757" s="2"/>
       <c r="C757" s="1"/>
@@ -8144,7 +8148,7 @@
       <c r="G757" s="1"/>
       <c r="H757" s="1"/>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A758" s="1"/>
       <c r="B758" s="2"/>
       <c r="C758" s="1"/>
@@ -8154,7 +8158,7 @@
       <c r="G758" s="1"/>
       <c r="H758" s="1"/>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A759" s="1"/>
       <c r="B759" s="2"/>
       <c r="C759" s="1"/>
@@ -8164,7 +8168,7 @@
       <c r="G759" s="1"/>
       <c r="H759" s="1"/>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A760" s="1"/>
       <c r="B760" s="2"/>
       <c r="C760" s="1"/>
@@ -8174,7 +8178,7 @@
       <c r="G760" s="1"/>
       <c r="H760" s="1"/>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A761" s="1"/>
       <c r="B761" s="2"/>
       <c r="C761" s="1"/>
@@ -8184,7 +8188,7 @@
       <c r="G761" s="1"/>
       <c r="H761" s="1"/>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A762" s="1"/>
       <c r="B762" s="2"/>
       <c r="C762" s="1"/>
@@ -8194,7 +8198,7 @@
       <c r="G762" s="1"/>
       <c r="H762" s="1"/>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A763" s="1"/>
       <c r="B763" s="2"/>
       <c r="C763" s="1"/>
@@ -8204,7 +8208,7 @@
       <c r="G763" s="1"/>
       <c r="H763" s="1"/>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A764" s="1"/>
       <c r="B764" s="2"/>
       <c r="C764" s="1"/>
@@ -8214,7 +8218,7 @@
       <c r="G764" s="1"/>
       <c r="H764" s="1"/>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A765" s="1"/>
       <c r="B765" s="2"/>
       <c r="C765" s="1"/>
@@ -8224,7 +8228,7 @@
       <c r="G765" s="1"/>
       <c r="H765" s="1"/>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A766" s="1"/>
       <c r="B766" s="2"/>
       <c r="C766" s="1"/>
@@ -8234,7 +8238,7 @@
       <c r="G766" s="1"/>
       <c r="H766" s="1"/>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A767" s="1"/>
       <c r="B767" s="2"/>
       <c r="C767" s="1"/>
@@ -8244,7 +8248,7 @@
       <c r="G767" s="1"/>
       <c r="H767" s="1"/>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A768" s="1"/>
       <c r="B768" s="2"/>
       <c r="C768" s="1"/>
@@ -8254,7 +8258,7 @@
       <c r="G768" s="1"/>
       <c r="H768" s="1"/>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A769" s="1"/>
       <c r="B769" s="2"/>
       <c r="C769" s="1"/>
@@ -8264,7 +8268,7 @@
       <c r="G769" s="1"/>
       <c r="H769" s="1"/>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A770" s="1"/>
       <c r="B770" s="2"/>
       <c r="C770" s="1"/>
@@ -8274,7 +8278,7 @@
       <c r="G770" s="1"/>
       <c r="H770" s="1"/>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A771" s="1"/>
       <c r="B771" s="2"/>
       <c r="C771" s="1"/>
@@ -8284,7 +8288,7 @@
       <c r="G771" s="1"/>
       <c r="H771" s="1"/>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A772" s="1"/>
       <c r="B772" s="2"/>
       <c r="C772" s="1"/>
@@ -8294,7 +8298,7 @@
       <c r="G772" s="1"/>
       <c r="H772" s="1"/>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A773" s="1"/>
       <c r="B773" s="2"/>
       <c r="C773" s="1"/>
@@ -8304,7 +8308,7 @@
       <c r="G773" s="1"/>
       <c r="H773" s="1"/>
     </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A774" s="1"/>
       <c r="B774" s="2"/>
       <c r="C774" s="1"/>
@@ -8314,7 +8318,7 @@
       <c r="G774" s="1"/>
       <c r="H774" s="1"/>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A775" s="1"/>
       <c r="B775" s="2"/>
       <c r="C775" s="1"/>
@@ -8324,7 +8328,7 @@
       <c r="G775" s="1"/>
       <c r="H775" s="1"/>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A776" s="1"/>
       <c r="B776" s="2"/>
       <c r="C776" s="1"/>
@@ -8334,7 +8338,7 @@
       <c r="G776" s="1"/>
       <c r="H776" s="1"/>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A777" s="1"/>
       <c r="B777" s="2"/>
       <c r="C777" s="1"/>
@@ -8344,7 +8348,7 @@
       <c r="G777" s="1"/>
       <c r="H777" s="1"/>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A778" s="1"/>
       <c r="B778" s="2"/>
       <c r="C778" s="1"/>
@@ -8354,7 +8358,7 @@
       <c r="G778" s="1"/>
       <c r="H778" s="1"/>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A779" s="1"/>
       <c r="B779" s="2"/>
       <c r="C779" s="1"/>
@@ -8364,7 +8368,7 @@
       <c r="G779" s="1"/>
       <c r="H779" s="1"/>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A780" s="1"/>
       <c r="B780" s="2"/>
       <c r="C780" s="1"/>
@@ -8374,7 +8378,7 @@
       <c r="G780" s="1"/>
       <c r="H780" s="1"/>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A781" s="1"/>
       <c r="B781" s="2"/>
       <c r="C781" s="1"/>
@@ -8384,7 +8388,7 @@
       <c r="G781" s="1"/>
       <c r="H781" s="1"/>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A782" s="1"/>
       <c r="B782" s="2"/>
       <c r="C782" s="1"/>
@@ -8394,7 +8398,7 @@
       <c r="G782" s="1"/>
       <c r="H782" s="1"/>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A783" s="1"/>
       <c r="B783" s="2"/>
       <c r="C783" s="1"/>
@@ -8404,7 +8408,7 @@
       <c r="G783" s="1"/>
       <c r="H783" s="1"/>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A784" s="1"/>
       <c r="B784" s="2"/>
       <c r="C784" s="1"/>
@@ -8414,7 +8418,7 @@
       <c r="G784" s="1"/>
       <c r="H784" s="1"/>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A785" s="1"/>
       <c r="B785" s="2"/>
       <c r="C785" s="1"/>
@@ -8424,7 +8428,7 @@
       <c r="G785" s="1"/>
       <c r="H785" s="1"/>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A786" s="1"/>
       <c r="B786" s="2"/>
       <c r="C786" s="1"/>
@@ -8434,7 +8438,7 @@
       <c r="G786" s="1"/>
       <c r="H786" s="1"/>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A787" s="1"/>
       <c r="B787" s="2"/>
       <c r="C787" s="1"/>
@@ -8444,7 +8448,7 @@
       <c r="G787" s="1"/>
       <c r="H787" s="1"/>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A788" s="1"/>
       <c r="B788" s="2"/>
       <c r="C788" s="1"/>
@@ -8454,7 +8458,7 @@
       <c r="G788" s="1"/>
       <c r="H788" s="1"/>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A789" s="1"/>
       <c r="B789" s="2"/>
       <c r="C789" s="1"/>
@@ -8464,7 +8468,7 @@
       <c r="G789" s="1"/>
       <c r="H789" s="1"/>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A790" s="1"/>
       <c r="B790" s="2"/>
       <c r="C790" s="1"/>
@@ -8474,7 +8478,7 @@
       <c r="G790" s="1"/>
       <c r="H790" s="1"/>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A791" s="1"/>
       <c r="B791" s="2"/>
       <c r="C791" s="1"/>
@@ -8484,7 +8488,7 @@
       <c r="G791" s="1"/>
       <c r="H791" s="1"/>
     </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A792" s="1"/>
       <c r="B792" s="2"/>
       <c r="C792" s="1"/>
@@ -8494,7 +8498,7 @@
       <c r="G792" s="1"/>
       <c r="H792" s="1"/>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A793" s="1"/>
       <c r="B793" s="2"/>
       <c r="C793" s="1"/>
@@ -8504,7 +8508,7 @@
       <c r="G793" s="1"/>
       <c r="H793" s="1"/>
     </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A794" s="1"/>
       <c r="B794" s="2"/>
       <c r="C794" s="1"/>
@@ -8514,7 +8518,7 @@
       <c r="G794" s="1"/>
       <c r="H794" s="1"/>
     </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A795" s="1"/>
       <c r="B795" s="2"/>
       <c r="C795" s="1"/>
@@ -8524,7 +8528,7 @@
       <c r="G795" s="1"/>
       <c r="H795" s="1"/>
     </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A796" s="1"/>
       <c r="B796" s="2"/>
       <c r="C796" s="1"/>
@@ -8534,7 +8538,7 @@
       <c r="G796" s="1"/>
       <c r="H796" s="1"/>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A797" s="1"/>
       <c r="B797" s="2"/>
       <c r="C797" s="1"/>
@@ -8544,7 +8548,7 @@
       <c r="G797" s="1"/>
       <c r="H797" s="1"/>
     </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A798" s="1"/>
       <c r="B798" s="2"/>
       <c r="C798" s="1"/>
@@ -8554,7 +8558,7 @@
       <c r="G798" s="1"/>
       <c r="H798" s="1"/>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A799" s="1"/>
       <c r="B799" s="2"/>
       <c r="C799" s="1"/>
@@ -8564,7 +8568,7 @@
       <c r="G799" s="1"/>
       <c r="H799" s="1"/>
     </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A800" s="1"/>
       <c r="B800" s="2"/>
       <c r="C800" s="1"/>
@@ -8574,7 +8578,7 @@
       <c r="G800" s="1"/>
       <c r="H800" s="1"/>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A801" s="1"/>
       <c r="B801" s="2"/>
       <c r="C801" s="1"/>
@@ -8584,7 +8588,7 @@
       <c r="G801" s="1"/>
       <c r="H801" s="1"/>
     </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A802" s="1"/>
       <c r="B802" s="2"/>
       <c r="C802" s="1"/>
@@ -8594,7 +8598,7 @@
       <c r="G802" s="1"/>
       <c r="H802" s="1"/>
     </row>
-    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A803" s="1"/>
       <c r="B803" s="2"/>
       <c r="C803" s="1"/>
@@ -8604,7 +8608,7 @@
       <c r="G803" s="1"/>
       <c r="H803" s="1"/>
     </row>
-    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A804" s="1"/>
       <c r="B804" s="2"/>
       <c r="C804" s="1"/>
@@ -8614,7 +8618,7 @@
       <c r="G804" s="1"/>
       <c r="H804" s="1"/>
     </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A805" s="1"/>
       <c r="B805" s="2"/>
       <c r="C805" s="1"/>
@@ -8624,7 +8628,7 @@
       <c r="G805" s="1"/>
       <c r="H805" s="1"/>
     </row>
-    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A806" s="1"/>
       <c r="B806" s="2"/>
       <c r="C806" s="1"/>
@@ -8634,7 +8638,7 @@
       <c r="G806" s="1"/>
       <c r="H806" s="1"/>
     </row>
-    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A807" s="1"/>
       <c r="B807" s="2"/>
       <c r="C807" s="1"/>
@@ -8644,7 +8648,7 @@
       <c r="G807" s="1"/>
       <c r="H807" s="1"/>
     </row>
-    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A808" s="1"/>
       <c r="B808" s="2"/>
       <c r="C808" s="1"/>
@@ -8654,7 +8658,7 @@
       <c r="G808" s="1"/>
       <c r="H808" s="1"/>
     </row>
-    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A809" s="1"/>
       <c r="B809" s="2"/>
       <c r="C809" s="1"/>
@@ -8664,7 +8668,7 @@
       <c r="G809" s="1"/>
       <c r="H809" s="1"/>
     </row>
-    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A810" s="1"/>
       <c r="B810" s="2"/>
       <c r="C810" s="1"/>
@@ -8674,7 +8678,7 @@
       <c r="G810" s="1"/>
       <c r="H810" s="1"/>
     </row>
-    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A811" s="1"/>
       <c r="B811" s="2"/>
       <c r="C811" s="1"/>
@@ -8684,7 +8688,7 @@
       <c r="G811" s="1"/>
       <c r="H811" s="1"/>
     </row>
-    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A812" s="1"/>
       <c r="B812" s="2"/>
       <c r="C812" s="1"/>
@@ -8694,7 +8698,7 @@
       <c r="G812" s="1"/>
       <c r="H812" s="1"/>
     </row>
-    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A813" s="1"/>
       <c r="B813" s="2"/>
       <c r="C813" s="1"/>
@@ -8704,7 +8708,7 @@
       <c r="G813" s="1"/>
       <c r="H813" s="1"/>
     </row>
-    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A814" s="1"/>
       <c r="B814" s="2"/>
       <c r="C814" s="1"/>
@@ -8714,7 +8718,7 @@
       <c r="G814" s="1"/>
       <c r="H814" s="1"/>
     </row>
-    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A815" s="1"/>
       <c r="B815" s="2"/>
       <c r="C815" s="1"/>
@@ -8724,7 +8728,7 @@
       <c r="G815" s="1"/>
       <c r="H815" s="1"/>
     </row>
-    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A816" s="1"/>
       <c r="B816" s="2"/>
       <c r="C816" s="1"/>
@@ -8734,7 +8738,7 @@
       <c r="G816" s="1"/>
       <c r="H816" s="1"/>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A817" s="1"/>
       <c r="B817" s="2"/>
       <c r="C817" s="1"/>
@@ -8744,7 +8748,7 @@
       <c r="G817" s="1"/>
       <c r="H817" s="1"/>
     </row>
-    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A818" s="1"/>
       <c r="B818" s="2"/>
       <c r="C818" s="1"/>
@@ -8754,7 +8758,7 @@
       <c r="G818" s="1"/>
       <c r="H818" s="1"/>
     </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A819" s="1"/>
       <c r="B819" s="2"/>
       <c r="C819" s="1"/>
@@ -8764,7 +8768,7 @@
       <c r="G819" s="1"/>
       <c r="H819" s="1"/>
     </row>
-    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A820" s="1"/>
       <c r="B820" s="2"/>
       <c r="C820" s="1"/>
@@ -8774,7 +8778,7 @@
       <c r="G820" s="1"/>
       <c r="H820" s="1"/>
     </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A821" s="1"/>
       <c r="B821" s="2"/>
       <c r="C821" s="1"/>
@@ -8784,7 +8788,7 @@
       <c r="G821" s="1"/>
       <c r="H821" s="1"/>
     </row>
-    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A822" s="1"/>
       <c r="B822" s="2"/>
       <c r="C822" s="1"/>
@@ -8794,7 +8798,7 @@
       <c r="G822" s="1"/>
       <c r="H822" s="1"/>
     </row>
-    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A823" s="1"/>
       <c r="B823" s="2"/>
       <c r="C823" s="1"/>
@@ -8804,7 +8808,7 @@
       <c r="G823" s="1"/>
       <c r="H823" s="1"/>
     </row>
-    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A824" s="1"/>
       <c r="B824" s="2"/>
       <c r="C824" s="1"/>
@@ -8814,7 +8818,7 @@
       <c r="G824" s="1"/>
       <c r="H824" s="1"/>
     </row>
-    <row r="825" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A825" s="1"/>
       <c r="B825" s="2"/>
       <c r="C825" s="1"/>
@@ -8824,7 +8828,7 @@
       <c r="G825" s="1"/>
       <c r="H825" s="1"/>
     </row>
-    <row r="826" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A826" s="1"/>
       <c r="B826" s="2"/>
       <c r="C826" s="1"/>
@@ -8834,7 +8838,7 @@
       <c r="G826" s="1"/>
       <c r="H826" s="1"/>
     </row>
-    <row r="827" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A827" s="1"/>
       <c r="B827" s="2"/>
       <c r="C827" s="1"/>
@@ -8844,7 +8848,7 @@
       <c r="G827" s="1"/>
       <c r="H827" s="1"/>
     </row>
-    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A828" s="1"/>
       <c r="B828" s="2"/>
       <c r="C828" s="1"/>
@@ -8854,7 +8858,7 @@
       <c r="G828" s="1"/>
       <c r="H828" s="1"/>
     </row>
-    <row r="829" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A829" s="1"/>
       <c r="B829" s="2"/>
       <c r="C829" s="1"/>
@@ -8864,7 +8868,7 @@
       <c r="G829" s="1"/>
       <c r="H829" s="1"/>
     </row>
-    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A830" s="1"/>
       <c r="B830" s="2"/>
       <c r="C830" s="1"/>
@@ -8874,7 +8878,7 @@
       <c r="G830" s="1"/>
       <c r="H830" s="1"/>
     </row>
-    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A831" s="1"/>
       <c r="B831" s="2"/>
       <c r="C831" s="1"/>
@@ -8884,7 +8888,7 @@
       <c r="G831" s="1"/>
       <c r="H831" s="1"/>
     </row>
-    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A832" s="1"/>
       <c r="B832" s="2"/>
       <c r="C832" s="1"/>
@@ -8894,7 +8898,7 @@
       <c r="G832" s="1"/>
       <c r="H832" s="1"/>
     </row>
-    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A833" s="1"/>
       <c r="B833" s="2"/>
       <c r="C833" s="1"/>
@@ -8904,7 +8908,7 @@
       <c r="G833" s="1"/>
       <c r="H833" s="1"/>
     </row>
-    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A834" s="1"/>
       <c r="B834" s="2"/>
       <c r="C834" s="1"/>
@@ -8914,7 +8918,7 @@
       <c r="G834" s="1"/>
       <c r="H834" s="1"/>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A835" s="1"/>
       <c r="B835" s="2"/>
       <c r="C835" s="1"/>
@@ -8924,7 +8928,7 @@
       <c r="G835" s="1"/>
       <c r="H835" s="1"/>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A836" s="1"/>
       <c r="B836" s="2"/>
       <c r="C836" s="1"/>
@@ -8934,7 +8938,7 @@
       <c r="G836" s="1"/>
       <c r="H836" s="1"/>
     </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A837" s="1"/>
       <c r="B837" s="2"/>
       <c r="C837" s="1"/>
@@ -8944,7 +8948,7 @@
       <c r="G837" s="1"/>
       <c r="H837" s="1"/>
     </row>
-    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A838" s="1"/>
       <c r="B838" s="2"/>
       <c r="C838" s="1"/>
@@ -8954,7 +8958,7 @@
       <c r="G838" s="1"/>
       <c r="H838" s="1"/>
     </row>
-    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A839" s="1"/>
       <c r="B839" s="2"/>
       <c r="C839" s="1"/>
@@ -8964,7 +8968,7 @@
       <c r="G839" s="1"/>
       <c r="H839" s="1"/>
     </row>
-    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A840" s="1"/>
       <c r="B840" s="2"/>
       <c r="C840" s="1"/>
@@ -8974,7 +8978,7 @@
       <c r="G840" s="1"/>
       <c r="H840" s="1"/>
     </row>
-    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A841" s="1"/>
       <c r="B841" s="2"/>
       <c r="C841" s="1"/>
@@ -8984,7 +8988,7 @@
       <c r="G841" s="1"/>
       <c r="H841" s="1"/>
     </row>
-    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A842" s="1"/>
       <c r="B842" s="2"/>
       <c r="C842" s="1"/>
@@ -8994,7 +8998,7 @@
       <c r="G842" s="1"/>
       <c r="H842" s="1"/>
     </row>
-    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A843" s="1"/>
       <c r="B843" s="2"/>
       <c r="C843" s="1"/>
@@ -9004,7 +9008,7 @@
       <c r="G843" s="1"/>
       <c r="H843" s="1"/>
     </row>
-    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A844" s="1"/>
       <c r="B844" s="2"/>
       <c r="C844" s="1"/>
@@ -9014,7 +9018,7 @@
       <c r="G844" s="1"/>
       <c r="H844" s="1"/>
     </row>
-    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A845" s="1"/>
       <c r="B845" s="2"/>
       <c r="C845" s="1"/>
@@ -9024,7 +9028,7 @@
       <c r="G845" s="1"/>
       <c r="H845" s="1"/>
     </row>
-    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A846" s="1"/>
       <c r="B846" s="2"/>
       <c r="C846" s="1"/>
@@ -9034,7 +9038,7 @@
       <c r="G846" s="1"/>
       <c r="H846" s="1"/>
     </row>
-    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A847" s="1"/>
       <c r="B847" s="2"/>
       <c r="C847" s="1"/>
@@ -9044,7 +9048,7 @@
       <c r="G847" s="1"/>
       <c r="H847" s="1"/>
     </row>
-    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A848" s="1"/>
       <c r="B848" s="2"/>
       <c r="C848" s="1"/>
@@ -9054,7 +9058,7 @@
       <c r="G848" s="1"/>
       <c r="H848" s="1"/>
     </row>
-    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A849" s="1"/>
       <c r="B849" s="2"/>
       <c r="C849" s="1"/>
@@ -9064,7 +9068,7 @@
       <c r="G849" s="1"/>
       <c r="H849" s="1"/>
     </row>
-    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A850" s="1"/>
       <c r="B850" s="2"/>
       <c r="C850" s="1"/>
@@ -9074,7 +9078,7 @@
       <c r="G850" s="1"/>
       <c r="H850" s="1"/>
     </row>
-    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A851" s="1"/>
       <c r="B851" s="2"/>
       <c r="C851" s="1"/>
@@ -9084,7 +9088,7 @@
       <c r="G851" s="1"/>
       <c r="H851" s="1"/>
     </row>
-    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A852" s="1"/>
       <c r="B852" s="2"/>
       <c r="C852" s="1"/>
@@ -9094,7 +9098,7 @@
       <c r="G852" s="1"/>
       <c r="H852" s="1"/>
     </row>
-    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A853" s="1"/>
       <c r="B853" s="2"/>
       <c r="C853" s="1"/>
@@ -9104,7 +9108,7 @@
       <c r="G853" s="1"/>
       <c r="H853" s="1"/>
     </row>
-    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A854" s="1"/>
       <c r="B854" s="2"/>
       <c r="C854" s="1"/>
@@ -9114,7 +9118,7 @@
       <c r="G854" s="1"/>
       <c r="H854" s="1"/>
     </row>
-    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A855" s="1"/>
       <c r="B855" s="2"/>
       <c r="C855" s="1"/>
@@ -9124,7 +9128,7 @@
       <c r="G855" s="1"/>
       <c r="H855" s="1"/>
     </row>
-    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A856" s="1"/>
       <c r="B856" s="2"/>
       <c r="C856" s="1"/>
@@ -9134,7 +9138,7 @@
       <c r="G856" s="1"/>
       <c r="H856" s="1"/>
     </row>
-    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A857" s="1"/>
       <c r="B857" s="2"/>
       <c r="C857" s="1"/>
@@ -9144,7 +9148,7 @@
       <c r="G857" s="1"/>
       <c r="H857" s="1"/>
     </row>
-    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A858" s="1"/>
       <c r="B858" s="2"/>
       <c r="C858" s="1"/>
@@ -9154,7 +9158,7 @@
       <c r="G858" s="1"/>
       <c r="H858" s="1"/>
     </row>
-    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A859" s="1"/>
       <c r="B859" s="2"/>
       <c r="C859" s="1"/>
@@ -9164,7 +9168,7 @@
       <c r="G859" s="1"/>
       <c r="H859" s="1"/>
     </row>
-    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A860" s="1"/>
       <c r="B860" s="2"/>
       <c r="C860" s="1"/>
@@ -9174,7 +9178,7 @@
       <c r="G860" s="1"/>
       <c r="H860" s="1"/>
     </row>
-    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A861" s="1"/>
       <c r="B861" s="2"/>
       <c r="C861" s="1"/>
@@ -9184,7 +9188,7 @@
       <c r="G861" s="1"/>
       <c r="H861" s="1"/>
     </row>
-    <row r="862" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A862" s="1"/>
       <c r="B862" s="2"/>
       <c r="C862" s="1"/>
@@ -9194,7 +9198,7 @@
       <c r="G862" s="1"/>
       <c r="H862" s="1"/>
     </row>
-    <row r="863" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A863" s="1"/>
       <c r="B863" s="2"/>
       <c r="C863" s="1"/>
@@ -9204,7 +9208,7 @@
       <c r="G863" s="1"/>
       <c r="H863" s="1"/>
     </row>
-    <row r="864" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A864" s="1"/>
       <c r="B864" s="2"/>
       <c r="C864" s="1"/>
@@ -9214,7 +9218,7 @@
       <c r="G864" s="1"/>
       <c r="H864" s="1"/>
     </row>
-    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A865" s="1"/>
       <c r="B865" s="2"/>
       <c r="C865" s="1"/>
@@ -9224,7 +9228,7 @@
       <c r="G865" s="1"/>
       <c r="H865" s="1"/>
     </row>
-    <row r="866" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A866" s="1"/>
       <c r="B866" s="2"/>
       <c r="C866" s="1"/>
@@ -9234,7 +9238,7 @@
       <c r="G866" s="1"/>
       <c r="H866" s="1"/>
     </row>
-    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A867" s="1"/>
       <c r="B867" s="2"/>
       <c r="C867" s="1"/>
@@ -9244,7 +9248,7 @@
       <c r="G867" s="1"/>
       <c r="H867" s="1"/>
     </row>
-    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A868" s="1"/>
       <c r="B868" s="2"/>
       <c r="C868" s="1"/>
@@ -9254,7 +9258,7 @@
       <c r="G868" s="1"/>
       <c r="H868" s="1"/>
     </row>
-    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A869" s="1"/>
       <c r="B869" s="2"/>
       <c r="C869" s="1"/>
@@ -9264,7 +9268,7 @@
       <c r="G869" s="1"/>
       <c r="H869" s="1"/>
     </row>
-    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A870" s="1"/>
       <c r="B870" s="2"/>
       <c r="C870" s="1"/>
@@ -9274,7 +9278,7 @@
       <c r="G870" s="1"/>
       <c r="H870" s="1"/>
     </row>
-    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A871" s="1"/>
       <c r="B871" s="2"/>
       <c r="C871" s="1"/>
@@ -9284,7 +9288,7 @@
       <c r="G871" s="1"/>
       <c r="H871" s="1"/>
     </row>
-    <row r="872" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A872" s="1"/>
       <c r="B872" s="2"/>
       <c r="C872" s="1"/>
@@ -9294,7 +9298,7 @@
       <c r="G872" s="1"/>
       <c r="H872" s="1"/>
     </row>
-    <row r="873" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A873" s="1"/>
       <c r="B873" s="2"/>
       <c r="C873" s="1"/>
@@ -9304,7 +9308,7 @@
       <c r="G873" s="1"/>
       <c r="H873" s="1"/>
     </row>
-    <row r="874" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A874" s="1"/>
       <c r="B874" s="2"/>
       <c r="C874" s="1"/>
@@ -9314,7 +9318,7 @@
       <c r="G874" s="1"/>
       <c r="H874" s="1"/>
     </row>
-    <row r="875" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A875" s="1"/>
       <c r="B875" s="2"/>
       <c r="C875" s="1"/>
@@ -9324,7 +9328,7 @@
       <c r="G875" s="1"/>
       <c r="H875" s="1"/>
     </row>
-    <row r="876" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A876" s="1"/>
       <c r="B876" s="2"/>
       <c r="C876" s="1"/>
@@ -9334,7 +9338,7 @@
       <c r="G876" s="1"/>
       <c r="H876" s="1"/>
     </row>
-    <row r="877" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A877" s="1"/>
       <c r="B877" s="2"/>
       <c r="C877" s="1"/>
@@ -9344,7 +9348,7 @@
       <c r="G877" s="1"/>
       <c r="H877" s="1"/>
     </row>
-    <row r="878" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A878" s="1"/>
       <c r="B878" s="2"/>
       <c r="C878" s="1"/>
@@ -9354,7 +9358,7 @@
       <c r="G878" s="1"/>
       <c r="H878" s="1"/>
     </row>
-    <row r="879" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A879" s="1"/>
       <c r="B879" s="2"/>
       <c r="C879" s="1"/>
@@ -9364,7 +9368,7 @@
       <c r="G879" s="1"/>
       <c r="H879" s="1"/>
     </row>
-    <row r="880" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A880" s="1"/>
       <c r="B880" s="2"/>
       <c r="C880" s="1"/>
@@ -9374,7 +9378,7 @@
       <c r="G880" s="1"/>
       <c r="H880" s="1"/>
     </row>
-    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A881" s="1"/>
       <c r="B881" s="2"/>
       <c r="C881" s="1"/>
@@ -9384,7 +9388,7 @@
       <c r="G881" s="1"/>
       <c r="H881" s="1"/>
     </row>
-    <row r="882" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A882" s="1"/>
       <c r="B882" s="2"/>
       <c r="C882" s="1"/>
@@ -9394,7 +9398,7 @@
       <c r="G882" s="1"/>
       <c r="H882" s="1"/>
     </row>
-    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A883" s="1"/>
       <c r="B883" s="2"/>
       <c r="C883" s="1"/>
@@ -9404,7 +9408,7 @@
       <c r="G883" s="1"/>
       <c r="H883" s="1"/>
     </row>
-    <row r="884" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A884" s="1"/>
       <c r="B884" s="2"/>
       <c r="C884" s="1"/>
@@ -9414,7 +9418,7 @@
       <c r="G884" s="1"/>
       <c r="H884" s="1"/>
     </row>
-    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A885" s="1"/>
       <c r="B885" s="2"/>
       <c r="C885" s="1"/>
@@ -9424,7 +9428,7 @@
       <c r="G885" s="1"/>
       <c r="H885" s="1"/>
     </row>
-    <row r="886" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A886" s="1"/>
       <c r="B886" s="2"/>
       <c r="C886" s="1"/>
@@ -9434,7 +9438,7 @@
       <c r="G886" s="1"/>
       <c r="H886" s="1"/>
     </row>
-    <row r="887" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A887" s="1"/>
       <c r="B887" s="2"/>
       <c r="C887" s="1"/>
@@ -9444,7 +9448,7 @@
       <c r="G887" s="1"/>
       <c r="H887" s="1"/>
     </row>
-    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A888" s="1"/>
       <c r="B888" s="2"/>
       <c r="C888" s="1"/>
@@ -9454,7 +9458,7 @@
       <c r="G888" s="1"/>
       <c r="H888" s="1"/>
     </row>
-    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A889" s="1"/>
       <c r="B889" s="2"/>
       <c r="C889" s="1"/>
@@ -9464,7 +9468,7 @@
       <c r="G889" s="1"/>
       <c r="H889" s="1"/>
     </row>
-    <row r="890" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A890" s="1"/>
       <c r="B890" s="2"/>
       <c r="C890" s="1"/>
@@ -9474,7 +9478,7 @@
       <c r="G890" s="1"/>
       <c r="H890" s="1"/>
     </row>
-    <row r="891" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A891" s="1"/>
       <c r="B891" s="2"/>
       <c r="C891" s="1"/>
@@ -9484,7 +9488,7 @@
       <c r="G891" s="1"/>
       <c r="H891" s="1"/>
     </row>
-    <row r="892" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A892" s="1"/>
       <c r="B892" s="2"/>
       <c r="C892" s="1"/>
@@ -9494,7 +9498,7 @@
       <c r="G892" s="1"/>
       <c r="H892" s="1"/>
     </row>
-    <row r="893" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A893" s="1"/>
       <c r="B893" s="2"/>
       <c r="C893" s="1"/>
@@ -9504,7 +9508,7 @@
       <c r="G893" s="1"/>
       <c r="H893" s="1"/>
     </row>
-    <row r="894" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A894" s="1"/>
       <c r="B894" s="2"/>
       <c r="C894" s="1"/>
@@ -9514,7 +9518,7 @@
       <c r="G894" s="1"/>
       <c r="H894" s="1"/>
     </row>
-    <row r="895" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A895" s="1"/>
       <c r="B895" s="2"/>
       <c r="C895" s="1"/>
@@ -9524,7 +9528,7 @@
       <c r="G895" s="1"/>
       <c r="H895" s="1"/>
     </row>
-    <row r="896" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A896" s="1"/>
       <c r="B896" s="2"/>
       <c r="C896" s="1"/>
@@ -9534,7 +9538,7 @@
       <c r="G896" s="1"/>
       <c r="H896" s="1"/>
     </row>
-    <row r="897" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A897" s="1"/>
       <c r="B897" s="2"/>
       <c r="C897" s="1"/>
@@ -9544,7 +9548,7 @@
       <c r="G897" s="1"/>
       <c r="H897" s="1"/>
     </row>
-    <row r="898" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A898" s="1"/>
       <c r="B898" s="2"/>
       <c r="C898" s="1"/>
@@ -9554,7 +9558,7 @@
       <c r="G898" s="1"/>
       <c r="H898" s="1"/>
     </row>
-    <row r="899" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A899" s="1"/>
       <c r="B899" s="2"/>
       <c r="C899" s="1"/>
@@ -9564,7 +9568,7 @@
       <c r="G899" s="1"/>
       <c r="H899" s="1"/>
     </row>
-    <row r="900" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A900" s="1"/>
       <c r="B900" s="2"/>
       <c r="C900" s="1"/>
@@ -9574,7 +9578,7 @@
       <c r="G900" s="1"/>
       <c r="H900" s="1"/>
     </row>
-    <row r="901" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A901" s="1"/>
       <c r="B901" s="2"/>
       <c r="C901" s="1"/>
@@ -9584,7 +9588,7 @@
       <c r="G901" s="1"/>
       <c r="H901" s="1"/>
     </row>
-    <row r="902" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A902" s="1"/>
       <c r="B902" s="2"/>
       <c r="C902" s="1"/>
@@ -9594,7 +9598,7 @@
       <c r="G902" s="1"/>
       <c r="H902" s="1"/>
     </row>
-    <row r="903" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A903" s="1"/>
       <c r="B903" s="2"/>
       <c r="C903" s="1"/>
@@ -9604,7 +9608,7 @@
       <c r="G903" s="1"/>
       <c r="H903" s="1"/>
     </row>
-    <row r="904" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A904" s="1"/>
       <c r="B904" s="2"/>
       <c r="C904" s="1"/>
@@ -9614,7 +9618,7 @@
       <c r="G904" s="1"/>
       <c r="H904" s="1"/>
     </row>
-    <row r="905" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A905" s="1"/>
       <c r="B905" s="2"/>
       <c r="C905" s="1"/>
@@ -9624,7 +9628,7 @@
       <c r="G905" s="1"/>
       <c r="H905" s="1"/>
     </row>
-    <row r="906" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A906" s="1"/>
       <c r="B906" s="2"/>
       <c r="C906" s="1"/>
@@ -9634,7 +9638,7 @@
       <c r="G906" s="1"/>
       <c r="H906" s="1"/>
     </row>
-    <row r="907" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A907" s="1"/>
       <c r="B907" s="2"/>
       <c r="C907" s="1"/>
@@ -9644,7 +9648,7 @@
       <c r="G907" s="1"/>
       <c r="H907" s="1"/>
     </row>
-    <row r="908" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A908" s="1"/>
       <c r="B908" s="2"/>
       <c r="C908" s="1"/>
@@ -9654,7 +9658,7 @@
       <c r="G908" s="1"/>
       <c r="H908" s="1"/>
     </row>
-    <row r="909" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A909" s="1"/>
       <c r="B909" s="2"/>
       <c r="C909" s="1"/>
@@ -9664,7 +9668,7 @@
       <c r="G909" s="1"/>
       <c r="H909" s="1"/>
     </row>
-    <row r="910" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A910" s="1"/>
       <c r="B910" s="2"/>
       <c r="C910" s="1"/>
@@ -9674,7 +9678,7 @@
       <c r="G910" s="1"/>
       <c r="H910" s="1"/>
     </row>
-    <row r="911" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A911" s="1"/>
       <c r="B911" s="2"/>
       <c r="C911" s="1"/>
@@ -9684,7 +9688,7 @@
       <c r="G911" s="1"/>
       <c r="H911" s="1"/>
     </row>
-    <row r="912" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A912" s="1"/>
       <c r="B912" s="2"/>
       <c r="C912" s="1"/>
@@ -9694,7 +9698,7 @@
       <c r="G912" s="1"/>
       <c r="H912" s="1"/>
     </row>
-    <row r="913" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A913" s="1"/>
       <c r="B913" s="2"/>
       <c r="C913" s="1"/>
@@ -9704,7 +9708,7 @@
       <c r="G913" s="1"/>
       <c r="H913" s="1"/>
     </row>
-    <row r="914" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A914" s="1"/>
       <c r="B914" s="2"/>
       <c r="C914" s="1"/>
@@ -9714,7 +9718,7 @@
       <c r="G914" s="1"/>
       <c r="H914" s="1"/>
     </row>
-    <row r="915" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A915" s="1"/>
       <c r="B915" s="2"/>
       <c r="C915" s="1"/>
@@ -9724,7 +9728,7 @@
       <c r="G915" s="1"/>
       <c r="H915" s="1"/>
     </row>
-    <row r="916" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A916" s="1"/>
       <c r="B916" s="2"/>
       <c r="C916" s="1"/>
@@ -9734,7 +9738,7 @@
       <c r="G916" s="1"/>
       <c r="H916" s="1"/>
     </row>
-    <row r="917" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A917" s="1"/>
       <c r="B917" s="2"/>
       <c r="C917" s="1"/>
@@ -9744,7 +9748,7 @@
       <c r="G917" s="1"/>
       <c r="H917" s="1"/>
     </row>
-    <row r="918" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A918" s="1"/>
       <c r="B918" s="2"/>
       <c r="C918" s="1"/>
@@ -9754,7 +9758,7 @@
       <c r="G918" s="1"/>
       <c r="H918" s="1"/>
     </row>
-    <row r="919" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A919" s="1"/>
       <c r="B919" s="2"/>
       <c r="C919" s="1"/>
@@ -9764,7 +9768,7 @@
       <c r="G919" s="1"/>
       <c r="H919" s="1"/>
     </row>
-    <row r="920" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A920" s="1"/>
       <c r="B920" s="2"/>
       <c r="C920" s="1"/>
@@ -9774,7 +9778,7 @@
       <c r="G920" s="1"/>
       <c r="H920" s="1"/>
     </row>
-    <row r="921" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A921" s="1"/>
       <c r="B921" s="2"/>
       <c r="C921" s="1"/>
@@ -9784,7 +9788,7 @@
       <c r="G921" s="1"/>
       <c r="H921" s="1"/>
     </row>
-    <row r="922" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A922" s="1"/>
       <c r="B922" s="2"/>
       <c r="C922" s="1"/>
@@ -9794,7 +9798,7 @@
       <c r="G922" s="1"/>
       <c r="H922" s="1"/>
     </row>
-    <row r="923" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A923" s="1"/>
       <c r="B923" s="2"/>
       <c r="C923" s="1"/>
@@ -9804,7 +9808,7 @@
       <c r="G923" s="1"/>
       <c r="H923" s="1"/>
     </row>
-    <row r="924" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A924" s="1"/>
       <c r="B924" s="2"/>
       <c r="C924" s="1"/>
@@ -9814,7 +9818,7 @@
       <c r="G924" s="1"/>
       <c r="H924" s="1"/>
     </row>
-    <row r="925" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A925" s="1"/>
       <c r="B925" s="2"/>
       <c r="C925" s="1"/>
@@ -9824,7 +9828,7 @@
       <c r="G925" s="1"/>
       <c r="H925" s="1"/>
     </row>
-    <row r="926" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A926" s="1"/>
       <c r="B926" s="2"/>
       <c r="C926" s="1"/>
@@ -9834,7 +9838,7 @@
       <c r="G926" s="1"/>
       <c r="H926" s="1"/>
     </row>
-    <row r="927" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A927" s="1"/>
       <c r="B927" s="2"/>
       <c r="C927" s="1"/>
@@ -9844,7 +9848,7 @@
       <c r="G927" s="1"/>
       <c r="H927" s="1"/>
     </row>
-    <row r="928" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A928" s="1"/>
       <c r="B928" s="2"/>
       <c r="C928" s="1"/>
@@ -9854,7 +9858,7 @@
       <c r="G928" s="1"/>
       <c r="H928" s="1"/>
     </row>
-    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A929" s="1"/>
       <c r="B929" s="2"/>
       <c r="C929" s="1"/>
@@ -9864,7 +9868,7 @@
       <c r="G929" s="1"/>
       <c r="H929" s="1"/>
     </row>
-    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A930" s="1"/>
       <c r="B930" s="2"/>
       <c r="C930" s="1"/>
@@ -9874,7 +9878,7 @@
       <c r="G930" s="1"/>
       <c r="H930" s="1"/>
     </row>
-    <row r="931" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A931" s="1"/>
       <c r="B931" s="2"/>
       <c r="C931" s="1"/>
@@ -9884,7 +9888,7 @@
       <c r="G931" s="1"/>
       <c r="H931" s="1"/>
     </row>
-    <row r="932" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A932" s="1"/>
       <c r="B932" s="2"/>
       <c r="C932" s="1"/>
@@ -9894,7 +9898,7 @@
       <c r="G932" s="1"/>
       <c r="H932" s="1"/>
     </row>
-    <row r="933" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A933" s="1"/>
       <c r="B933" s="2"/>
       <c r="C933" s="1"/>
@@ -9904,7 +9908,7 @@
       <c r="G933" s="1"/>
       <c r="H933" s="1"/>
     </row>
-    <row r="934" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A934" s="1"/>
       <c r="B934" s="2"/>
       <c r="C934" s="1"/>
@@ -9914,7 +9918,7 @@
       <c r="G934" s="1"/>
       <c r="H934" s="1"/>
     </row>
-    <row r="935" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A935" s="1"/>
       <c r="B935" s="2"/>
       <c r="C935" s="1"/>
@@ -9924,7 +9928,7 @@
       <c r="G935" s="1"/>
       <c r="H935" s="1"/>
     </row>
-    <row r="936" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A936" s="1"/>
       <c r="B936" s="2"/>
       <c r="C936" s="1"/>
@@ -9934,7 +9938,7 @@
       <c r="G936" s="1"/>
       <c r="H936" s="1"/>
     </row>
-    <row r="937" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A937" s="1"/>
       <c r="B937" s="2"/>
       <c r="C937" s="1"/>
@@ -9944,7 +9948,7 @@
       <c r="G937" s="1"/>
       <c r="H937" s="1"/>
     </row>
-    <row r="938" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A938" s="1"/>
       <c r="B938" s="2"/>
       <c r="C938" s="1"/>
@@ -9954,7 +9958,7 @@
       <c r="G938" s="1"/>
       <c r="H938" s="1"/>
     </row>
-    <row r="939" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A939" s="1"/>
       <c r="B939" s="2"/>
       <c r="C939" s="1"/>
@@ -9964,7 +9968,7 @@
       <c r="G939" s="1"/>
       <c r="H939" s="1"/>
     </row>
-    <row r="940" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A940" s="1"/>
       <c r="B940" s="2"/>
       <c r="C940" s="1"/>
@@ -9974,7 +9978,7 @@
       <c r="G940" s="1"/>
       <c r="H940" s="1"/>
     </row>
-    <row r="941" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A941" s="1"/>
       <c r="B941" s="2"/>
       <c r="C941" s="1"/>
@@ -9984,7 +9988,7 @@
       <c r="G941" s="1"/>
       <c r="H941" s="1"/>
     </row>
-    <row r="942" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A942" s="1"/>
       <c r="B942" s="2"/>
       <c r="C942" s="1"/>
@@ -9994,7 +9998,7 @@
       <c r="G942" s="1"/>
       <c r="H942" s="1"/>
     </row>
-    <row r="943" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A943" s="1"/>
       <c r="B943" s="2"/>
       <c r="C943" s="1"/>
@@ -10004,7 +10008,7 @@
       <c r="G943" s="1"/>
       <c r="H943" s="1"/>
     </row>
-    <row r="944" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A944" s="1"/>
       <c r="B944" s="2"/>
       <c r="C944" s="1"/>
@@ -10014,7 +10018,7 @@
       <c r="G944" s="1"/>
       <c r="H944" s="1"/>
     </row>
-    <row r="945" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A945" s="1"/>
       <c r="B945" s="2"/>
       <c r="C945" s="1"/>
@@ -10024,7 +10028,7 @@
       <c r="G945" s="1"/>
       <c r="H945" s="1"/>
     </row>
-    <row r="946" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A946" s="1"/>
       <c r="B946" s="2"/>
       <c r="C946" s="1"/>
@@ -10034,7 +10038,7 @@
       <c r="G946" s="1"/>
       <c r="H946" s="1"/>
     </row>
-    <row r="947" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A947" s="1"/>
       <c r="B947" s="2"/>
       <c r="C947" s="1"/>
@@ -10044,7 +10048,7 @@
       <c r="G947" s="1"/>
       <c r="H947" s="1"/>
     </row>
-    <row r="948" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A948" s="1"/>
       <c r="B948" s="2"/>
       <c r="C948" s="1"/>
@@ -10054,7 +10058,7 @@
       <c r="G948" s="1"/>
       <c r="H948" s="1"/>
     </row>
-    <row r="949" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A949" s="1"/>
       <c r="B949" s="2"/>
       <c r="C949" s="1"/>
@@ -10064,7 +10068,7 @@
       <c r="G949" s="1"/>
       <c r="H949" s="1"/>
     </row>
-    <row r="950" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A950" s="1"/>
       <c r="B950" s="2"/>
       <c r="C950" s="1"/>
@@ -10074,7 +10078,7 @@
       <c r="G950" s="1"/>
       <c r="H950" s="1"/>
     </row>
-    <row r="951" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A951" s="1"/>
       <c r="B951" s="2"/>
       <c r="C951" s="1"/>
@@ -10084,7 +10088,7 @@
       <c r="G951" s="1"/>
       <c r="H951" s="1"/>
     </row>
-    <row r="952" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A952" s="1"/>
       <c r="B952" s="2"/>
       <c r="C952" s="1"/>
@@ -10094,7 +10098,7 @@
       <c r="G952" s="1"/>
       <c r="H952" s="1"/>
     </row>
-    <row r="953" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A953" s="1"/>
       <c r="B953" s="2"/>
       <c r="C953" s="1"/>
@@ -10104,7 +10108,7 @@
       <c r="G953" s="1"/>
       <c r="H953" s="1"/>
     </row>
-    <row r="954" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A954" s="1"/>
       <c r="B954" s="2"/>
       <c r="C954" s="1"/>
@@ -10114,7 +10118,7 @@
       <c r="G954" s="1"/>
       <c r="H954" s="1"/>
     </row>
-    <row r="955" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A955" s="1"/>
       <c r="B955" s="2"/>
       <c r="C955" s="1"/>
@@ -10124,7 +10128,7 @@
       <c r="G955" s="1"/>
       <c r="H955" s="1"/>
     </row>
-    <row r="956" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A956" s="1"/>
       <c r="B956" s="2"/>
       <c r="C956" s="1"/>
@@ -10134,7 +10138,7 @@
       <c r="G956" s="1"/>
       <c r="H956" s="1"/>
     </row>
-    <row r="957" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A957" s="1"/>
       <c r="B957" s="2"/>
       <c r="C957" s="1"/>
@@ -10144,7 +10148,7 @@
       <c r="G957" s="1"/>
       <c r="H957" s="1"/>
     </row>
-    <row r="958" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A958" s="1"/>
       <c r="B958" s="2"/>
       <c r="C958" s="1"/>
@@ -10154,7 +10158,7 @@
       <c r="G958" s="1"/>
       <c r="H958" s="1"/>
     </row>
-    <row r="959" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A959" s="1"/>
       <c r="B959" s="2"/>
       <c r="C959" s="1"/>
@@ -10164,7 +10168,7 @@
       <c r="G959" s="1"/>
       <c r="H959" s="1"/>
     </row>
-    <row r="960" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A960" s="1"/>
       <c r="B960" s="2"/>
       <c r="C960" s="1"/>
@@ -10174,7 +10178,7 @@
       <c r="G960" s="1"/>
       <c r="H960" s="1"/>
     </row>
-    <row r="961" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A961" s="1"/>
       <c r="B961" s="2"/>
       <c r="C961" s="1"/>
@@ -10184,7 +10188,7 @@
       <c r="G961" s="1"/>
       <c r="H961" s="1"/>
     </row>
-    <row r="962" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A962" s="1"/>
       <c r="B962" s="2"/>
       <c r="C962" s="1"/>
@@ -10194,7 +10198,7 @@
       <c r="G962" s="1"/>
       <c r="H962" s="1"/>
     </row>
-    <row r="963" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A963" s="1"/>
       <c r="B963" s="2"/>
       <c r="C963" s="1"/>
@@ -10204,7 +10208,7 @@
       <c r="G963" s="1"/>
       <c r="H963" s="1"/>
     </row>
-    <row r="964" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A964" s="1"/>
       <c r="B964" s="2"/>
       <c r="C964" s="1"/>
@@ -10214,7 +10218,7 @@
       <c r="G964" s="1"/>
       <c r="H964" s="1"/>
     </row>
-    <row r="965" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A965" s="1"/>
       <c r="B965" s="2"/>
       <c r="C965" s="1"/>
@@ -10224,7 +10228,7 @@
       <c r="G965" s="1"/>
       <c r="H965" s="1"/>
     </row>
-    <row r="966" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A966" s="1"/>
       <c r="B966" s="2"/>
       <c r="C966" s="1"/>
@@ -10234,7 +10238,7 @@
       <c r="G966" s="1"/>
       <c r="H966" s="1"/>
     </row>
-    <row r="967" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A967" s="1"/>
       <c r="B967" s="2"/>
       <c r="C967" s="1"/>
@@ -10244,7 +10248,7 @@
       <c r="G967" s="1"/>
       <c r="H967" s="1"/>
     </row>
-    <row r="968" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A968" s="1"/>
       <c r="B968" s="2"/>
       <c r="C968" s="1"/>
@@ -10254,7 +10258,7 @@
       <c r="G968" s="1"/>
       <c r="H968" s="1"/>
     </row>
-    <row r="969" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A969" s="1"/>
       <c r="B969" s="2"/>
       <c r="C969" s="1"/>
@@ -10264,7 +10268,7 @@
       <c r="G969" s="1"/>
       <c r="H969" s="1"/>
     </row>
-    <row r="970" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A970" s="1"/>
       <c r="B970" s="2"/>
       <c r="C970" s="1"/>
@@ -10274,7 +10278,7 @@
       <c r="G970" s="1"/>
       <c r="H970" s="1"/>
     </row>
-    <row r="971" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A971" s="1"/>
       <c r="B971" s="2"/>
       <c r="C971" s="1"/>
@@ -10284,7 +10288,7 @@
       <c r="G971" s="1"/>
       <c r="H971" s="1"/>
     </row>
-    <row r="972" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A972" s="1"/>
       <c r="B972" s="2"/>
       <c r="C972" s="1"/>
@@ -10294,7 +10298,7 @@
       <c r="G972" s="1"/>
       <c r="H972" s="1"/>
     </row>
-    <row r="973" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A973" s="1"/>
       <c r="B973" s="2"/>
       <c r="C973" s="1"/>
@@ -10304,7 +10308,7 @@
       <c r="G973" s="1"/>
       <c r="H973" s="1"/>
     </row>
-    <row r="974" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A974" s="1"/>
       <c r="B974" s="2"/>
       <c r="C974" s="1"/>
@@ -10314,7 +10318,7 @@
       <c r="G974" s="1"/>
       <c r="H974" s="1"/>
     </row>
-    <row r="975" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A975" s="1"/>
       <c r="B975" s="2"/>
       <c r="C975" s="1"/>
@@ -10324,7 +10328,7 @@
       <c r="G975" s="1"/>
       <c r="H975" s="1"/>
     </row>
-    <row r="976" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A976" s="1"/>
       <c r="B976" s="2"/>
       <c r="C976" s="1"/>
@@ -10334,7 +10338,7 @@
       <c r="G976" s="1"/>
       <c r="H976" s="1"/>
     </row>
-    <row r="977" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A977" s="1"/>
       <c r="B977" s="2"/>
       <c r="C977" s="1"/>
@@ -10344,7 +10348,7 @@
       <c r="G977" s="1"/>
       <c r="H977" s="1"/>
     </row>
-    <row r="978" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A978" s="1"/>
       <c r="B978" s="2"/>
       <c r="C978" s="1"/>
@@ -10354,7 +10358,7 @@
       <c r="G978" s="1"/>
       <c r="H978" s="1"/>
     </row>
-    <row r="979" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A979" s="1"/>
       <c r="B979" s="2"/>
       <c r="C979" s="1"/>
@@ -10364,7 +10368,7 @@
       <c r="G979" s="1"/>
       <c r="H979" s="1"/>
     </row>
-    <row r="980" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A980" s="1"/>
       <c r="B980" s="2"/>
       <c r="C980" s="1"/>
@@ -10374,7 +10378,7 @@
       <c r="G980" s="1"/>
       <c r="H980" s="1"/>
     </row>
-    <row r="981" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A981" s="1"/>
       <c r="B981" s="2"/>
       <c r="C981" s="1"/>
@@ -10384,7 +10388,7 @@
       <c r="G981" s="1"/>
       <c r="H981" s="1"/>
     </row>
-    <row r="982" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A982" s="1"/>
       <c r="B982" s="2"/>
       <c r="C982" s="1"/>
@@ -10394,7 +10398,7 @@
       <c r="G982" s="1"/>
       <c r="H982" s="1"/>
     </row>
-    <row r="983" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A983" s="1"/>
       <c r="B983" s="2"/>
       <c r="C983" s="1"/>
@@ -10404,7 +10408,7 @@
       <c r="G983" s="1"/>
       <c r="H983" s="1"/>
     </row>
-    <row r="984" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A984" s="1"/>
       <c r="B984" s="2"/>
       <c r="C984" s="1"/>
@@ -10414,7 +10418,7 @@
       <c r="G984" s="1"/>
       <c r="H984" s="1"/>
     </row>
-    <row r="985" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A985" s="1"/>
       <c r="B985" s="2"/>
       <c r="C985" s="1"/>
@@ -10424,7 +10428,7 @@
       <c r="G985" s="1"/>
       <c r="H985" s="1"/>
     </row>
-    <row r="986" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A986" s="1"/>
       <c r="B986" s="2"/>
       <c r="C986" s="1"/>
@@ -10434,7 +10438,7 @@
       <c r="G986" s="1"/>
       <c r="H986" s="1"/>
     </row>
-    <row r="987" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A987" s="1"/>
       <c r="B987" s="2"/>
       <c r="C987" s="1"/>
@@ -10444,7 +10448,7 @@
       <c r="G987" s="1"/>
       <c r="H987" s="1"/>
     </row>
-    <row r="988" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A988" s="1"/>
       <c r="B988" s="2"/>
       <c r="C988" s="1"/>
@@ -10454,7 +10458,7 @@
       <c r="G988" s="1"/>
       <c r="H988" s="1"/>
     </row>
-    <row r="989" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A989" s="1"/>
       <c r="B989" s="2"/>
       <c r="C989" s="1"/>
@@ -10464,7 +10468,7 @@
       <c r="G989" s="1"/>
       <c r="H989" s="1"/>
     </row>
-    <row r="990" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A990" s="1"/>
       <c r="B990" s="2"/>
       <c r="C990" s="1"/>
@@ -10474,7 +10478,7 @@
       <c r="G990" s="1"/>
       <c r="H990" s="1"/>
     </row>
-    <row r="991" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A991" s="1"/>
       <c r="B991" s="2"/>
       <c r="C991" s="1"/>
@@ -10484,7 +10488,7 @@
       <c r="G991" s="1"/>
       <c r="H991" s="1"/>
     </row>
-    <row r="992" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A992" s="1"/>
       <c r="B992" s="2"/>
       <c r="C992" s="1"/>
@@ -10494,7 +10498,7 @@
       <c r="G992" s="1"/>
       <c r="H992" s="1"/>
     </row>
-    <row r="993" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A993" s="1"/>
       <c r="B993" s="2"/>
       <c r="C993" s="1"/>
@@ -10504,7 +10508,7 @@
       <c r="G993" s="1"/>
       <c r="H993" s="1"/>
     </row>
-    <row r="994" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A994" s="1"/>
       <c r="B994" s="2"/>
       <c r="C994" s="1"/>
@@ -10514,7 +10518,7 @@
       <c r="G994" s="1"/>
       <c r="H994" s="1"/>
     </row>
-    <row r="995" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A995" s="1"/>
       <c r="B995" s="2"/>
       <c r="C995" s="1"/>
@@ -10524,7 +10528,7 @@
       <c r="G995" s="1"/>
       <c r="H995" s="1"/>
     </row>
-    <row r="996" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A996" s="1"/>
       <c r="B996" s="2"/>
       <c r="C996" s="1"/>
@@ -10534,7 +10538,7 @@
       <c r="G996" s="1"/>
       <c r="H996" s="1"/>
     </row>
-    <row r="997" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A997" s="1"/>
       <c r="B997" s="2"/>
       <c r="C997" s="1"/>
@@ -10544,7 +10548,7 @@
       <c r="G997" s="1"/>
       <c r="H997" s="1"/>
     </row>
-    <row r="998" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A998" s="1"/>
       <c r="B998" s="2"/>
       <c r="C998" s="1"/>
@@ -10554,7 +10558,7 @@
       <c r="G998" s="1"/>
       <c r="H998" s="1"/>
     </row>
-    <row r="999" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A999" s="1"/>
       <c r="B999" s="2"/>
       <c r="C999" s="1"/>
@@ -10564,7 +10568,7 @@
       <c r="G999" s="1"/>
       <c r="H999" s="1"/>
     </row>
-    <row r="1000" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1000" s="1"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="1"/>
@@ -10574,7 +10578,7 @@
       <c r="G1000" s="1"/>
       <c r="H1000" s="1"/>
     </row>
-    <row r="1001" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1001" s="1"/>
       <c r="B1001" s="2"/>
       <c r="C1001" s="1"/>
@@ -10584,7 +10588,7 @@
       <c r="G1001" s="1"/>
       <c r="H1001" s="1"/>
     </row>
-    <row r="1002" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1002" s="1"/>
       <c r="B1002" s="2"/>
       <c r="C1002" s="1"/>
@@ -10594,7 +10598,7 @@
       <c r="G1002" s="1"/>
       <c r="H1002" s="1"/>
     </row>
-    <row r="1003" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1003" s="1"/>
       <c r="B1003" s="2"/>
       <c r="C1003" s="1"/>
@@ -10604,7 +10608,7 @@
       <c r="G1003" s="1"/>
       <c r="H1003" s="1"/>
     </row>
-    <row r="1004" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1004" s="1"/>
       <c r="B1004" s="2"/>
       <c r="C1004" s="1"/>
@@ -10614,7 +10618,7 @@
       <c r="G1004" s="1"/>
       <c r="H1004" s="1"/>
     </row>
-    <row r="1005" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1005" s="1"/>
       <c r="B1005" s="2"/>
       <c r="C1005" s="1"/>
@@ -10624,7 +10628,7 @@
       <c r="G1005" s="1"/>
       <c r="H1005" s="1"/>
     </row>
-    <row r="1006" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1006" s="1"/>
       <c r="B1006" s="2"/>
       <c r="C1006" s="1"/>
@@ -10634,7 +10638,7 @@
       <c r="G1006" s="1"/>
       <c r="H1006" s="1"/>
     </row>
-    <row r="1007" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1007" s="1"/>
       <c r="B1007" s="2"/>
       <c r="C1007" s="1"/>
@@ -10644,7 +10648,7 @@
       <c r="G1007" s="1"/>
       <c r="H1007" s="1"/>
     </row>
-    <row r="1008" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1008" s="1"/>
       <c r="B1008" s="2"/>
       <c r="C1008" s="1"/>
@@ -10654,7 +10658,7 @@
       <c r="G1008" s="1"/>
       <c r="H1008" s="1"/>
     </row>
-    <row r="1009" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1009" s="1"/>
       <c r="B1009" s="2"/>
       <c r="C1009" s="1"/>
@@ -10664,7 +10668,7 @@
       <c r="G1009" s="1"/>
       <c r="H1009" s="1"/>
     </row>
-    <row r="1010" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1010" s="1"/>
       <c r="B1010" s="2"/>
       <c r="C1010" s="1"/>
@@ -10674,7 +10678,7 @@
       <c r="G1010" s="1"/>
       <c r="H1010" s="1"/>
     </row>
-    <row r="1011" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1011" s="1"/>
       <c r="B1011" s="2"/>
       <c r="C1011" s="1"/>
@@ -10684,7 +10688,7 @@
       <c r="G1011" s="1"/>
       <c r="H1011" s="1"/>
     </row>
-    <row r="1012" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1012" s="1"/>
       <c r="B1012" s="2"/>
       <c r="C1012" s="1"/>
@@ -10694,7 +10698,7 @@
       <c r="G1012" s="1"/>
       <c r="H1012" s="1"/>
     </row>
-    <row r="1013" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1013" s="1"/>
       <c r="B1013" s="2"/>
       <c r="C1013" s="1"/>
@@ -10704,7 +10708,7 @@
       <c r="G1013" s="1"/>
       <c r="H1013" s="1"/>
     </row>
-    <row r="1014" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1014" s="1"/>
       <c r="B1014" s="2"/>
       <c r="C1014" s="1"/>
@@ -10714,7 +10718,7 @@
       <c r="G1014" s="1"/>
       <c r="H1014" s="1"/>
     </row>
-    <row r="1015" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1015" s="1"/>
       <c r="B1015" s="2"/>
       <c r="C1015" s="1"/>
@@ -10724,7 +10728,7 @@
       <c r="G1015" s="1"/>
       <c r="H1015" s="1"/>
     </row>
-    <row r="1016" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1016" s="1"/>
       <c r="B1016" s="2"/>
       <c r="C1016" s="1"/>
@@ -10734,7 +10738,7 @@
       <c r="G1016" s="1"/>
       <c r="H1016" s="1"/>
     </row>
-    <row r="1017" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1017" s="1"/>
       <c r="B1017" s="2"/>
       <c r="C1017" s="1"/>
@@ -10744,7 +10748,7 @@
       <c r="G1017" s="1"/>
       <c r="H1017" s="1"/>
     </row>
-    <row r="1018" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1018" s="1"/>
       <c r="B1018" s="2"/>
       <c r="C1018" s="1"/>
@@ -10754,7 +10758,7 @@
       <c r="G1018" s="1"/>
       <c r="H1018" s="1"/>
     </row>
-    <row r="1019" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1019" s="1"/>
       <c r="B1019" s="2"/>
       <c r="C1019" s="1"/>
@@ -10764,7 +10768,7 @@
       <c r="G1019" s="1"/>
       <c r="H1019" s="1"/>
     </row>
-    <row r="1020" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1020" s="1"/>
       <c r="B1020" s="2"/>
       <c r="C1020" s="1"/>
@@ -10774,7 +10778,7 @@
       <c r="G1020" s="1"/>
       <c r="H1020" s="1"/>
     </row>
-    <row r="1021" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1021" s="1"/>
       <c r="B1021" s="2"/>
       <c r="C1021" s="1"/>
@@ -10784,7 +10788,7 @@
       <c r="G1021" s="1"/>
       <c r="H1021" s="1"/>
     </row>
-    <row r="1022" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1022" s="1"/>
       <c r="B1022" s="2"/>
       <c r="C1022" s="1"/>
@@ -10794,7 +10798,7 @@
       <c r="G1022" s="1"/>
       <c r="H1022" s="1"/>
     </row>
-    <row r="1023" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1023" s="1"/>
       <c r="B1023" s="2"/>
       <c r="C1023" s="1"/>
@@ -10804,7 +10808,7 @@
       <c r="G1023" s="1"/>
       <c r="H1023" s="1"/>
     </row>
-    <row r="1024" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1024" s="1"/>
       <c r="B1024" s="2"/>
       <c r="C1024" s="1"/>
@@ -10814,7 +10818,7 @@
       <c r="G1024" s="1"/>
       <c r="H1024" s="1"/>
     </row>
-    <row r="1025" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1025" s="1"/>
       <c r="B1025" s="2"/>
       <c r="C1025" s="1"/>
@@ -10824,7 +10828,7 @@
       <c r="G1025" s="1"/>
       <c r="H1025" s="1"/>
     </row>
-    <row r="1026" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1026" s="1"/>
       <c r="B1026" s="2"/>
       <c r="C1026" s="1"/>
@@ -10834,7 +10838,7 @@
       <c r="G1026" s="1"/>
       <c r="H1026" s="1"/>
     </row>
-    <row r="1027" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1027" s="1"/>
       <c r="B1027" s="2"/>
       <c r="C1027" s="1"/>
@@ -10844,7 +10848,7 @@
       <c r="G1027" s="1"/>
       <c r="H1027" s="1"/>
     </row>
-    <row r="1028" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1028" s="1"/>
       <c r="B1028" s="2"/>
       <c r="C1028" s="1"/>
@@ -10854,7 +10858,7 @@
       <c r="G1028" s="1"/>
       <c r="H1028" s="1"/>
     </row>
-    <row r="1029" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1029" s="1"/>
       <c r="B1029" s="2"/>
       <c r="C1029" s="1"/>
@@ -10864,7 +10868,7 @@
       <c r="G1029" s="1"/>
       <c r="H1029" s="1"/>
     </row>
-    <row r="1030" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1030" s="1"/>
       <c r="B1030" s="2"/>
       <c r="C1030" s="1"/>
@@ -10874,7 +10878,7 @@
       <c r="G1030" s="1"/>
       <c r="H1030" s="1"/>
     </row>
-    <row r="1031" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1031" s="1"/>
       <c r="B1031" s="2"/>
       <c r="C1031" s="1"/>
@@ -10884,7 +10888,7 @@
       <c r="G1031" s="1"/>
       <c r="H1031" s="1"/>
     </row>
-    <row r="1032" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1032" s="1"/>
       <c r="B1032" s="2"/>
       <c r="C1032" s="1"/>
@@ -10894,7 +10898,7 @@
       <c r="G1032" s="1"/>
       <c r="H1032" s="1"/>
     </row>
-    <row r="1033" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1033" s="1"/>
       <c r="B1033" s="2"/>
       <c r="C1033" s="1"/>
@@ -10904,7 +10908,7 @@
       <c r="G1033" s="1"/>
       <c r="H1033" s="1"/>
     </row>
-    <row r="1034" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1034" s="1"/>
       <c r="B1034" s="2"/>
       <c r="C1034" s="1"/>
@@ -10914,7 +10918,7 @@
       <c r="G1034" s="1"/>
       <c r="H1034" s="1"/>
     </row>
-    <row r="1035" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1035" s="1"/>
       <c r="B1035" s="2"/>
       <c r="C1035" s="1"/>
@@ -10924,7 +10928,7 @@
       <c r="G1035" s="1"/>
       <c r="H1035" s="1"/>
     </row>
-    <row r="1036" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1036" s="1"/>
       <c r="B1036" s="2"/>
       <c r="C1036" s="1"/>
@@ -10934,7 +10938,7 @@
       <c r="G1036" s="1"/>
       <c r="H1036" s="1"/>
     </row>
-    <row r="1037" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1037" s="1"/>
       <c r="B1037" s="2"/>
       <c r="C1037" s="1"/>
@@ -10944,7 +10948,7 @@
       <c r="G1037" s="1"/>
       <c r="H1037" s="1"/>
     </row>
-    <row r="1038" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1038" s="1"/>
       <c r="B1038" s="2"/>
       <c r="C1038" s="1"/>
@@ -10954,7 +10958,7 @@
       <c r="G1038" s="1"/>
       <c r="H1038" s="1"/>
     </row>
-    <row r="1039" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1039" s="1"/>
       <c r="B1039" s="2"/>
       <c r="C1039" s="1"/>
@@ -10964,7 +10968,7 @@
       <c r="G1039" s="1"/>
       <c r="H1039" s="1"/>
     </row>
-    <row r="1040" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1040" s="1"/>
       <c r="B1040" s="2"/>
       <c r="C1040" s="1"/>
@@ -10974,7 +10978,7 @@
       <c r="G1040" s="1"/>
       <c r="H1040" s="1"/>
     </row>
-    <row r="1041" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1041" s="1"/>
       <c r="B1041" s="2"/>
       <c r="C1041" s="1"/>
@@ -10984,7 +10988,7 @@
       <c r="G1041" s="1"/>
       <c r="H1041" s="1"/>
     </row>
-    <row r="1042" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1042" s="1"/>
       <c r="B1042" s="2"/>
       <c r="C1042" s="1"/>
@@ -10994,7 +10998,7 @@
       <c r="G1042" s="1"/>
       <c r="H1042" s="1"/>
     </row>
-    <row r="1043" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1043" s="1"/>
       <c r="B1043" s="2"/>
       <c r="C1043" s="1"/>
@@ -11004,7 +11008,7 @@
       <c r="G1043" s="1"/>
       <c r="H1043" s="1"/>
     </row>
-    <row r="1044" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1044" s="1"/>
       <c r="B1044" s="2"/>
       <c r="C1044" s="1"/>
@@ -11014,7 +11018,7 @@
       <c r="G1044" s="1"/>
       <c r="H1044" s="1"/>
     </row>
-    <row r="1045" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1045" s="1"/>
       <c r="B1045" s="2"/>
       <c r="C1045" s="1"/>
@@ -11024,7 +11028,7 @@
       <c r="G1045" s="1"/>
       <c r="H1045" s="1"/>
     </row>
-    <row r="1046" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1046" s="1"/>
       <c r="B1046" s="2"/>
       <c r="C1046" s="1"/>
@@ -11034,7 +11038,7 @@
       <c r="G1046" s="1"/>
       <c r="H1046" s="1"/>
     </row>
-    <row r="1047" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1047" s="1"/>
       <c r="B1047" s="2"/>
       <c r="C1047" s="1"/>
@@ -11044,7 +11048,7 @@
       <c r="G1047" s="1"/>
       <c r="H1047" s="1"/>
     </row>
-    <row r="1048" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1048" s="1"/>
       <c r="B1048" s="2"/>
       <c r="C1048" s="1"/>
@@ -11054,7 +11058,7 @@
       <c r="G1048" s="1"/>
       <c r="H1048" s="1"/>
     </row>
-    <row r="1049" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1049" s="1"/>
       <c r="B1049" s="2"/>
       <c r="C1049" s="1"/>
@@ -11064,7 +11068,7 @@
       <c r="G1049" s="1"/>
       <c r="H1049" s="1"/>
     </row>
-    <row r="1050" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1050" s="1"/>
       <c r="B1050" s="2"/>
       <c r="C1050" s="1"/>
@@ -11074,7 +11078,7 @@
       <c r="G1050" s="1"/>
       <c r="H1050" s="1"/>
     </row>
-    <row r="1051" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1051" s="1"/>
       <c r="B1051" s="2"/>
       <c r="C1051" s="1"/>
@@ -11084,7 +11088,7 @@
       <c r="G1051" s="1"/>
       <c r="H1051" s="1"/>
     </row>
-    <row r="1052" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1052" s="1"/>
       <c r="B1052" s="2"/>
       <c r="C1052" s="1"/>
@@ -11094,7 +11098,7 @@
       <c r="G1052" s="1"/>
       <c r="H1052" s="1"/>
     </row>
-    <row r="1053" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1053" s="1"/>
       <c r="B1053" s="2"/>
       <c r="C1053" s="1"/>
@@ -11104,7 +11108,7 @@
       <c r="G1053" s="1"/>
       <c r="H1053" s="1"/>
     </row>
-    <row r="1054" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1054" s="1"/>
       <c r="B1054" s="2"/>
       <c r="C1054" s="1"/>
@@ -11114,7 +11118,7 @@
       <c r="G1054" s="1"/>
       <c r="H1054" s="1"/>
     </row>
-    <row r="1055" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1055" s="1"/>
       <c r="B1055" s="2"/>
       <c r="C1055" s="1"/>
@@ -11124,7 +11128,7 @@
       <c r="G1055" s="1"/>
       <c r="H1055" s="1"/>
     </row>
-    <row r="1056" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1056" s="1"/>
       <c r="B1056" s="2"/>
       <c r="C1056" s="1"/>
@@ -11134,7 +11138,7 @@
       <c r="G1056" s="1"/>
       <c r="H1056" s="1"/>
     </row>
-    <row r="1057" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1057" s="1"/>
       <c r="B1057" s="2"/>
       <c r="C1057" s="1"/>
@@ -11144,7 +11148,7 @@
       <c r="G1057" s="1"/>
       <c r="H1057" s="1"/>
     </row>
-    <row r="1058" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1058" s="1"/>
       <c r="B1058" s="2"/>
       <c r="C1058" s="1"/>
@@ -11154,7 +11158,7 @@
       <c r="G1058" s="1"/>
       <c r="H1058" s="1"/>
     </row>
-    <row r="1059" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1059" s="1"/>
       <c r="B1059" s="2"/>
       <c r="C1059" s="1"/>
@@ -11164,7 +11168,7 @@
       <c r="G1059" s="1"/>
       <c r="H1059" s="1"/>
     </row>
-    <row r="1060" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1060" s="1"/>
       <c r="B1060" s="2"/>
       <c r="C1060" s="1"/>
@@ -11174,7 +11178,7 @@
       <c r="G1060" s="1"/>
       <c r="H1060" s="1"/>
     </row>
-    <row r="1061" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1061" s="1"/>
       <c r="B1061" s="2"/>
       <c r="C1061" s="1"/>
@@ -11184,7 +11188,7 @@
       <c r="G1061" s="1"/>
       <c r="H1061" s="1"/>
     </row>
-    <row r="1062" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1062" s="1"/>
       <c r="B1062" s="2"/>
       <c r="C1062" s="1"/>
@@ -11194,7 +11198,7 @@
       <c r="G1062" s="1"/>
       <c r="H1062" s="1"/>
     </row>
-    <row r="1063" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1063" s="1"/>
       <c r="B1063" s="2"/>
       <c r="C1063" s="1"/>
@@ -11204,7 +11208,7 @@
       <c r="G1063" s="1"/>
       <c r="H1063" s="1"/>
     </row>
-    <row r="1064" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1064" s="1"/>
       <c r="B1064" s="2"/>
       <c r="C1064" s="1"/>
@@ -11214,7 +11218,7 @@
       <c r="G1064" s="1"/>
       <c r="H1064" s="1"/>
     </row>
-    <row r="1065" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1065" s="1"/>
       <c r="B1065" s="2"/>
       <c r="C1065" s="1"/>
@@ -11224,7 +11228,7 @@
       <c r="G1065" s="1"/>
       <c r="H1065" s="1"/>
     </row>
-    <row r="1066" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1066" s="1"/>
       <c r="B1066" s="2"/>
       <c r="C1066" s="1"/>
@@ -11234,7 +11238,7 @@
       <c r="G1066" s="1"/>
       <c r="H1066" s="1"/>
     </row>
-    <row r="1067" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1067" s="1"/>
       <c r="B1067" s="2"/>
       <c r="C1067" s="1"/>
@@ -11244,7 +11248,7 @@
       <c r="G1067" s="1"/>
       <c r="H1067" s="1"/>
     </row>
-    <row r="1068" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1068" s="1"/>
       <c r="B1068" s="2"/>
       <c r="C1068" s="1"/>
@@ -11254,7 +11258,7 @@
       <c r="G1068" s="1"/>
       <c r="H1068" s="1"/>
     </row>
-    <row r="1069" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1069" s="1"/>
       <c r="B1069" s="2"/>
       <c r="C1069" s="1"/>
@@ -11264,7 +11268,7 @@
       <c r="G1069" s="1"/>
       <c r="H1069" s="1"/>
     </row>
-    <row r="1070" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1070" s="1"/>
       <c r="B1070" s="2"/>
       <c r="C1070" s="1"/>
@@ -11274,7 +11278,7 @@
       <c r="G1070" s="1"/>
       <c r="H1070" s="1"/>
     </row>
-    <row r="1071" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1071" s="1"/>
       <c r="B1071" s="2"/>
       <c r="C1071" s="1"/>
@@ -11284,7 +11288,7 @@
       <c r="G1071" s="1"/>
       <c r="H1071" s="1"/>
     </row>
-    <row r="1072" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1072" s="1"/>
       <c r="B1072" s="2"/>
       <c r="C1072" s="1"/>
@@ -11311,14 +11315,14 @@
       <selection activeCell="A2" sqref="A2:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="83.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -11329,7 +11333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -11343,7 +11347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -11357,7 +11361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -11371,7 +11375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -11385,7 +11389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -11399,7 +11403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -11413,7 +11417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -11427,7 +11431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -11441,7 +11445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -11455,7 +11459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -11469,7 +11473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -11483,7 +11487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -11497,7 +11501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -11511,7 +11515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -11525,7 +11529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -11539,7 +11543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -11553,7 +11557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -11567,7 +11571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -11581,7 +11585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>

--- a/Compras.xlsx
+++ b/Compras.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\UiPath\Compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A1A204-7CAE-4CF3-B9E6-06205193A344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D22D77-C15A-40CF-9BE7-8BDF8A560ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="13065" yWindow="3180" windowWidth="2400" windowHeight="585" activeTab="1" xr2:uid="{2E81748A-158E-47CF-85C5-D5DE687CA7E7}"/>
+    <workbookView minimized="1" xWindow="13065" yWindow="3180" windowWidth="2400" windowHeight="585" activeTab="2" xr2:uid="{2E81748A-158E-47CF-85C5-D5DE687CA7E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$D$1:$D$1072</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5640" uniqueCount="2573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5668" uniqueCount="2599">
   <si>
     <t>585</t>
   </si>
@@ -7760,6 +7761,217 @@
   </si>
   <si>
     <t>08/01/2024</t>
+  </si>
+  <si>
+    <t>FACTURA ELECTRÓNICA DE VENTA_x000D_
+Representación Gráfica_x000D_
+Datos del Documento_x000D_
+Código Único de Factura - CUFE :_x000D_
+8ed07a5552e5feb82154eed424778e827f68601c67774ffaf13f1dcc9ebc44f285b875ca137109536432c2a1022df14a_x000D_
+Número de Factura:   GS06-3308779 Forma de pago:   Contado_x000D_
+Fecha de Emisión:   30/08/2024 Medio de Pago:   Instrumento no definido_x000D_
+Fecha de Vencimiento:    Orden de pedido:   8V229240_x000D_
+Tipo de Operación:   10 - Estándar Fecha de orden de pedido:_x000D_
+Datos del Emisor / Vendedor_x000D_
+Razón Social:   Gaseosas Colombianas S.A.S._x000D_
+Nombre Comercial:   Gaseosas Colombianas S.A.S._x000D_
+Nit del Emisor:   860005265 País:   Colombia_x000D_
+Tipo de Contribuyente:   Persona Jurídica Departamento:   Cundinamarca_x000D_
+Régimen Fiscal: O-13;O-15 Municipio / Ciudad:   Bogota D.C._x000D_
+Responsabilidad tributaria:   01 - IVA Dirección:   TV 72 A 45 52 SUR_x000D_
+Actividad Económica:  Teléfono / Móvil:_x000D_
+Correo:   recepcionfe@gascol.com.co_x000D_
+Datos del Adquiriente / Comprador_x000D_
+Nombre o Razón Social:   JOSE ALEXANDER VARGAS CARDENAS_x000D_
+Tipo de Documento:   Cédula de ciudadanía País:   Colombia_x000D_
+Número Documento:   80734665 Departamento:_x000D_
+Tipo de Contribuyente:   Persona Natural Municipio / Ciudad:   SOACHA_x000D_
+Régimen fiscal:   R-99-PN Dirección:   CL 30 6 C 04 ESTE_x000D_
+Responsabilidad tributaria:   01 - IVA Teléfono / Móvil:   3144373363_x000D_
+Correo:   joseacargasc06@gmail.com_x000D_
+Detalles de Productos_x000D_
+IMPUESTOS Precio_x000D_
+Nro. Código Descripción U/M Cantidad Precio unitario Descuento detalle Recargo detalle IVA % INC % unitario de_x000D_
+venta_x000D_
+1 6010 Cafe Tostao Select 110g NAR 1,00 $ 3.557,14 $ 0,00 $ 0,00 $ 177,86 5.00  $ 3.557,14_x000D_
+NI_x000D_
+2 5538 * Dulce D.Guayab NAR 2,00 $ 13.120,00 $ 3.555,52 $ 0,00    $ 22.684,48_x000D_
+Vel50gBx25_x000D_
+Hoja 1 de 2_x000D_
+Notas Finales_x000D_
+1.=Somos grandes contribuyentes \n Agentes retenedores del IVA - Responsables de IVA \n Actividad Económica principal 1104 \n Somos autorretened_x000D_
+ores del impuesto de renta según Res. 3525 del 29 Abril de 2015 | Autorización de facturación No.18764067283111 PrefijoGS062000001-GS06100000_x000D_
+00 desde 2024-03-13 hasta 2025-09-13_x000D_
+3.=5661-1|10334|334|149-GARZON MUNOZ FREDY ANDRES|Bogotá D.C.|_x000D_
+6.=CONTADO|VEINTISEIS MIL CUATROCIENTOS DIECINUEVE PESOS CON 48/100 ***********************|_x000D_
+7.=www.postobon.com|31/08/2024|860005265|_x000D_
+8.=3144373363|80.734.665_x000D_
+12.=||3||||_x000D_
+14.=En la venta de cerveza actuamos como mandatario.\nEl distribuidor de los productos enajenados de conformidad con esta factura de venta manifi_x000D_
+esta que el impuesto al consumo ha sido declarado y pagado en el departamento correspondiente al lugar de emisión de la factura; por lo tanto los trasl_x000D_
+ados de producto que pudiera hacer el consumidor final a otro departamento no afectan la responsabilidad del distribuidor en cuanto al impuesto referid_x000D_
+o.|_x000D_
+15.=El original de esta factura de venta una vez aceptada constituye título valor_x000D_
+CTS1.=SALSAMENTARIA SAN MATEO ESQ|SALSAMENTARIA SAN MATEO ESQ|2024-08-30|TV 72 A 45 52 SUR||||5|1|||||_x000D_
+CTS2.=29797.14|3555.52|_x000D_
+PTB1.=0.00|_x000D_
+El ejemplar que reciba la DIAN se utilizará sólo para fines de control, verificación y fiscalización_x000D_
+NumFac: GS063308779 FecFac: 2024-08-30 HorFac: 20:39:31-05:00 NitFac: 860005265 DocAdq: 80734665 ValFac: 26241.62 ValIva: 177.86 ValOtr_x000D_
+oIm: 0.00 ValTolFac: 26419.48 CUFE: 8ed07a5552e5feb82154eed424778e827f68601c67774ffaf13f1dcc9ebc44f285b875ca137109536432c2a1022d_x000D_
+f14a https://catalogo-vpfe.dian.gov.co/document/searchqr?documentkey=8ed07a5552e5feb82154eed424778e827f68601c67774ffaf13f1dcc9ebc44_x000D_
+f285b875ca137109536432c2a1022df14a_x000D_
+NumFac: GS063308779 FecFac: 2024-08-30 HorFac: 20:39:31-05:00 ValFac: 26419.48 CodImp1: 01 ValImp1: 177.86 CodImp2: 02 ValImp2: 0.00 C_x000D_
+odImp3: 03 ValImp3: 0.00 ValTot: 26241.62 NitOFE: 860005265 NumAdq: 80734665 TipoAmbiente: 1 String: GS0633087792024-08-3020:39:31-05_x000D_
+:0026241.6201177.86040.00030.0026419.48860005265807346651_x000D_
+Hoja 2 de 2_x000D_
+Datos Totales_x000D_
+MONEDA COP_x000D_
+TASA DE CAMBIO_x000D_
+Subtotal 29.797,14_x000D_
+Descuento detalle 3.555,52_x000D_
+Recargo detalle 0,00_x000D_
+Total Bruto Factura 26.241,62_x000D_
+IVA 177,86_x000D_
+Documento generado el: INC 0,00_x000D_
+30/08/2024 20:49:29 Bolsas 0,00_x000D_
+Documento validado por la DIAN: Otros impuestos 0,00_x000D_
+30/08/2024 20:49:37 Total impuesto (=) 177,86_x000D_
+XML Generado por: Total neto factura (=) 26.419,48_x000D_
+Proveedor Tecnológico_x000D_
+890321151 Descuento Global (-) 0,00_x000D_
+PDF Generado por: Recargo Global (+) 0,00_x000D_
+Solución Gratuita DIAN Total factura (=) ㅤㅤㅤㅤ COP $ $ 26.419,48_x000D_
+Nit:800197268_x000D_
+Valores informativos_x000D_
+ANTICIPOS_x000D_
+Anticipos_x000D_
+RETENCIONES_x000D_
+Rete fuente 0,00_x000D_
+Rete IVA 0,00_x000D_
+Rete ICA 0,00_x000D_
+Numero de Autorización: 18764067283111 Rango desde: 2000001 Rango hasta: 10000000 Vigencia: 2025-09-13_x000D_
+Hoja 3 de 2</t>
+  </si>
+  <si>
+    <t>Column-2</t>
+  </si>
+  <si>
+    <t>Column-4</t>
+  </si>
+  <si>
+    <t>Column-5</t>
+  </si>
+  <si>
+    <t>Column-6</t>
+  </si>
+  <si>
+    <t>IMPUESTO  S</t>
+  </si>
+  <si>
+    <t>Column-8</t>
+  </si>
+  <si>
+    <t>Preci  o   unitari  o   d  e   vent  a</t>
+  </si>
+  <si>
+    <t>Column-10</t>
+  </si>
+  <si>
+    <t>Column-11</t>
+  </si>
+  <si>
+    <t>Column-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripció_x000D_
+n _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantida_x000D_
+d _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preci_x000D_
+o _x000D_
+unitari_x000D_
+o _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descuent_x000D_
+o _x000D_
+detall_x000D_
+e _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recarg_x000D_
+o _x000D_
+detall_x000D_
+e _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IV_x000D_
+A _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN_x000D_
+C _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARIN_x000D_
+A _x000D_
+FORT_x000D_
+I _x000D_
+GENERA_x000D_
+L _x000D_
+5_x000D_
+0 _x000D_
+K_x000D_
+G _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120,0_x000D_
+0 _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ _x000D_
+120.000,0_x000D_
+0 _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ _x000D_
+0,0_x000D_
+0 _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ _x000D_
+708.000,0_x000D_
+0 _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0_x000D_
+0 _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ _x000D_
+14.160.000,0_x000D_
+0 _x000D_
+</t>
   </si>
 </sst>
 </file>
@@ -7806,11 +8018,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8148,7 +8366,7 @@
   <dimension ref="A1:M1137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8163,7 +8381,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -30764,14 +30982,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE05E93-E858-4F63-8E0A-8B6C14293C26}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="145" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" customWidth="1"/>
     <col min="3" max="3" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -30852,9 +31070,11 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+    <row r="13" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>2573</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
@@ -30903,4 +31123,132 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E67F304-4BCA-4371-A0C5-9A00FE8A9B96}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="89.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2576</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2577</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2578</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2579</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2580</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2581</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2588</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>2589</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>2590</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>2591</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2595</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>2596</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>2597</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>2598</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>